--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8A22DB-FC63-408B-9C96-37637D01A9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9D4075-39F2-47E3-B8DF-EF83586BAF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="287">
   <si>
     <t>group</t>
   </si>
@@ -455,9 +455,6 @@
   </si>
   <si>
     <t>sky_sam</t>
-  </si>
-  <si>
-    <t>没人要的瓜娃子</t>
   </si>
   <si>
     <t>六道神</t>
@@ -831,6 +828,98 @@
   </si>
   <si>
     <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#23238E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.X.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七喜打倒雪碧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴老枸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊藤泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追梦绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dwdww</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何黄黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李狗蛋76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴普斯定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPEOVH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朦朧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀的创意和作品值得被大家认识！作者加油！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柴来人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望独立游戏势头越来越好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们来玩一个游戏，规则是:不要看这条特别感谢 → 你输了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢你们的创意。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三点多睡的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青天癞蛤蟆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,6 +938,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1167,21 +1257,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D249"/>
+  <dimension ref="A1:D266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="I262" sqref="I262"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="F271" sqref="F271"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.9140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.08203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.25" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.9140625" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.21875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1192,10 +1282,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1206,7 +1296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1214,7 +1304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1222,7 +1312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1230,7 +1320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1238,7 +1328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1246,7 +1336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1254,7 +1344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1262,7 +1352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1270,7 +1360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1278,7 +1368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1286,7 +1376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -1294,15 +1384,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1310,7 +1403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -1318,7 +1411,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -1326,7 +1419,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -1334,7 +1427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -1345,7 +1438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -1353,7 +1446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -1361,7 +1454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -1369,7 +1462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -1377,7 +1470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -1385,7 +1478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -1393,7 +1486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -1401,7 +1494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -1409,7 +1502,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -1417,7 +1510,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1428,7 +1521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -1436,7 +1529,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -1444,7 +1537,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -1452,7 +1545,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -1460,7 +1553,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -1468,7 +1561,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -1476,7 +1569,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -1484,7 +1577,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -1492,7 +1585,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -1500,7 +1593,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -1508,7 +1601,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -1516,7 +1609,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -1524,7 +1617,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -1532,7 +1625,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -1540,7 +1633,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -1548,7 +1641,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -1556,7 +1649,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -1564,7 +1657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -1572,7 +1665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -1580,7 +1673,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -1588,7 +1681,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -1596,7 +1689,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -1604,7 +1697,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -1612,7 +1705,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -1620,7 +1713,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -1628,7 +1721,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -1636,7 +1729,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -1644,7 +1737,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -1652,7 +1745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -1660,7 +1753,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -1668,7 +1761,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -1676,7 +1769,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -1684,7 +1777,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -1692,7 +1785,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -1700,7 +1793,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -1708,7 +1801,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -1716,7 +1809,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2</v>
       </c>
@@ -1724,7 +1817,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -1732,7 +1825,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -1740,7 +1833,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -1748,7 +1841,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -1756,7 +1849,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -1764,7 +1857,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -1772,7 +1865,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2</v>
       </c>
@@ -1780,7 +1873,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -1788,7 +1881,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2</v>
       </c>
@@ -1796,7 +1889,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -1807,7 +1900,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2</v>
       </c>
@@ -1815,7 +1908,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2</v>
       </c>
@@ -1823,7 +1916,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2</v>
       </c>
@@ -1831,7 +1924,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2</v>
       </c>
@@ -1839,7 +1932,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2</v>
       </c>
@@ -1847,7 +1940,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -1858,7 +1951,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2</v>
       </c>
@@ -1866,7 +1959,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2</v>
       </c>
@@ -1874,7 +1967,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2</v>
       </c>
@@ -1882,7 +1975,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>2</v>
       </c>
@@ -1890,7 +1983,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>2</v>
       </c>
@@ -1898,7 +1991,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>2</v>
       </c>
@@ -1906,7 +1999,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>2</v>
       </c>
@@ -1914,7 +2007,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2</v>
       </c>
@@ -1922,7 +2015,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>2</v>
       </c>
@@ -1930,7 +2023,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2</v>
       </c>
@@ -1938,7 +2031,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2</v>
       </c>
@@ -1946,7 +2039,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2</v>
       </c>
@@ -1954,7 +2047,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2</v>
       </c>
@@ -1962,7 +2055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2</v>
       </c>
@@ -1970,7 +2063,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2</v>
       </c>
@@ -1978,7 +2071,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2</v>
       </c>
@@ -1986,7 +2079,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2</v>
       </c>
@@ -1994,7 +2087,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -2002,7 +2095,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2</v>
       </c>
@@ -2010,7 +2103,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2</v>
       </c>
@@ -2018,7 +2111,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2</v>
       </c>
@@ -2026,7 +2119,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2</v>
       </c>
@@ -2034,7 +2127,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2</v>
       </c>
@@ -2042,7 +2135,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2</v>
       </c>
@@ -2050,7 +2143,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2</v>
       </c>
@@ -2058,7 +2151,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2</v>
       </c>
@@ -2066,7 +2159,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2</v>
       </c>
@@ -2074,7 +2167,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>1</v>
       </c>
@@ -2085,7 +2178,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>1</v>
       </c>
@@ -2096,7 +2189,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2</v>
       </c>
@@ -2104,7 +2197,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2</v>
       </c>
@@ -2112,7 +2205,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2</v>
       </c>
@@ -2120,7 +2213,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2</v>
       </c>
@@ -2128,7 +2221,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2</v>
       </c>
@@ -2136,7 +2229,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2</v>
       </c>
@@ -2144,7 +2237,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2</v>
       </c>
@@ -2152,7 +2245,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2</v>
       </c>
@@ -2160,7 +2253,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2</v>
       </c>
@@ -2168,7 +2261,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2</v>
       </c>
@@ -2176,7 +2269,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2</v>
       </c>
@@ -2184,7 +2277,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -2192,7 +2285,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -2200,7 +2293,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2</v>
       </c>
@@ -2208,7 +2301,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2</v>
       </c>
@@ -2216,7 +2309,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -2224,7 +2317,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2</v>
       </c>
@@ -2232,7 +2325,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2</v>
       </c>
@@ -2240,7 +2333,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2</v>
       </c>
@@ -2248,7 +2341,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2</v>
       </c>
@@ -2256,7 +2349,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2</v>
       </c>
@@ -2264,7 +2357,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2</v>
       </c>
@@ -2272,7 +2365,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2</v>
       </c>
@@ -2280,7 +2373,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2</v>
       </c>
@@ -2288,7 +2381,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2</v>
       </c>
@@ -2296,7 +2389,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2</v>
       </c>
@@ -2304,920 +2397,1068 @@
         <v>144</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>2</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
-        <v>2</v>
-      </c>
-      <c r="B140" s="1" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>2</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
-        <v>2</v>
-      </c>
-      <c r="B141" s="1" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>2</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
-        <v>2</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C143" s="1" t="s">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>2</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
-        <v>2</v>
-      </c>
-      <c r="B144" s="1" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>2</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
-        <v>2</v>
-      </c>
-      <c r="B145" s="1" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>2</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
-        <v>2</v>
-      </c>
-      <c r="B146" s="1" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>2</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="1">
-        <v>2</v>
-      </c>
-      <c r="B147" s="1" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>2</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
-        <v>2</v>
-      </c>
-      <c r="B148" s="1" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>2</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="1">
-        <v>2</v>
-      </c>
-      <c r="B149" s="1" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>2</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
-        <v>2</v>
-      </c>
-      <c r="B150" s="1" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>2</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
-        <v>2</v>
-      </c>
-      <c r="B151" s="1" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>2</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
-        <v>2</v>
-      </c>
-      <c r="B152" s="1" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>2</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="1">
-        <v>2</v>
-      </c>
-      <c r="B153" s="1" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>2</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="1">
-        <v>2</v>
-      </c>
-      <c r="B154" s="1" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>2</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="1">
-        <v>2</v>
-      </c>
-      <c r="B155" s="1" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>2</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
-        <v>2</v>
-      </c>
-      <c r="B156" s="1" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>2</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
-        <v>2</v>
-      </c>
-      <c r="B157" s="1" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>2</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
-        <v>2</v>
-      </c>
-      <c r="B158" s="1" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>2</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
-        <v>2</v>
-      </c>
-      <c r="B159" s="1" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>2</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
-        <v>2</v>
-      </c>
-      <c r="B160" s="1" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>2</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="1">
-        <v>2</v>
-      </c>
-      <c r="B161" s="1" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>2</v>
+      </c>
+      <c r="B162" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="1">
-        <v>2</v>
-      </c>
-      <c r="B162" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>2</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="1">
-        <v>2</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>1</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C164" s="1" t="s">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>2</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="1">
-        <v>2</v>
-      </c>
-      <c r="B165" s="1" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>2</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
-        <v>2</v>
-      </c>
-      <c r="B166" s="1" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>2</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="1">
-        <v>2</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>1</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>1</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>1</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C170" s="1" t="s">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>2</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="1">
-        <v>2</v>
-      </c>
-      <c r="B171" s="1" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>2</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="1">
-        <v>2</v>
-      </c>
-      <c r="B172" s="1" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>2</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>2</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="1">
-        <v>2</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="1">
-        <v>2</v>
-      </c>
-      <c r="B174" s="1" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>2</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="1">
-        <v>2</v>
-      </c>
-      <c r="B175" s="1" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>2</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
-        <v>2</v>
-      </c>
-      <c r="B176" s="1" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>2</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="1">
-        <v>2</v>
-      </c>
-      <c r="B177" s="1" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>2</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
-        <v>2</v>
-      </c>
-      <c r="B178" s="1" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>2</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="1">
-        <v>2</v>
-      </c>
-      <c r="B179" s="1" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>2</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="1">
-        <v>2</v>
-      </c>
-      <c r="B180" s="1" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>2</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
-        <v>2</v>
-      </c>
-      <c r="B181" s="1" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>2</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
-        <v>2</v>
-      </c>
-      <c r="B182" s="1" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>2</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
-        <v>2</v>
-      </c>
-      <c r="B183" s="1" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>2</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="1">
-        <v>2</v>
-      </c>
-      <c r="B184" s="1" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>2</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="1">
-        <v>2</v>
-      </c>
-      <c r="B185" s="1" t="s">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>2</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="1">
-        <v>2</v>
-      </c>
-      <c r="B186" s="1" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>2</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="1">
-        <v>2</v>
-      </c>
-      <c r="B187" s="1" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>2</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="1">
-        <v>2</v>
-      </c>
-      <c r="B188" s="1" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>2</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
-        <v>2</v>
-      </c>
-      <c r="B189" s="1" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>2</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="1">
-        <v>2</v>
-      </c>
-      <c r="B190" s="1" t="s">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>1</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
-        <v>2</v>
-      </c>
-      <c r="B191" s="1" t="s">
+      <c r="C191" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>2</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="1">
-        <v>2</v>
-      </c>
-      <c r="B192" s="1" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>2</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="1">
-        <v>2</v>
-      </c>
-      <c r="B193" s="1" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>2</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="1">
-        <v>2</v>
-      </c>
-      <c r="B194" s="1" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>2</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="1">
-        <v>2</v>
-      </c>
-      <c r="B195" s="1" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>2</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="1">
-        <v>2</v>
-      </c>
-      <c r="B196" s="1" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>2</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="1">
-        <v>2</v>
-      </c>
-      <c r="B197" s="1" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>2</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="1">
-        <v>2</v>
-      </c>
-      <c r="B198" s="1" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>2</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="1">
-        <v>2</v>
-      </c>
-      <c r="B199" s="1" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>2</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="1">
-        <v>2</v>
-      </c>
-      <c r="B200" s="1" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>2</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="1">
-        <v>2</v>
-      </c>
-      <c r="B201" s="1" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>2</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="1">
-        <v>2</v>
-      </c>
-      <c r="B202" s="1" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>2</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="1">
-        <v>2</v>
-      </c>
-      <c r="B203" s="1" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>2</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="1">
-        <v>2</v>
-      </c>
-      <c r="B204" s="1" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>2</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="1">
-        <v>2</v>
-      </c>
-      <c r="B205" s="1" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>2</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="1">
-        <v>2</v>
-      </c>
-      <c r="B206" s="1" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>2</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="1">
-        <v>2</v>
-      </c>
-      <c r="B207" s="1" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>2</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="1">
-        <v>2</v>
-      </c>
-      <c r="B208" s="1" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>2</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="1">
-        <v>2</v>
-      </c>
-      <c r="B209" s="1" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>2</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="1">
-        <v>2</v>
-      </c>
-      <c r="B210" s="1" t="s">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>2</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="1">
-        <v>2</v>
-      </c>
-      <c r="B211" s="1" t="s">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>2</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="1">
-        <v>2</v>
-      </c>
-      <c r="B212" s="1" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>2</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="1">
-        <v>2</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>1</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C214" s="1" t="s">
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>2</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="1">
-        <v>2</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>1</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C216" s="1" t="s">
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>2</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="1">
-        <v>2</v>
-      </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="2"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>2</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C217" s="2"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="1">
-        <v>2</v>
-      </c>
-      <c r="B218" s="1" t="s">
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>2</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="1">
-        <v>2</v>
-      </c>
-      <c r="B219" s="1" t="s">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>2</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="1">
-        <v>2</v>
-      </c>
-      <c r="B220" s="1" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>2</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="1">
-        <v>2</v>
-      </c>
-      <c r="B221" s="1" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>2</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="1">
-        <v>2</v>
-      </c>
-      <c r="B222" s="1" t="s">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>2</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="1">
-        <v>2</v>
-      </c>
-      <c r="B223" s="1" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>2</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="1">
-        <v>2</v>
-      </c>
-      <c r="B224" s="1" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>2</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="1">
-        <v>2</v>
-      </c>
-      <c r="B225" s="1" t="s">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>2</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="1">
-        <v>2</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>1</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C227" s="1" t="s">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>2</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="1">
-        <v>2</v>
-      </c>
-      <c r="B228" s="1" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>2</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="1">
-        <v>2</v>
-      </c>
-      <c r="B229" s="1" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>2</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="1">
-        <v>2</v>
-      </c>
-      <c r="B230" s="1" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>2</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="1">
-        <v>2</v>
-      </c>
-      <c r="B231" s="1" t="s">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>2</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="1">
-        <v>2</v>
-      </c>
-      <c r="B232" s="1" t="s">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>2</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="1">
-        <v>2</v>
-      </c>
-      <c r="B233" s="1" t="s">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>2</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="1">
-        <v>2</v>
-      </c>
-      <c r="B234" s="1" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>2</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="1">
-        <v>2</v>
-      </c>
-      <c r="B235" s="1" t="s">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>2</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="1">
-        <v>2</v>
-      </c>
-      <c r="B236" s="1" t="s">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>2</v>
+      </c>
+      <c r="B237" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="1">
-        <v>2</v>
-      </c>
-      <c r="B237" s="3" t="s">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>2</v>
+      </c>
+      <c r="B238" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="1">
-        <v>2</v>
-      </c>
-      <c r="B238" s="3" t="s">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>2</v>
+      </c>
+      <c r="B239" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="1">
-        <v>2</v>
-      </c>
-      <c r="B239" s="3" t="s">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>2</v>
+      </c>
+      <c r="B240" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="1">
-        <v>2</v>
-      </c>
-      <c r="B240" s="3" t="s">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>2</v>
+      </c>
+      <c r="B241" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="1">
-        <v>2</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>1</v>
       </c>
       <c r="B242" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>2</v>
+      </c>
+      <c r="B243" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C242" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="1">
-        <v>2</v>
-      </c>
-      <c r="B243" s="3" t="s">
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>2</v>
+      </c>
+      <c r="B244" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="1">
-        <v>2</v>
-      </c>
-      <c r="B244" s="3" t="s">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>2</v>
+      </c>
+      <c r="B245" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="1">
-        <v>2</v>
-      </c>
-      <c r="B245" s="3" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>2</v>
+      </c>
+      <c r="B246" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="1">
-        <v>2</v>
-      </c>
-      <c r="B246" s="3" t="s">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>2</v>
+      </c>
+      <c r="B247" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="1">
-        <v>2</v>
-      </c>
-      <c r="B247" s="3" t="s">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>2</v>
+      </c>
+      <c r="B248" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="1">
-        <v>2</v>
-      </c>
-      <c r="B248" s="3" t="s">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>2</v>
+      </c>
+      <c r="B249" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="1">
-        <v>2</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>262</v>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>2</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>2</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>2</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>1</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>2</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>2</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>2</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>2</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>2</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>2</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>2</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>1</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>2</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>2</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>1</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>2</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>2</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9D4075-39F2-47E3-B8DF-EF83586BAF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C82219F-30E5-46F9-B026-4B2584AB5650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="293">
   <si>
     <t>group</t>
   </si>
@@ -920,6 +920,30 @@
   </si>
   <si>
     <t>青天癞蛤蟆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laodian_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涅逍遥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ryougi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>railnoth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白鲤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1257,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D266"/>
+  <dimension ref="A1:D272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="F271" sqref="F271"/>
+      <selection activeCell="B272" sqref="B272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3461,6 +3485,54 @@
         <v>285</v>
       </c>
     </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>2</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>2</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>2</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>2</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>2</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>2</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C82219F-30E5-46F9-B026-4B2584AB5650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEBAFE9-AE30-4538-B9CC-85BEA725C71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="299">
   <si>
     <t>group</t>
   </si>
@@ -944,6 +944,30 @@
   </si>
   <si>
     <t>白鲤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daydream2333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神之领域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困爱揽典珈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰孤逗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风滚草</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1281,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D272"/>
+  <dimension ref="A1:D278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="B272" sqref="B272"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="E273" sqref="E273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3533,6 +3557,54 @@
         <v>292</v>
       </c>
     </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>2</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>2</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>2</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>2</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>2</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>2</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEBAFE9-AE30-4538-B9CC-85BEA725C71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFCB5AA-9538-483F-97F8-EC0F12B455D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="326">
   <si>
     <t>group</t>
   </si>
@@ -968,6 +968,114 @@
   </si>
   <si>
     <t>风滚草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两只鱼吃蛋挞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般路过的咸鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸鱼鱼F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空扛大总管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小张有点慌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有儿孙我享福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转世渡劫一半嗝屁者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jerryxu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芋头丶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨繁星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弥撒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云中鹤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TunaFish2K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘洪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>berry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持枪孤守长安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清风有绪忆江南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mr.Nobody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱发电用户_yqdg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看似简单，创意不易。支持原创，走向远方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我年轻的时候，也曾快马加鞭，看尽长安花。一一jx3金主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李笑梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小张有点慌吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这不比抽奖好玩？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1305,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D278"/>
+  <dimension ref="A1:D302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="E273" sqref="E273"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="C291" sqref="C291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2237,7 +2345,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2</v>
       </c>
@@ -2245,7 +2353,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2</v>
       </c>
@@ -2253,7 +2361,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2</v>
       </c>
@@ -2261,7 +2369,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2</v>
       </c>
@@ -2269,7 +2377,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2</v>
       </c>
@@ -2277,7 +2385,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2</v>
       </c>
@@ -2285,7 +2393,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2</v>
       </c>
@@ -2293,7 +2401,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2</v>
       </c>
@@ -2301,7 +2409,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2</v>
       </c>
@@ -2309,15 +2417,18 @@
         <v>127</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2</v>
       </c>
@@ -2325,7 +2436,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -2333,7 +2444,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -2341,7 +2452,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2</v>
       </c>
@@ -2349,7 +2460,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2</v>
       </c>
@@ -2357,7 +2468,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -3557,7 +3668,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>2</v>
       </c>
@@ -3565,7 +3676,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>2</v>
       </c>
@@ -3573,7 +3684,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>2</v>
       </c>
@@ -3581,7 +3692,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>2</v>
       </c>
@@ -3589,7 +3700,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>2</v>
       </c>
@@ -3597,12 +3708,210 @@
         <v>297</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>2</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>298</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>2</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>2</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>2</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>2</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>2</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>2</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>2</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>1</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>2</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>2</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>2</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>2</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>2</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>2</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>2</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>2</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>2</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>2</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>2</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>2</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>2</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>2</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>2</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>1</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFCB5AA-9538-483F-97F8-EC0F12B455D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA67E60-5BED-41CA-8135-C70A8703B3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="358">
   <si>
     <t>group</t>
   </si>
@@ -1076,6 +1076,134 @@
   </si>
   <si>
     <t>这不比抽奖好玩？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截杀元婴大佬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不加的珠珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上善若水煮汤圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口袋王野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袜子兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又怎样我同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉末DVD↑↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱加班的中矢建工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukomico</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newnigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asillynoob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芬爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一世长安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖怪蜀黍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是谁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yzkrz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多某人lxd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫猫猫毛多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥苍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小崽崽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊氏本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枫叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timetorain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xingkonghod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hzk990929</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京林业大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沸腾的幻景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是原P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1413,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D302"/>
+  <dimension ref="A1:D334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="C291" sqref="C291"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="C339" sqref="C339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3914,6 +4042,262 @@
         <v>321</v>
       </c>
     </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>2</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>2</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>2</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>2</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>2</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>2</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>2</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>2</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>2</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>2</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>2</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>2</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>2</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>2</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>2</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>2</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>2</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>2</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>2</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>2</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>2</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>2</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>2</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>2</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>2</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>2</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>2</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>2</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>2</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>2</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>2</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>2</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA67E60-5BED-41CA-8135-C70A8703B3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD2542-2359-4333-B4BC-49D5F61C0DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="392">
   <si>
     <t>group</t>
   </si>
@@ -1204,6 +1204,142 @@
   </si>
   <si>
     <t>我是原P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煮饭233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千里未来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haooo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闵佳瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿婆朱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油腻的Wink😉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带你嫖娼的馆长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obento</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银子舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大户爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥渊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜汁帅气小彩蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陌云铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忆丶醉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙空间法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛瑙星mnx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marvin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有酸萝卜别吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m子会梦见花之暴君吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘云金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天湮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持国产游戏，吾辈义不容辞！————读完本科自称硕士的沙雕的高质量网友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟹老板的老公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小书童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我知道我们没有缘分，这也不是我想要的结果，事与愿违，曾经我们都想好好的，即使现在我也是想要跟你好好的，虽然你看不见，但还是想留下这么一句话（可能会有人看到会觉得挺可笑的 确实挺幼稚的）十年的恋情，不希望给你带来生活的压力， 希望你快快乐乐的 这也是我一直给你说的 也是一直希望的—GQQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#00BFFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1541,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D334"/>
+  <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="C339" sqref="C339"/>
+    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
+      <selection activeCell="G367" sqref="G367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4298,6 +4434,271 @@
         <v>357</v>
       </c>
     </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>2</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>2</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>2</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>2</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>2</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>2</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>2</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>2</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>1</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>2</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>2</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>2</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>2</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>2</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>2</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>2</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>2</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>2</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>2</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>2</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>2</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>2</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>2</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>2</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>2</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>2</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>2</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>2</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>1</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>2</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>2</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>2</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD2542-2359-4333-B4BC-49D5F61C0DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029FA711-C462-43C5-8083-8FE8E667B398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="428">
   <si>
     <t>group</t>
   </si>
@@ -1340,6 +1340,150 @@
   </si>
   <si>
     <t>#00BFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉心糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yeke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幡因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷灯蔷薇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗马皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观众老爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZZZZZF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星三西米露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所行皆为何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3AdCa7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>句号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温情大白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amomia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禾Ray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惜源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿迟迟迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纱布Sa_Official</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白猪M82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社畜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isarr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么时候君士坦丁十一世如闪电般归来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望大家多多养猫，领养代替购买。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【前排征婚】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我和你一起爱左蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男魔仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏可以无限重开，可惜人生不能——活着吧，活着总比死了强。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#99ff99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1391,7 +1535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1401,6 +1545,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1677,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D366"/>
+  <dimension ref="A1:D398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
-      <selection activeCell="G367" sqref="G367"/>
+    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="C398" sqref="C398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4699,6 +4846,274 @@
         <v>391</v>
       </c>
     </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>2</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>2</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>2</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>2</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>2</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>2</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>2</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>2</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>2</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>2</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>2</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>2</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>2</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>2</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>2</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>2</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>1</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>2</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>2</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>2</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>1</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>2</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>2</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>2</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>2</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>1</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>2</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>2</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>2</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>2</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>2</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>2</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029FA711-C462-43C5-8083-8FE8E667B398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8FD2ED-7EB2-4664-9439-36FF7B849B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="465">
   <si>
     <t>group</t>
   </si>
@@ -1484,6 +1484,180 @@
   </si>
   <si>
     <t>早啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢肥哥救我狗命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果可以的话希望人生重开后还能遇到你们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清影昏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散修少年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨某</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ainavol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不识周树人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坠星灬追月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>juvucuc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深秋的七宗罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋漓雨声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废柴呀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天林灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱白安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王牛子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dis114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺其自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linkanin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最佳演员路人甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐身。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼岸星霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小沈0421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dorado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小糊涂仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姬子，不论重生多长次，我都等你回来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离淘气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沐离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If what you need didn't exist. just create it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五彩鸿鹄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#00ff00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为策划的脑洞和程序的脑细胞+发际线，干杯！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划让我写一句话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1824,21 +1998,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D398"/>
+  <dimension ref="A1:D430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="C398" sqref="C398"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.21875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="5.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.25" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1852,7 +2026,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1863,3256 +2037,3532 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>1</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="22" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>2</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>2</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>2</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>2</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>2</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>2</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>2</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>2</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>2</v>
-      </c>
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>2</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>2</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>2</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>2</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>2</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>2</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>2</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>2</v>
-      </c>
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>2</v>
-      </c>
-      <c r="B42" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>2</v>
-      </c>
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>2</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>2</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>2</v>
-      </c>
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>2</v>
-      </c>
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>2</v>
-      </c>
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>2</v>
-      </c>
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>2</v>
-      </c>
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>2</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>2</v>
-      </c>
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>2</v>
-      </c>
-      <c r="B52" s="1" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>2</v>
-      </c>
-      <c r="B53" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>2</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>2</v>
-      </c>
-      <c r="B54" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>2</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>2</v>
-      </c>
-      <c r="B55" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>2</v>
-      </c>
-      <c r="B56" s="1" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>2</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>2</v>
-      </c>
-      <c r="B57" s="1" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>2</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>2</v>
-      </c>
-      <c r="B58" s="1" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>2</v>
-      </c>
-      <c r="B59" s="1" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>2</v>
-      </c>
-      <c r="B60" s="1" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>2</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>2</v>
-      </c>
-      <c r="B61" s="1" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>2</v>
-      </c>
-      <c r="B62" s="1" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>2</v>
-      </c>
-      <c r="B63" s="1" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>2</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>2</v>
-      </c>
-      <c r="B64" s="1" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>2</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>2</v>
-      </c>
-      <c r="B65" s="1" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>2</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>2</v>
-      </c>
-      <c r="B66" s="1" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>2</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>2</v>
-      </c>
-      <c r="B67" s="1" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>2</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>2</v>
-      </c>
-      <c r="B68" s="1" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>2</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>2</v>
-      </c>
-      <c r="B69" s="1" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>2</v>
-      </c>
-      <c r="B70" s="1" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>2</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>2</v>
-      </c>
-      <c r="B71" s="1" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>2</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>2</v>
-      </c>
-      <c r="B72" s="1" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>2</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>2</v>
-      </c>
-      <c r="B73" s="1" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>2</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>2</v>
-      </c>
-      <c r="B74" s="1" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>2</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>2</v>
-      </c>
-      <c r="B75" s="1" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>2</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>2</v>
-      </c>
-      <c r="B76" s="1" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>2</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
         <v>1</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>2</v>
-      </c>
-      <c r="B78" s="1" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>2</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>2</v>
-      </c>
-      <c r="B79" s="1" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>2</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>2</v>
-      </c>
-      <c r="B80" s="1" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>2</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>2</v>
-      </c>
-      <c r="B81" s="1" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>2</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>2</v>
-      </c>
-      <c r="B82" s="1" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>2</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
         <v>1</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>2</v>
-      </c>
-      <c r="B84" s="1" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>2</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>2</v>
-      </c>
-      <c r="B85" s="1" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>2</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>2</v>
-      </c>
-      <c r="B86" s="1" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>2</v>
-      </c>
-      <c r="B87" s="1" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>2</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>2</v>
-      </c>
-      <c r="B88" s="1" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>2</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>2</v>
-      </c>
-      <c r="B89" s="1" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>2</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>2</v>
-      </c>
-      <c r="B90" s="1" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>2</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>2</v>
-      </c>
-      <c r="B91" s="1" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>2</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>2</v>
-      </c>
-      <c r="B92" s="1" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>2</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>2</v>
-      </c>
-      <c r="B93" s="1" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>2</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>2</v>
-      </c>
-      <c r="B94" s="1" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>2</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>2</v>
-      </c>
-      <c r="B95" s="1" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>2</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>2</v>
-      </c>
-      <c r="B96" s="1" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>2</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>2</v>
-      </c>
-      <c r="B97" s="1" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>2</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>2</v>
-      </c>
-      <c r="B98" s="1" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>2</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>2</v>
-      </c>
-      <c r="B99" s="1" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>2</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>2</v>
-      </c>
-      <c r="B100" s="1" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>2</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>2</v>
-      </c>
-      <c r="B101" s="1" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>2</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>2</v>
-      </c>
-      <c r="B102" s="1" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>2</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>2</v>
-      </c>
-      <c r="B103" s="1" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>2</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>2</v>
-      </c>
-      <c r="B104" s="1" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>2</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>2</v>
-      </c>
-      <c r="B105" s="1" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>2</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>2</v>
-      </c>
-      <c r="B106" s="1" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>2</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>2</v>
-      </c>
-      <c r="B107" s="1" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>2</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>2</v>
-      </c>
-      <c r="B108" s="1" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>2</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>2</v>
-      </c>
-      <c r="B109" s="1" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>2</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>2</v>
-      </c>
-      <c r="B110" s="1" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>2</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>1</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>1</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>1</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>2</v>
-      </c>
-      <c r="B113" s="1" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>2</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>2</v>
-      </c>
-      <c r="B114" s="1" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>2</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>2</v>
-      </c>
-      <c r="B115" s="1" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>2</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>2</v>
-      </c>
-      <c r="B116" s="1" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>2</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>2</v>
-      </c>
-      <c r="B117" s="1" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>2</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>2</v>
-      </c>
-      <c r="B118" s="1" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>2</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>2</v>
-      </c>
-      <c r="B119" s="1" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>2</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>2</v>
-      </c>
-      <c r="B120" s="1" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>2</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>2</v>
-      </c>
-      <c r="B121" s="1" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>2</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
         <v>1</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>2</v>
-      </c>
-      <c r="B123" s="1" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>2</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>2</v>
-      </c>
-      <c r="B124" s="1" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>2</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>2</v>
-      </c>
-      <c r="B125" s="1" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>2</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>2</v>
-      </c>
-      <c r="B126" s="1" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>2</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>2</v>
-      </c>
-      <c r="B127" s="1" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>2</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>2</v>
-      </c>
-      <c r="B128" s="1" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>2</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>2</v>
-      </c>
-      <c r="B129" s="1" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>2</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>2</v>
-      </c>
-      <c r="B130" s="1" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>2</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>2</v>
-      </c>
-      <c r="B131" s="1" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>2</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>2</v>
-      </c>
-      <c r="B132" s="1" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>2</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>2</v>
-      </c>
-      <c r="B133" s="1" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>2</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>2</v>
-      </c>
-      <c r="B134" s="1" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>2</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>2</v>
-      </c>
-      <c r="B135" s="1" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>2</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>2</v>
-      </c>
-      <c r="B136" s="1" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>2</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>2</v>
-      </c>
-      <c r="B137" s="1" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>2</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>2</v>
-      </c>
-      <c r="B138" s="1" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>2</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>2</v>
-      </c>
-      <c r="B139" s="3" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>2</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>2</v>
-      </c>
-      <c r="B140" s="1" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>2</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>2</v>
-      </c>
-      <c r="B141" s="1" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>2</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>2</v>
-      </c>
-      <c r="B142" s="1" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>2</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
         <v>1</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>2</v>
-      </c>
-      <c r="B144" s="1" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>2</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>2</v>
-      </c>
-      <c r="B145" s="1" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>2</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>2</v>
-      </c>
-      <c r="B146" s="1" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>2</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>2</v>
-      </c>
-      <c r="B147" s="1" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>2</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>2</v>
-      </c>
-      <c r="B148" s="1" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>2</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>2</v>
-      </c>
-      <c r="B149" s="1" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>2</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>2</v>
-      </c>
-      <c r="B150" s="1" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>2</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>2</v>
-      </c>
-      <c r="B151" s="1" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>2</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>2</v>
-      </c>
-      <c r="B152" s="1" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>2</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>2</v>
-      </c>
-      <c r="B153" s="1" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>2</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>2</v>
-      </c>
-      <c r="B154" s="1" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>2</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>2</v>
-      </c>
-      <c r="B155" s="1" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>2</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>2</v>
-      </c>
-      <c r="B156" s="1" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>2</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>2</v>
-      </c>
-      <c r="B157" s="1" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>2</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>2</v>
-      </c>
-      <c r="B158" s="1" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>2</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>2</v>
-      </c>
-      <c r="B159" s="1" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>2</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>2</v>
-      </c>
-      <c r="B160" s="1" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>2</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>2</v>
-      </c>
-      <c r="B161" s="1" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>2</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>2</v>
-      </c>
-      <c r="B162" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>2</v>
+      </c>
+      <c r="B163" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>2</v>
-      </c>
-      <c r="B163" s="1" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>2</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
         <v>1</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>2</v>
-      </c>
-      <c r="B165" s="1" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>2</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>2</v>
-      </c>
-      <c r="B166" s="1" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>2</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>2</v>
-      </c>
-      <c r="B167" s="1" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>2</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>1</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>1</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>1</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>1</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>2</v>
-      </c>
-      <c r="B171" s="1" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>2</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>2</v>
-      </c>
-      <c r="B172" s="1" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>2</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <v>2</v>
-      </c>
-      <c r="B173" s="1" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>2</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>2</v>
-      </c>
-      <c r="B174" s="1" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>2</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>2</v>
-      </c>
-      <c r="B175" s="1" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>2</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>2</v>
-      </c>
-      <c r="B176" s="1" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>2</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>2</v>
-      </c>
-      <c r="B177" s="1" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>2</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>2</v>
-      </c>
-      <c r="B178" s="1" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>2</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>2</v>
-      </c>
-      <c r="B179" s="1" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>2</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>2</v>
-      </c>
-      <c r="B180" s="1" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>2</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>2</v>
-      </c>
-      <c r="B181" s="1" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>2</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>2</v>
-      </c>
-      <c r="B182" s="1" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>2</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>2</v>
-      </c>
-      <c r="B183" s="1" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>2</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>2</v>
-      </c>
-      <c r="B184" s="1" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>2</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>2</v>
-      </c>
-      <c r="B185" s="1" t="s">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>2</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>2</v>
-      </c>
-      <c r="B186" s="1" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>2</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>2</v>
-      </c>
-      <c r="B187" s="1" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>2</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>2</v>
-      </c>
-      <c r="B188" s="1" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>2</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>2</v>
-      </c>
-      <c r="B189" s="1" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>2</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
-        <v>2</v>
-      </c>
-      <c r="B190" s="1" t="s">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>2</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
         <v>1</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C192" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>2</v>
-      </c>
-      <c r="B192" s="1" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>2</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
-        <v>2</v>
-      </c>
-      <c r="B193" s="1" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>2</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
-        <v>2</v>
-      </c>
-      <c r="B194" s="1" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>2</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
-        <v>2</v>
-      </c>
-      <c r="B195" s="1" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>2</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <v>2</v>
-      </c>
-      <c r="B196" s="1" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>2</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <v>2</v>
-      </c>
-      <c r="B197" s="1" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>2</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
-        <v>2</v>
-      </c>
-      <c r="B198" s="1" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>2</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <v>2</v>
-      </c>
-      <c r="B199" s="1" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>2</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <v>2</v>
-      </c>
-      <c r="B200" s="1" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>2</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
-        <v>2</v>
-      </c>
-      <c r="B201" s="1" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>2</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
-        <v>2</v>
-      </c>
-      <c r="B202" s="1" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>2</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
-        <v>2</v>
-      </c>
-      <c r="B203" s="1" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>2</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <v>2</v>
-      </c>
-      <c r="B204" s="1" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>2</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>2</v>
-      </c>
-      <c r="B205" s="1" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>2</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
-        <v>2</v>
-      </c>
-      <c r="B206" s="1" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>2</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
-        <v>2</v>
-      </c>
-      <c r="B207" s="1" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>2</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
-        <v>2</v>
-      </c>
-      <c r="B208" s="1" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>2</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
-        <v>2</v>
-      </c>
-      <c r="B209" s="1" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>2</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
-        <v>2</v>
-      </c>
-      <c r="B210" s="1" t="s">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>2</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
-        <v>2</v>
-      </c>
-      <c r="B211" s="1" t="s">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>2</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <v>2</v>
-      </c>
-      <c r="B212" s="1" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>2</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
-        <v>2</v>
-      </c>
-      <c r="B213" s="1" t="s">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>2</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
         <v>1</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
-        <v>2</v>
-      </c>
-      <c r="B215" s="1" t="s">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>2</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
         <v>1</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
-        <v>2</v>
-      </c>
-      <c r="B217" s="1" t="s">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>2</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C217" s="2"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
-        <v>2</v>
-      </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="2"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>2</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
-        <v>2</v>
-      </c>
-      <c r="B219" s="1" t="s">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>2</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
-        <v>2</v>
-      </c>
-      <c r="B220" s="1" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>2</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
-        <v>2</v>
-      </c>
-      <c r="B221" s="1" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>2</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
-        <v>2</v>
-      </c>
-      <c r="B222" s="1" t="s">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>2</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
-        <v>2</v>
-      </c>
-      <c r="B223" s="1" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>2</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
-        <v>2</v>
-      </c>
-      <c r="B224" s="1" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>2</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
-        <v>2</v>
-      </c>
-      <c r="B225" s="1" t="s">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>2</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
-        <v>2</v>
-      </c>
-      <c r="B226" s="1" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>2</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
         <v>1</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
-        <v>2</v>
-      </c>
-      <c r="B228" s="1" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>2</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
-        <v>2</v>
-      </c>
-      <c r="B229" s="1" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>2</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
-        <v>2</v>
-      </c>
-      <c r="B230" s="1" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>2</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
-        <v>2</v>
-      </c>
-      <c r="B231" s="1" t="s">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>2</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
-        <v>2</v>
-      </c>
-      <c r="B232" s="1" t="s">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>2</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
-        <v>2</v>
-      </c>
-      <c r="B233" s="1" t="s">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>2</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
-        <v>2</v>
-      </c>
-      <c r="B234" s="1" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>2</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
-        <v>2</v>
-      </c>
-      <c r="B235" s="1" t="s">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>2</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
-        <v>2</v>
-      </c>
-      <c r="B236" s="1" t="s">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>2</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
-        <v>2</v>
-      </c>
-      <c r="B237" s="3" t="s">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>2</v>
+      </c>
+      <c r="B238" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
-        <v>2</v>
-      </c>
-      <c r="B238" s="3" t="s">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>2</v>
+      </c>
+      <c r="B239" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
-        <v>2</v>
-      </c>
-      <c r="B239" s="3" t="s">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>2</v>
+      </c>
+      <c r="B240" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
-        <v>2</v>
-      </c>
-      <c r="B240" s="3" t="s">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>2</v>
+      </c>
+      <c r="B241" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
-        <v>2</v>
-      </c>
-      <c r="B241" s="3" t="s">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>2</v>
+      </c>
+      <c r="B242" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
         <v>1</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B243" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="C243" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
-        <v>2</v>
-      </c>
-      <c r="B243" s="3" t="s">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>2</v>
+      </c>
+      <c r="B244" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
-        <v>2</v>
-      </c>
-      <c r="B244" s="3" t="s">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>2</v>
+      </c>
+      <c r="B245" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
-        <v>2</v>
-      </c>
-      <c r="B245" s="3" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>2</v>
+      </c>
+      <c r="B246" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
-        <v>2</v>
-      </c>
-      <c r="B246" s="3" t="s">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>2</v>
+      </c>
+      <c r="B247" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
-        <v>2</v>
-      </c>
-      <c r="B247" s="3" t="s">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>2</v>
+      </c>
+      <c r="B248" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
-        <v>2</v>
-      </c>
-      <c r="B248" s="3" t="s">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>2</v>
+      </c>
+      <c r="B249" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
-        <v>2</v>
-      </c>
-      <c r="B249" s="3" t="s">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>2</v>
+      </c>
+      <c r="B250" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
-        <v>2</v>
-      </c>
-      <c r="B250" s="3" t="s">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>2</v>
+      </c>
+      <c r="B251" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
-        <v>2</v>
-      </c>
-      <c r="B251" s="3" t="s">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>2</v>
+      </c>
+      <c r="B252" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
-        <v>2</v>
-      </c>
-      <c r="B252" s="3" t="s">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>2</v>
+      </c>
+      <c r="B253" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
         <v>1</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B254" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C254" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
-        <v>2</v>
-      </c>
-      <c r="B254" s="3" t="s">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>2</v>
+      </c>
+      <c r="B255" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
-        <v>2</v>
-      </c>
-      <c r="B255" s="3" t="s">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>2</v>
+      </c>
+      <c r="B256" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
-        <v>2</v>
-      </c>
-      <c r="B256" s="3" t="s">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>2</v>
+      </c>
+      <c r="B257" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
-        <v>2</v>
-      </c>
-      <c r="B257" s="3" t="s">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>2</v>
+      </c>
+      <c r="B258" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
-        <v>2</v>
-      </c>
-      <c r="B258" s="3" t="s">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>2</v>
+      </c>
+      <c r="B259" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
-        <v>2</v>
-      </c>
-      <c r="B259" s="3" t="s">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>2</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="1">
-        <v>2</v>
-      </c>
-      <c r="B260" s="3" t="s">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>2</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
         <v>1</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B262" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C262" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
-        <v>2</v>
-      </c>
-      <c r="B262" s="3" t="s">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>2</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
-        <v>2</v>
-      </c>
-      <c r="B263" s="3" t="s">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>2</v>
+      </c>
+      <c r="B264" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
         <v>1</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B265" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="C265" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
-        <v>2</v>
-      </c>
-      <c r="B265" s="3" t="s">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>2</v>
+      </c>
+      <c r="B266" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
-        <v>2</v>
-      </c>
-      <c r="B266" s="3" t="s">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>2</v>
+      </c>
+      <c r="B267" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
-        <v>2</v>
-      </c>
-      <c r="B267" s="1" t="s">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>2</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="1">
-        <v>2</v>
-      </c>
-      <c r="B268" s="1" t="s">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>2</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
-        <v>2</v>
-      </c>
-      <c r="B269" s="3" t="s">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>2</v>
+      </c>
+      <c r="B270" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
-        <v>2</v>
-      </c>
-      <c r="B270" s="3" t="s">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>2</v>
+      </c>
+      <c r="B271" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
-        <v>2</v>
-      </c>
-      <c r="B271" s="3" t="s">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>2</v>
+      </c>
+      <c r="B272" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="1">
-        <v>2</v>
-      </c>
-      <c r="B272" s="3" t="s">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>2</v>
+      </c>
+      <c r="B273" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
-        <v>2</v>
-      </c>
-      <c r="B273" s="1" t="s">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>2</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
-        <v>2</v>
-      </c>
-      <c r="B274" s="3" t="s">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>2</v>
+      </c>
+      <c r="B275" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
-        <v>2</v>
-      </c>
-      <c r="B275" s="3" t="s">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>2</v>
+      </c>
+      <c r="B276" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
-        <v>2</v>
-      </c>
-      <c r="B276" s="3" t="s">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>2</v>
+      </c>
+      <c r="B277" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
-        <v>2</v>
-      </c>
-      <c r="B277" s="3" t="s">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>2</v>
+      </c>
+      <c r="B278" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="1">
-        <v>2</v>
-      </c>
-      <c r="B278" s="3" t="s">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>2</v>
+      </c>
+      <c r="B279" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="1">
-        <v>2</v>
-      </c>
-      <c r="B279" s="1" t="s">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>2</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="1">
-        <v>2</v>
-      </c>
-      <c r="B280" s="3" t="s">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>2</v>
+      </c>
+      <c r="B281" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="1">
-        <v>2</v>
-      </c>
-      <c r="B281" s="3" t="s">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>2</v>
+      </c>
+      <c r="B282" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="1">
-        <v>2</v>
-      </c>
-      <c r="B282" s="3" t="s">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>2</v>
+      </c>
+      <c r="B283" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="1">
-        <v>2</v>
-      </c>
-      <c r="B283" s="3" t="s">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>2</v>
+      </c>
+      <c r="B284" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="1">
-        <v>2</v>
-      </c>
-      <c r="B284" s="3" t="s">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>2</v>
+      </c>
+      <c r="B285" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="1">
-        <v>2</v>
-      </c>
-      <c r="B285" s="3" t="s">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>2</v>
+      </c>
+      <c r="B286" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="1">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
         <v>1</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B287" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C287" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="1">
-        <v>2</v>
-      </c>
-      <c r="B287" s="3" t="s">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>2</v>
+      </c>
+      <c r="B288" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="1">
-        <v>2</v>
-      </c>
-      <c r="B288" s="3" t="s">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>2</v>
+      </c>
+      <c r="B289" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="1">
-        <v>2</v>
-      </c>
-      <c r="B289" s="3" t="s">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>2</v>
+      </c>
+      <c r="B290" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="1">
-        <v>2</v>
-      </c>
-      <c r="B290" s="3" t="s">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>2</v>
+      </c>
+      <c r="B291" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="1">
-        <v>2</v>
-      </c>
-      <c r="B291" s="3" t="s">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>2</v>
+      </c>
+      <c r="B292" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="1">
-        <v>2</v>
-      </c>
-      <c r="B292" s="3" t="s">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>2</v>
+      </c>
+      <c r="B293" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="1">
-        <v>2</v>
-      </c>
-      <c r="B293" s="3" t="s">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>2</v>
+      </c>
+      <c r="B294" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="1">
-        <v>2</v>
-      </c>
-      <c r="B294" s="3" t="s">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>2</v>
+      </c>
+      <c r="B295" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="1">
-        <v>2</v>
-      </c>
-      <c r="B295" s="3" t="s">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>2</v>
+      </c>
+      <c r="B296" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="1">
-        <v>2</v>
-      </c>
-      <c r="B296" s="3" t="s">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>2</v>
+      </c>
+      <c r="B297" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="1">
-        <v>2</v>
-      </c>
-      <c r="B297" s="3" t="s">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>2</v>
+      </c>
+      <c r="B298" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="1">
-        <v>2</v>
-      </c>
-      <c r="B298" s="3" t="s">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>2</v>
+      </c>
+      <c r="B299" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="1">
-        <v>2</v>
-      </c>
-      <c r="B299" s="3" t="s">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>2</v>
+      </c>
+      <c r="B300" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="1">
-        <v>2</v>
-      </c>
-      <c r="B300" s="3" t="s">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>2</v>
+      </c>
+      <c r="B301" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="1">
-        <v>2</v>
-      </c>
-      <c r="B301" s="3" t="s">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>2</v>
+      </c>
+      <c r="B302" s="3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="1">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
         <v>1</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B303" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C303" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="1">
-        <v>2</v>
-      </c>
-      <c r="B303" s="3" t="s">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>2</v>
+      </c>
+      <c r="B304" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="1">
-        <v>2</v>
-      </c>
-      <c r="B304" s="3" t="s">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>2</v>
+      </c>
+      <c r="B305" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="1">
-        <v>2</v>
-      </c>
-      <c r="B305" s="3" t="s">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>2</v>
+      </c>
+      <c r="B306" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="1">
-        <v>2</v>
-      </c>
-      <c r="B306" s="3" t="s">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>2</v>
+      </c>
+      <c r="B307" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="1">
-        <v>2</v>
-      </c>
-      <c r="B307" s="3" t="s">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>2</v>
+      </c>
+      <c r="B308" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="1">
-        <v>2</v>
-      </c>
-      <c r="B308" s="3" t="s">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>2</v>
+      </c>
+      <c r="B309" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="1">
-        <v>2</v>
-      </c>
-      <c r="B309" s="3" t="s">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>2</v>
+      </c>
+      <c r="B310" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="1">
-        <v>2</v>
-      </c>
-      <c r="B310" s="3" t="s">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>2</v>
+      </c>
+      <c r="B311" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="1">
-        <v>2</v>
-      </c>
-      <c r="B311" s="3" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>2</v>
+      </c>
+      <c r="B312" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="1">
-        <v>2</v>
-      </c>
-      <c r="B312" s="3" t="s">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>2</v>
+      </c>
+      <c r="B313" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="1">
-        <v>2</v>
-      </c>
-      <c r="B313" s="3" t="s">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>2</v>
+      </c>
+      <c r="B314" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="1">
-        <v>2</v>
-      </c>
-      <c r="B314" s="3" t="s">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>2</v>
+      </c>
+      <c r="B315" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="1">
-        <v>2</v>
-      </c>
-      <c r="B315" s="3" t="s">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>2</v>
+      </c>
+      <c r="B316" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="1">
-        <v>2</v>
-      </c>
-      <c r="B316" s="3" t="s">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>2</v>
+      </c>
+      <c r="B317" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="1">
-        <v>2</v>
-      </c>
-      <c r="B317" s="3" t="s">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>2</v>
+      </c>
+      <c r="B318" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="1">
-        <v>2</v>
-      </c>
-      <c r="B318" s="3" t="s">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>2</v>
+      </c>
+      <c r="B319" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="1">
-        <v>2</v>
-      </c>
-      <c r="B319" s="3" t="s">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>2</v>
+      </c>
+      <c r="B320" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="1">
-        <v>2</v>
-      </c>
-      <c r="B320" s="3" t="s">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>2</v>
+      </c>
+      <c r="B321" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="1">
-        <v>2</v>
-      </c>
-      <c r="B321" s="3" t="s">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>2</v>
+      </c>
+      <c r="B322" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="1">
-        <v>2</v>
-      </c>
-      <c r="B322" s="3" t="s">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>2</v>
+      </c>
+      <c r="B323" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="1">
-        <v>2</v>
-      </c>
-      <c r="B323" s="3" t="s">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>2</v>
+      </c>
+      <c r="B324" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="1">
-        <v>2</v>
-      </c>
-      <c r="B324" s="3" t="s">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>2</v>
+      </c>
+      <c r="B325" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="1">
-        <v>2</v>
-      </c>
-      <c r="B325" s="3" t="s">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>2</v>
+      </c>
+      <c r="B326" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="1">
-        <v>2</v>
-      </c>
-      <c r="B326" s="3" t="s">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>2</v>
+      </c>
+      <c r="B327" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="1">
-        <v>2</v>
-      </c>
-      <c r="B327" s="3" t="s">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>2</v>
+      </c>
+      <c r="B328" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="1">
-        <v>2</v>
-      </c>
-      <c r="B328" s="3" t="s">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>2</v>
+      </c>
+      <c r="B329" s="3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="1">
-        <v>2</v>
-      </c>
-      <c r="B329" s="3" t="s">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>2</v>
+      </c>
+      <c r="B330" s="3" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="1">
-        <v>2</v>
-      </c>
-      <c r="B330" s="3" t="s">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>2</v>
+      </c>
+      <c r="B331" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="1">
-        <v>2</v>
-      </c>
-      <c r="B331" s="3" t="s">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>2</v>
+      </c>
+      <c r="B332" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="1">
-        <v>2</v>
-      </c>
-      <c r="B332" s="3" t="s">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>2</v>
+      </c>
+      <c r="B333" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="1">
-        <v>2</v>
-      </c>
-      <c r="B333" s="3" t="s">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>2</v>
+      </c>
+      <c r="B334" s="3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="1">
-        <v>2</v>
-      </c>
-      <c r="B334" s="3" t="s">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>2</v>
+      </c>
+      <c r="B335" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="1">
-        <v>2</v>
-      </c>
-      <c r="B335" s="3" t="s">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>2</v>
+      </c>
+      <c r="B336" s="3" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="1">
-        <v>2</v>
-      </c>
-      <c r="B336" s="3" t="s">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>2</v>
+      </c>
+      <c r="B337" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="1">
-        <v>2</v>
-      </c>
-      <c r="B337" s="3" t="s">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>2</v>
+      </c>
+      <c r="B338" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="1">
-        <v>2</v>
-      </c>
-      <c r="B338" s="3" t="s">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>2</v>
+      </c>
+      <c r="B339" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="1">
-        <v>2</v>
-      </c>
-      <c r="B339" s="3" t="s">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>2</v>
+      </c>
+      <c r="B340" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="1">
-        <v>2</v>
-      </c>
-      <c r="B340" s="3" t="s">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>2</v>
+      </c>
+      <c r="B341" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="1">
-        <v>2</v>
-      </c>
-      <c r="B341" s="3" t="s">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>2</v>
+      </c>
+      <c r="B342" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="1">
-        <v>2</v>
-      </c>
-      <c r="B342" s="3" t="s">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>2</v>
+      </c>
+      <c r="B343" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="1">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
         <v>1</v>
       </c>
-      <c r="B343" s="3" t="s">
+      <c r="B344" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="C344" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="1">
-        <v>2</v>
-      </c>
-      <c r="B344" s="3" t="s">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>2</v>
+      </c>
+      <c r="B345" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="1">
-        <v>2</v>
-      </c>
-      <c r="B345" s="3" t="s">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>2</v>
+      </c>
+      <c r="B346" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="1">
-        <v>2</v>
-      </c>
-      <c r="B346" s="3" t="s">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>2</v>
+      </c>
+      <c r="B347" s="3" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="1">
-        <v>2</v>
-      </c>
-      <c r="B347" s="3" t="s">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>2</v>
+      </c>
+      <c r="B348" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="1">
-        <v>2</v>
-      </c>
-      <c r="B348" s="3" t="s">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>2</v>
+      </c>
+      <c r="B349" s="3" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="1">
-        <v>2</v>
-      </c>
-      <c r="B349" s="3" t="s">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>2</v>
+      </c>
+      <c r="B350" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" s="1">
-        <v>2</v>
-      </c>
-      <c r="B350" s="3" t="s">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>2</v>
+      </c>
+      <c r="B351" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" s="1">
-        <v>2</v>
-      </c>
-      <c r="B351" s="3" t="s">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>2</v>
+      </c>
+      <c r="B352" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="1">
-        <v>2</v>
-      </c>
-      <c r="B352" s="3" t="s">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>2</v>
+      </c>
+      <c r="B353" s="3" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="1">
-        <v>2</v>
-      </c>
-      <c r="B353" s="3" t="s">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>2</v>
+      </c>
+      <c r="B354" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" s="1">
-        <v>2</v>
-      </c>
-      <c r="B354" s="3" t="s">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>2</v>
+      </c>
+      <c r="B355" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" s="1">
-        <v>2</v>
-      </c>
-      <c r="B355" s="3" t="s">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>2</v>
+      </c>
+      <c r="B356" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" s="1">
-        <v>2</v>
-      </c>
-      <c r="B356" s="3" t="s">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>2</v>
+      </c>
+      <c r="B357" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357" s="1">
-        <v>2</v>
-      </c>
-      <c r="B357" s="3" t="s">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>2</v>
+      </c>
+      <c r="B358" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358" s="1">
-        <v>2</v>
-      </c>
-      <c r="B358" s="3" t="s">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>2</v>
+      </c>
+      <c r="B359" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359" s="1">
-        <v>2</v>
-      </c>
-      <c r="B359" s="3" t="s">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>2</v>
+      </c>
+      <c r="B360" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360" s="1">
-        <v>2</v>
-      </c>
-      <c r="B360" s="3" t="s">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>2</v>
+      </c>
+      <c r="B361" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361" s="1">
-        <v>2</v>
-      </c>
-      <c r="B361" s="3" t="s">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>2</v>
+      </c>
+      <c r="B362" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362" s="1">
-        <v>2</v>
-      </c>
-      <c r="B362" s="3" t="s">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>2</v>
+      </c>
+      <c r="B363" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A363" s="1">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
         <v>1</v>
       </c>
-      <c r="B363" s="3" t="s">
+      <c r="B364" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C363" s="3" t="s">
+      <c r="C364" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364" s="1">
-        <v>2</v>
-      </c>
-      <c r="B364" s="3" t="s">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>2</v>
+      </c>
+      <c r="B365" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" s="1">
-        <v>2</v>
-      </c>
-      <c r="B365" s="3" t="s">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>2</v>
+      </c>
+      <c r="B366" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" s="1">
-        <v>2</v>
-      </c>
-      <c r="B366" s="3" t="s">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>2</v>
+      </c>
+      <c r="B367" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="D366" s="3" t="s">
+      <c r="D367" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367" s="1">
-        <v>2</v>
-      </c>
-      <c r="B367" s="3" t="s">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>2</v>
+      </c>
+      <c r="B368" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368" s="1">
-        <v>2</v>
-      </c>
-      <c r="B368" s="3" t="s">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>2</v>
+      </c>
+      <c r="B369" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="1">
-        <v>2</v>
-      </c>
-      <c r="B369" s="3" t="s">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>2</v>
+      </c>
+      <c r="B370" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" s="1">
-        <v>2</v>
-      </c>
-      <c r="B370" s="3" t="s">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>2</v>
+      </c>
+      <c r="B371" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="1">
-        <v>2</v>
-      </c>
-      <c r="B371" s="3" t="s">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>2</v>
+      </c>
+      <c r="B372" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="1">
-        <v>2</v>
-      </c>
-      <c r="B372" s="3" t="s">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>2</v>
+      </c>
+      <c r="B373" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" s="1">
-        <v>2</v>
-      </c>
-      <c r="B373" s="3" t="s">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>2</v>
+      </c>
+      <c r="B374" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="1">
-        <v>2</v>
-      </c>
-      <c r="B374" s="3" t="s">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>2</v>
+      </c>
+      <c r="B375" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="1">
-        <v>2</v>
-      </c>
-      <c r="B375" s="3" t="s">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>2</v>
+      </c>
+      <c r="B376" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="1">
-        <v>2</v>
-      </c>
-      <c r="B376" s="3" t="s">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>2</v>
+      </c>
+      <c r="B377" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="1">
-        <v>2</v>
-      </c>
-      <c r="B377" s="3" t="s">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>2</v>
+      </c>
+      <c r="B378" s="3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" s="1">
-        <v>2</v>
-      </c>
-      <c r="B378" s="3" t="s">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>2</v>
+      </c>
+      <c r="B379" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" s="1">
-        <v>2</v>
-      </c>
-      <c r="B379" s="3" t="s">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>2</v>
+      </c>
+      <c r="B380" s="3" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="1">
-        <v>2</v>
-      </c>
-      <c r="B380" s="3" t="s">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <v>2</v>
+      </c>
+      <c r="B381" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="1">
-        <v>2</v>
-      </c>
-      <c r="B381" s="3" t="s">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>2</v>
+      </c>
+      <c r="B382" s="3" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="1">
-        <v>2</v>
-      </c>
-      <c r="B382" s="3" t="s">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <v>2</v>
+      </c>
+      <c r="B383" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" s="1">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
         <v>1</v>
       </c>
-      <c r="B383" s="3" t="s">
+      <c r="B384" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C383" s="3" t="s">
+      <c r="C384" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" s="1">
-        <v>2</v>
-      </c>
-      <c r="B384" s="3" t="s">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>2</v>
+      </c>
+      <c r="B385" s="3" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="1">
-        <v>2</v>
-      </c>
-      <c r="B385" s="3" t="s">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>2</v>
+      </c>
+      <c r="B386" s="3" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="1">
-        <v>2</v>
-      </c>
-      <c r="B386" s="3" t="s">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>2</v>
+      </c>
+      <c r="B387" s="3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="1">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
         <v>1</v>
       </c>
-      <c r="B387" s="3" t="s">
+      <c r="B388" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C387" s="3" t="s">
+      <c r="C388" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" s="1">
-        <v>2</v>
-      </c>
-      <c r="B388" s="3" t="s">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>2</v>
+      </c>
+      <c r="B389" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="1">
-        <v>2</v>
-      </c>
-      <c r="B389" s="4" t="s">
+    <row r="390" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>2</v>
+      </c>
+      <c r="B390" s="4" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" s="1">
-        <v>2</v>
-      </c>
-      <c r="B390" s="3" t="s">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>2</v>
+      </c>
+      <c r="B391" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="1">
-        <v>2</v>
-      </c>
-      <c r="B391" s="3" t="s">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <v>2</v>
+      </c>
+      <c r="B392" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" s="1">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
         <v>1</v>
       </c>
-      <c r="B392" s="3" t="s">
+      <c r="B393" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C392" s="3" t="s">
+      <c r="C393" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D392" s="3" t="s">
+      <c r="D393" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" s="1">
-        <v>2</v>
-      </c>
-      <c r="B393" s="3" t="s">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>2</v>
+      </c>
+      <c r="B394" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" s="1">
-        <v>2</v>
-      </c>
-      <c r="B394" s="3" t="s">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <v>2</v>
+      </c>
+      <c r="B395" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="1">
-        <v>2</v>
-      </c>
-      <c r="B395" s="3" t="s">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <v>2</v>
+      </c>
+      <c r="B396" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="1">
-        <v>2</v>
-      </c>
-      <c r="B396" s="3" t="s">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>2</v>
+      </c>
+      <c r="B397" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="1">
-        <v>2</v>
-      </c>
-      <c r="B397" s="3" t="s">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <v>2</v>
+      </c>
+      <c r="B398" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="1">
-        <v>2</v>
-      </c>
-      <c r="B398" s="3" t="s">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <v>2</v>
+      </c>
+      <c r="B399" s="3" t="s">
         <v>427</v>
       </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <v>1</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <v>2</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <v>2</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <v>2</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <v>2</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <v>2</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <v>2</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <v>2</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>2</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>2</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>2</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>2</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>2</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>1</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>2</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>2</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>2</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>2</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>2</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>2</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>2</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>1</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>2</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>2</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>1</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>2</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>2</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>2</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>1</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>2</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C429" s="3"/>
+      <c r="D429" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C430" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8FD2ED-7EB2-4664-9439-36FF7B849B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C87A3F-F6AA-41A0-BC51-B5E75F700C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="465">
   <si>
     <t>group</t>
   </si>
@@ -1998,10 +1998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D430"/>
+  <dimension ref="A1:D429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2039,13 +2039,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2053,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2061,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2069,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2077,7 +2074,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2085,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2093,7 +2090,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2101,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2109,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2117,7 +2114,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2125,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2133,7 +2130,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2141,10 +2141,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>264</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2152,7 +2149,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -2160,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2168,34 +2165,34 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>23</v>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2203,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2211,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -2219,7 +2216,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -2227,7 +2224,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -2235,7 +2232,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -2243,7 +2240,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -2251,26 +2248,26 @@
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -2278,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2286,7 +2283,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2294,7 +2291,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2302,7 +2299,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2310,7 +2307,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2318,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2326,7 +2323,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2334,7 +2331,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2342,7 +2339,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2350,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2358,7 +2355,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2366,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2374,7 +2371,7 @@
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2382,7 +2379,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2390,7 +2387,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2398,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2406,7 +2403,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2414,7 +2411,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2422,7 +2419,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2430,7 +2427,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2438,7 +2435,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2446,7 +2443,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2454,7 +2451,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2462,7 +2459,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2470,7 +2467,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2478,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2486,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2494,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2502,7 +2499,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2510,7 +2507,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2518,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -2526,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -2534,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2542,7 +2539,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2550,7 +2547,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -2558,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -2566,7 +2563,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -2574,7 +2571,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -2582,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -2590,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -2598,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -2606,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -2614,7 +2611,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -2622,7 +2619,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -2630,26 +2627,26 @@
         <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -2657,7 +2654,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -2665,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -2673,7 +2670,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -2681,26 +2678,26 @@
         <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -2708,7 +2705,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -2716,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -2724,7 +2721,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -2732,7 +2729,7 @@
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -2740,7 +2737,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -2748,7 +2745,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -2756,7 +2753,7 @@
         <v>2</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -2764,7 +2761,7 @@
         <v>2</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -2772,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -2780,7 +2777,7 @@
         <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -2788,7 +2785,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -2796,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -2804,7 +2801,7 @@
         <v>2</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -2812,7 +2809,7 @@
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -2820,7 +2817,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -2828,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -2836,7 +2833,7 @@
         <v>2</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -2844,7 +2841,7 @@
         <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -2852,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -2860,7 +2857,7 @@
         <v>2</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -2868,7 +2865,7 @@
         <v>2</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -2876,7 +2873,7 @@
         <v>2</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -2884,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -2892,7 +2889,7 @@
         <v>2</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -2900,7 +2897,7 @@
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -2908,15 +2905,18 @@
         <v>2</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -2924,21 +2924,18 @@
         <v>1</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -2946,7 +2943,7 @@
         <v>2</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -2954,7 +2951,7 @@
         <v>2</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -2962,7 +2959,7 @@
         <v>2</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -2970,7 +2967,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -2978,7 +2975,7 @@
         <v>2</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -2986,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -2994,7 +2991,7 @@
         <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -3002,26 +2999,26 @@
         <v>2</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>322</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -3029,7 +3026,7 @@
         <v>2</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -3037,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -3045,7 +3042,7 @@
         <v>2</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -3053,7 +3050,7 @@
         <v>2</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -3061,7 +3058,7 @@
         <v>2</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -3069,7 +3066,7 @@
         <v>2</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -3077,7 +3074,7 @@
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -3085,7 +3082,7 @@
         <v>2</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -3093,7 +3090,7 @@
         <v>2</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -3101,7 +3098,7 @@
         <v>2</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -3109,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -3117,7 +3114,7 @@
         <v>2</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -3125,7 +3122,7 @@
         <v>2</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -3133,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -3141,23 +3138,23 @@
         <v>2</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>2</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>144</v>
+      <c r="B139" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>2</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>286</v>
+      <c r="B140" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -3165,7 +3162,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -3173,26 +3170,26 @@
         <v>2</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -3200,7 +3197,7 @@
         <v>2</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -3208,7 +3205,7 @@
         <v>2</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -3216,7 +3213,7 @@
         <v>2</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -3224,7 +3221,7 @@
         <v>2</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -3232,7 +3229,7 @@
         <v>2</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -3240,7 +3237,7 @@
         <v>2</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -3248,7 +3245,7 @@
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -3256,7 +3253,7 @@
         <v>2</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -3264,7 +3261,7 @@
         <v>2</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -3272,7 +3269,7 @@
         <v>2</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -3280,7 +3277,7 @@
         <v>2</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -3288,7 +3285,7 @@
         <v>2</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -3296,7 +3293,7 @@
         <v>2</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -3304,7 +3301,7 @@
         <v>2</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -3312,7 +3309,7 @@
         <v>2</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -3320,7 +3317,7 @@
         <v>2</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -3328,42 +3325,42 @@
         <v>2</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>2</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>167</v>
+      <c r="B162" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>2</v>
       </c>
-      <c r="B163" t="s">
-        <v>168</v>
+      <c r="B163" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -3371,7 +3368,7 @@
         <v>2</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -3379,15 +3376,18 @@
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -3395,10 +3395,10 @@
         <v>1</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -3406,21 +3406,18 @@
         <v>1</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -3428,7 +3425,7 @@
         <v>2</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -3436,7 +3433,7 @@
         <v>2</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -3444,7 +3441,7 @@
         <v>2</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -3452,7 +3449,7 @@
         <v>2</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -3460,7 +3457,7 @@
         <v>2</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -3468,7 +3465,7 @@
         <v>2</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -3476,7 +3473,7 @@
         <v>2</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -3484,7 +3481,7 @@
         <v>2</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -3492,7 +3489,7 @@
         <v>2</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -3500,7 +3497,7 @@
         <v>2</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -3508,7 +3505,7 @@
         <v>2</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -3516,7 +3513,7 @@
         <v>2</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -3524,7 +3521,7 @@
         <v>2</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -3532,7 +3529,7 @@
         <v>2</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -3540,7 +3537,7 @@
         <v>2</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -3548,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -3556,7 +3553,7 @@
         <v>2</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -3564,7 +3561,7 @@
         <v>2</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -3572,26 +3569,26 @@
         <v>2</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -3599,7 +3596,7 @@
         <v>2</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -3607,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -3615,7 +3612,7 @@
         <v>2</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -3623,7 +3620,7 @@
         <v>2</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -3631,7 +3628,7 @@
         <v>2</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -3639,7 +3636,7 @@
         <v>2</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -3647,7 +3644,7 @@
         <v>2</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -3655,7 +3652,7 @@
         <v>2</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -3663,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -3671,7 +3668,7 @@
         <v>2</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -3679,7 +3676,7 @@
         <v>2</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -3687,7 +3684,7 @@
         <v>2</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -3695,7 +3692,7 @@
         <v>2</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -3703,7 +3700,7 @@
         <v>2</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -3711,7 +3708,7 @@
         <v>2</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -3719,7 +3716,7 @@
         <v>2</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -3727,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -3735,7 +3732,7 @@
         <v>2</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -3743,7 +3740,7 @@
         <v>2</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -3751,7 +3748,7 @@
         <v>2</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -3759,62 +3756,62 @@
         <v>2</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>227</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="C217" s="2"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>2</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C218" s="2"/>
+        <v>229</v>
+      </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>2</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -3822,7 +3819,7 @@
         <v>2</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -3830,7 +3827,7 @@
         <v>2</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -3838,7 +3835,7 @@
         <v>2</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -3846,7 +3843,7 @@
         <v>2</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -3854,7 +3851,7 @@
         <v>2</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -3862,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -3870,26 +3867,26 @@
         <v>2</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -3897,7 +3894,7 @@
         <v>2</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -3905,7 +3902,7 @@
         <v>2</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -3913,7 +3910,7 @@
         <v>2</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -3921,7 +3918,7 @@
         <v>2</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -3929,7 +3926,7 @@
         <v>2</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -3937,7 +3934,7 @@
         <v>2</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -3945,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -3953,15 +3950,15 @@
         <v>2</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>2</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>248</v>
+      <c r="B237" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -3969,7 +3966,7 @@
         <v>2</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -3977,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -3985,7 +3982,7 @@
         <v>2</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -3993,26 +3990,26 @@
         <v>2</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -4020,7 +4017,7 @@
         <v>2</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -4028,7 +4025,7 @@
         <v>2</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -4036,7 +4033,7 @@
         <v>2</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -4044,7 +4041,7 @@
         <v>2</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -4052,7 +4049,7 @@
         <v>2</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -4060,7 +4057,7 @@
         <v>2</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -4068,7 +4065,7 @@
         <v>2</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -4076,7 +4073,7 @@
         <v>2</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -4084,26 +4081,26 @@
         <v>2</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -4111,7 +4108,7 @@
         <v>2</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -4119,7 +4116,7 @@
         <v>2</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -4127,7 +4124,7 @@
         <v>2</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -4135,7 +4132,7 @@
         <v>2</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -4143,7 +4140,7 @@
         <v>2</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -4151,26 +4148,26 @@
         <v>2</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -4178,26 +4175,26 @@
         <v>2</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -4205,15 +4202,15 @@
         <v>2</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>2</v>
       </c>
-      <c r="B267" s="3" t="s">
-        <v>285</v>
+      <c r="B267" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -4221,15 +4218,15 @@
         <v>2</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>2</v>
       </c>
-      <c r="B269" s="1" t="s">
-        <v>288</v>
+      <c r="B269" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -4237,7 +4234,7 @@
         <v>2</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -4245,7 +4242,7 @@
         <v>2</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -4253,23 +4250,23 @@
         <v>2</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>2</v>
       </c>
-      <c r="B273" s="3" t="s">
-        <v>292</v>
+      <c r="B273" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>2</v>
       </c>
-      <c r="B274" s="1" t="s">
-        <v>293</v>
+      <c r="B274" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -4277,7 +4274,7 @@
         <v>2</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -4285,7 +4282,7 @@
         <v>2</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -4293,7 +4290,7 @@
         <v>2</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -4301,23 +4298,23 @@
         <v>2</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>2</v>
       </c>
-      <c r="B279" s="3" t="s">
-        <v>298</v>
+      <c r="B279" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>2</v>
       </c>
-      <c r="B280" s="1" t="s">
-        <v>299</v>
+      <c r="B280" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -4325,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -4333,7 +4330,7 @@
         <v>2</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -4341,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -4349,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -4357,26 +4354,26 @@
         <v>2</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -4384,7 +4381,7 @@
         <v>2</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -4392,7 +4389,7 @@
         <v>2</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -4400,7 +4397,7 @@
         <v>2</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -4408,7 +4405,7 @@
         <v>2</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -4416,7 +4413,7 @@
         <v>2</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -4424,7 +4421,7 @@
         <v>2</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -4432,7 +4429,7 @@
         <v>2</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -4440,7 +4437,7 @@
         <v>2</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -4448,7 +4445,7 @@
         <v>2</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -4456,7 +4453,7 @@
         <v>2</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -4464,7 +4461,7 @@
         <v>2</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -4472,7 +4469,7 @@
         <v>2</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -4480,7 +4477,7 @@
         <v>2</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -4488,26 +4485,26 @@
         <v>2</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
@@ -4515,7 +4512,7 @@
         <v>2</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -4523,7 +4520,7 @@
         <v>2</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -4531,7 +4528,7 @@
         <v>2</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -4539,7 +4536,7 @@
         <v>2</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -4547,7 +4544,7 @@
         <v>2</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -4555,7 +4552,7 @@
         <v>2</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -4563,7 +4560,7 @@
         <v>2</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -4571,7 +4568,7 @@
         <v>2</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -4579,7 +4576,7 @@
         <v>2</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -4587,7 +4584,7 @@
         <v>2</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -4595,7 +4592,7 @@
         <v>2</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -4603,7 +4600,7 @@
         <v>2</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -4611,7 +4608,7 @@
         <v>2</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -4619,7 +4616,7 @@
         <v>2</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -4627,7 +4624,7 @@
         <v>2</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -4635,7 +4632,7 @@
         <v>2</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -4643,7 +4640,7 @@
         <v>2</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -4651,7 +4648,7 @@
         <v>2</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -4659,7 +4656,7 @@
         <v>2</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -4667,7 +4664,7 @@
         <v>2</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -4675,7 +4672,7 @@
         <v>2</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -4683,7 +4680,7 @@
         <v>2</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -4691,7 +4688,7 @@
         <v>2</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -4699,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -4707,7 +4704,7 @@
         <v>2</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -4715,7 +4712,7 @@
         <v>2</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -4723,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -4731,7 +4728,7 @@
         <v>2</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -4739,7 +4736,7 @@
         <v>2</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -4747,7 +4744,7 @@
         <v>2</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -4755,7 +4752,7 @@
         <v>2</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -4763,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -4771,7 +4768,7 @@
         <v>2</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
@@ -4779,7 +4776,7 @@
         <v>2</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -4787,7 +4784,7 @@
         <v>2</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -4795,7 +4792,7 @@
         <v>2</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
@@ -4803,7 +4800,7 @@
         <v>2</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -4811,7 +4808,7 @@
         <v>2</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
@@ -4819,26 +4816,26 @@
         <v>2</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C344" s="3" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -4846,7 +4843,7 @@
         <v>2</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
@@ -4854,7 +4851,7 @@
         <v>2</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -4862,7 +4859,7 @@
         <v>2</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
@@ -4870,7 +4867,7 @@
         <v>2</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -4878,7 +4875,7 @@
         <v>2</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
@@ -4886,7 +4883,7 @@
         <v>2</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -4894,7 +4891,7 @@
         <v>2</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -4902,7 +4899,7 @@
         <v>2</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
@@ -4910,7 +4907,7 @@
         <v>2</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
@@ -4918,7 +4915,7 @@
         <v>2</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
@@ -4926,7 +4923,7 @@
         <v>2</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
@@ -4934,7 +4931,7 @@
         <v>2</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
@@ -4942,7 +4939,7 @@
         <v>2</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
@@ -4950,7 +4947,7 @@
         <v>2</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
@@ -4958,7 +4955,7 @@
         <v>2</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
@@ -4966,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
@@ -4974,7 +4971,7 @@
         <v>2</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
@@ -4982,26 +4979,26 @@
         <v>2</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
@@ -5009,7 +5006,7 @@
         <v>2</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
@@ -5017,7 +5014,10 @@
         <v>2</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
@@ -5025,10 +5025,7 @@
         <v>2</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D367" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
@@ -5036,7 +5033,7 @@
         <v>2</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -5044,7 +5041,7 @@
         <v>2</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -5052,7 +5049,7 @@
         <v>2</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -5060,7 +5057,7 @@
         <v>2</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -5068,7 +5065,7 @@
         <v>2</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -5076,7 +5073,7 @@
         <v>2</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -5084,7 +5081,7 @@
         <v>2</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -5092,7 +5089,7 @@
         <v>2</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -5100,7 +5097,7 @@
         <v>2</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -5108,7 +5105,7 @@
         <v>2</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -5116,7 +5113,7 @@
         <v>2</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -5124,7 +5121,7 @@
         <v>2</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -5132,7 +5129,7 @@
         <v>2</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -5140,7 +5137,7 @@
         <v>2</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -5148,26 +5145,26 @@
         <v>2</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C384" s="3" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
@@ -5175,7 +5172,7 @@
         <v>2</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
@@ -5183,42 +5180,42 @@
         <v>2</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="C388" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>2</v>
       </c>
-      <c r="B389" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B389" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>2</v>
       </c>
-      <c r="B390" s="4" t="s">
-        <v>414</v>
+      <c r="B390" s="3" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
@@ -5226,29 +5223,29 @@
         <v>2</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>424</v>
+        <v>416</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="D393" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
@@ -5256,7 +5253,7 @@
         <v>2</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
@@ -5264,7 +5261,7 @@
         <v>2</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
@@ -5272,7 +5269,7 @@
         <v>2</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
@@ -5280,7 +5277,7 @@
         <v>2</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
@@ -5288,29 +5285,29 @@
         <v>2</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
-        <v>1</v>
-      </c>
-      <c r="B400" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C400" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D400" s="3" t="s">
-        <v>429</v>
+        <v>2</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
@@ -5318,7 +5315,7 @@
         <v>2</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
@@ -5326,7 +5323,7 @@
         <v>2</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
@@ -5334,7 +5331,7 @@
         <v>2</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
@@ -5342,7 +5339,7 @@
         <v>2</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
@@ -5350,7 +5347,7 @@
         <v>2</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
@@ -5358,7 +5355,7 @@
         <v>2</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
@@ -5366,7 +5363,7 @@
         <v>2</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
@@ -5374,7 +5371,7 @@
         <v>2</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
@@ -5382,7 +5379,7 @@
         <v>2</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
@@ -5390,7 +5387,7 @@
         <v>2</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
@@ -5398,26 +5395,26 @@
         <v>2</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
@@ -5425,7 +5422,7 @@
         <v>2</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
@@ -5433,7 +5430,7 @@
         <v>2</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
@@ -5441,7 +5438,7 @@
         <v>2</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
@@ -5449,7 +5446,7 @@
         <v>2</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
@@ -5457,7 +5454,7 @@
         <v>2</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
@@ -5465,26 +5462,26 @@
         <v>2</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
@@ -5492,26 +5489,26 @@
         <v>2</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
-        <v>1</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C424" s="3" t="s">
-        <v>464</v>
+        <v>2</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
@@ -5519,7 +5516,7 @@
         <v>2</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
@@ -5527,42 +5524,34 @@
         <v>2</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
+      </c>
+      <c r="C428" s="3"/>
+      <c r="D428" s="3" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A429" s="1">
-        <v>2</v>
-      </c>
-      <c r="B429" s="3" t="s">
-        <v>461</v>
-      </c>
       <c r="C429" s="3"/>
-      <c r="D429" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C430" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C87A3F-F6AA-41A0-BC51-B5E75F700C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7984EC33-946F-4103-9CF8-CA43353D8862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="495">
   <si>
     <t>group</t>
   </si>
@@ -1658,6 +1658,126 @@
   </si>
   <si>
     <t>策划让我写一句话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧二花肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾熙豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错过开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞鸟掌门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煮酒醉月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉墨明华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人未尽”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡纸129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMFAH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃酥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨露微凉暮流光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若酷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑绝轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉然🥰我的嘉然🥰🥰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔西尔兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbhehe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我永远喜欢阎魔爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achi-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小僵尸是吃了跳跳糖么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxyfu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王柯南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIRVANA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加拿大刘亦菲Regina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天边最远的云</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1998,21 +2118,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D429"/>
+  <dimension ref="A1:D457"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="C449" sqref="C449"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.9140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.08203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.25" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.9140625" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.21875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2026,7 +2146,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2037,7 +2157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2045,7 +2165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2053,7 +2173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2061,7 +2181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -2069,7 +2189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -2077,7 +2197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -2085,7 +2205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -2093,7 +2213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -2101,7 +2221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -2109,7 +2229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -2117,7 +2237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -2125,7 +2245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -2136,7 +2256,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -2144,7 +2264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -2152,7 +2272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -2160,7 +2280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -2168,7 +2288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -2179,7 +2299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -2187,7 +2307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -2195,7 +2315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -2203,7 +2323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -2211,7 +2331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -2219,7 +2339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -2227,7 +2347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -2235,7 +2355,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -2243,7 +2363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -2251,7 +2371,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -2262,7 +2382,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -2270,7 +2390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -2278,7 +2398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -2286,7 +2406,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -2294,7 +2414,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -2302,7 +2422,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -2310,7 +2430,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -2318,7 +2438,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -2326,7 +2446,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -2334,7 +2454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -2342,7 +2462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -2350,7 +2470,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -2358,7 +2478,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -2366,7 +2486,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -2374,7 +2494,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -2382,7 +2502,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -2390,7 +2510,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -2398,7 +2518,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -2406,7 +2526,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -2414,7 +2534,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -2422,7 +2542,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -2430,7 +2550,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -2438,7 +2558,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -2446,7 +2566,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -2454,7 +2574,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -2462,7 +2582,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -2470,7 +2590,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -2478,7 +2598,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -2486,7 +2606,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -2494,7 +2614,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -2502,7 +2622,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -2510,7 +2630,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -2518,7 +2638,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -2526,7 +2646,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -2534,7 +2654,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -2542,7 +2662,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -2550,7 +2670,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2</v>
       </c>
@@ -2558,7 +2678,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -2566,7 +2686,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -2574,7 +2694,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -2582,7 +2702,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -2590,7 +2710,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -2598,7 +2718,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -2606,7 +2726,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2</v>
       </c>
@@ -2614,7 +2734,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -2622,7 +2742,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2</v>
       </c>
@@ -2630,7 +2750,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -2641,7 +2761,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2</v>
       </c>
@@ -2649,7 +2769,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2</v>
       </c>
@@ -2657,7 +2777,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2</v>
       </c>
@@ -2665,7 +2785,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2</v>
       </c>
@@ -2673,7 +2793,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2</v>
       </c>
@@ -2681,7 +2801,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -2692,7 +2812,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2</v>
       </c>
@@ -2700,7 +2820,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2</v>
       </c>
@@ -2708,7 +2828,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2</v>
       </c>
@@ -2716,7 +2836,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>2</v>
       </c>
@@ -2724,7 +2844,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>2</v>
       </c>
@@ -2732,7 +2852,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>2</v>
       </c>
@@ -2740,7 +2860,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>2</v>
       </c>
@@ -2748,7 +2868,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2</v>
       </c>
@@ -2756,7 +2876,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>2</v>
       </c>
@@ -2764,7 +2884,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2</v>
       </c>
@@ -2772,7 +2892,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2</v>
       </c>
@@ -2780,7 +2900,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2</v>
       </c>
@@ -2788,7 +2908,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2</v>
       </c>
@@ -2796,7 +2916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2</v>
       </c>
@@ -2804,7 +2924,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2</v>
       </c>
@@ -2812,7 +2932,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2</v>
       </c>
@@ -2820,7 +2940,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2</v>
       </c>
@@ -2828,7 +2948,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -2836,7 +2956,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2</v>
       </c>
@@ -2844,7 +2964,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2</v>
       </c>
@@ -2852,7 +2972,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2</v>
       </c>
@@ -2860,7 +2980,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2</v>
       </c>
@@ -2868,7 +2988,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2</v>
       </c>
@@ -2876,7 +2996,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2</v>
       </c>
@@ -2884,7 +3004,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2</v>
       </c>
@@ -2892,7 +3012,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2</v>
       </c>
@@ -2900,7 +3020,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2</v>
       </c>
@@ -2908,7 +3028,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>1</v>
       </c>
@@ -2919,7 +3039,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>1</v>
       </c>
@@ -2930,7 +3050,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2</v>
       </c>
@@ -2938,7 +3058,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2</v>
       </c>
@@ -2946,7 +3066,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2</v>
       </c>
@@ -2954,7 +3074,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2</v>
       </c>
@@ -2962,7 +3082,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2</v>
       </c>
@@ -2970,7 +3090,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2</v>
       </c>
@@ -2978,7 +3098,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2</v>
       </c>
@@ -2986,7 +3106,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2</v>
       </c>
@@ -2994,7 +3114,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2</v>
       </c>
@@ -3002,7 +3122,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>1</v>
       </c>
@@ -3013,7 +3133,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2</v>
       </c>
@@ -3021,7 +3141,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -3029,7 +3149,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -3037,7 +3157,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2</v>
       </c>
@@ -3045,7 +3165,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2</v>
       </c>
@@ -3053,7 +3173,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -3061,7 +3181,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2</v>
       </c>
@@ -3069,7 +3189,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2</v>
       </c>
@@ -3077,7 +3197,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2</v>
       </c>
@@ -3085,7 +3205,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2</v>
       </c>
@@ -3093,7 +3213,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2</v>
       </c>
@@ -3101,7 +3221,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2</v>
       </c>
@@ -3109,7 +3229,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2</v>
       </c>
@@ -3117,7 +3237,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2</v>
       </c>
@@ -3125,7 +3245,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2</v>
       </c>
@@ -3133,7 +3253,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2</v>
       </c>
@@ -3141,7 +3261,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2</v>
       </c>
@@ -3149,7 +3269,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2</v>
       </c>
@@ -3157,7 +3277,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2</v>
       </c>
@@ -3165,7 +3285,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2</v>
       </c>
@@ -3173,7 +3293,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1</v>
       </c>
@@ -3184,7 +3304,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2</v>
       </c>
@@ -3192,7 +3312,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2</v>
       </c>
@@ -3200,7 +3320,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2</v>
       </c>
@@ -3208,7 +3328,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2</v>
       </c>
@@ -3216,7 +3336,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2</v>
       </c>
@@ -3224,7 +3344,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2</v>
       </c>
@@ -3232,7 +3352,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>2</v>
       </c>
@@ -3240,7 +3360,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2</v>
       </c>
@@ -3248,7 +3368,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2</v>
       </c>
@@ -3256,7 +3376,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2</v>
       </c>
@@ -3264,7 +3384,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>2</v>
       </c>
@@ -3272,7 +3392,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>2</v>
       </c>
@@ -3280,7 +3400,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>2</v>
       </c>
@@ -3288,7 +3408,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2</v>
       </c>
@@ -3296,7 +3416,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>2</v>
       </c>
@@ -3304,7 +3424,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>2</v>
       </c>
@@ -3312,7 +3432,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>2</v>
       </c>
@@ -3320,7 +3440,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>2</v>
       </c>
@@ -3328,7 +3448,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>2</v>
       </c>
@@ -3336,7 +3456,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>2</v>
       </c>
@@ -3344,7 +3464,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>1</v>
       </c>
@@ -3355,7 +3475,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>2</v>
       </c>
@@ -3363,7 +3483,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>2</v>
       </c>
@@ -3371,7 +3491,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>2</v>
       </c>
@@ -3379,7 +3499,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>1</v>
       </c>
@@ -3390,7 +3510,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>1</v>
       </c>
@@ -3401,7 +3521,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>1</v>
       </c>
@@ -3412,7 +3532,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>2</v>
       </c>
@@ -3420,7 +3540,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>2</v>
       </c>
@@ -3428,7 +3548,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>2</v>
       </c>
@@ -3436,7 +3556,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>2</v>
       </c>
@@ -3444,7 +3564,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>2</v>
       </c>
@@ -3452,7 +3572,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>2</v>
       </c>
@@ -3460,7 +3580,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>2</v>
       </c>
@@ -3468,7 +3588,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>2</v>
       </c>
@@ -3476,7 +3596,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>2</v>
       </c>
@@ -3484,7 +3604,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>2</v>
       </c>
@@ -3492,7 +3612,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>2</v>
       </c>
@@ -3500,7 +3620,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>2</v>
       </c>
@@ -3508,7 +3628,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>2</v>
       </c>
@@ -3516,7 +3636,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>2</v>
       </c>
@@ -3524,7 +3644,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>2</v>
       </c>
@@ -3532,7 +3652,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>2</v>
       </c>
@@ -3540,7 +3660,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>2</v>
       </c>
@@ -3548,7 +3668,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>2</v>
       </c>
@@ -3556,7 +3676,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>2</v>
       </c>
@@ -3564,7 +3684,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>2</v>
       </c>
@@ -3572,7 +3692,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>1</v>
       </c>
@@ -3583,7 +3703,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>2</v>
       </c>
@@ -3591,7 +3711,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>2</v>
       </c>
@@ -3599,7 +3719,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>2</v>
       </c>
@@ -3607,7 +3727,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>2</v>
       </c>
@@ -3615,7 +3735,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>2</v>
       </c>
@@ -3623,7 +3743,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>2</v>
       </c>
@@ -3631,7 +3751,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>2</v>
       </c>
@@ -3639,7 +3759,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>2</v>
       </c>
@@ -3647,7 +3767,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>2</v>
       </c>
@@ -3655,7 +3775,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>2</v>
       </c>
@@ -3663,7 +3783,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>2</v>
       </c>
@@ -3671,7 +3791,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>2</v>
       </c>
@@ -3679,7 +3799,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>2</v>
       </c>
@@ -3687,7 +3807,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>2</v>
       </c>
@@ -3695,7 +3815,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>2</v>
       </c>
@@ -3703,7 +3823,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>2</v>
       </c>
@@ -3711,7 +3831,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>2</v>
       </c>
@@ -3719,7 +3839,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>2</v>
       </c>
@@ -3727,7 +3847,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>2</v>
       </c>
@@ -3735,7 +3855,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>2</v>
       </c>
@@ -3743,7 +3863,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>2</v>
       </c>
@@ -3751,7 +3871,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>2</v>
       </c>
@@ -3759,7 +3879,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>1</v>
       </c>
@@ -3770,7 +3890,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>2</v>
       </c>
@@ -3778,7 +3898,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>1</v>
       </c>
@@ -3789,7 +3909,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>2</v>
       </c>
@@ -3798,7 +3918,7 @@
       </c>
       <c r="C217" s="2"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>2</v>
       </c>
@@ -3806,7 +3926,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>2</v>
       </c>
@@ -3814,7 +3934,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>2</v>
       </c>
@@ -3822,7 +3942,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>2</v>
       </c>
@@ -3830,7 +3950,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>2</v>
       </c>
@@ -3838,7 +3958,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>2</v>
       </c>
@@ -3846,7 +3966,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>2</v>
       </c>
@@ -3854,7 +3974,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>2</v>
       </c>
@@ -3862,7 +3982,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>2</v>
       </c>
@@ -3870,7 +3990,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>1</v>
       </c>
@@ -3881,7 +4001,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>2</v>
       </c>
@@ -3889,7 +4009,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>2</v>
       </c>
@@ -3897,7 +4017,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>2</v>
       </c>
@@ -3905,7 +4025,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>2</v>
       </c>
@@ -3913,7 +4033,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>2</v>
       </c>
@@ -3921,7 +4041,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>2</v>
       </c>
@@ -3929,7 +4049,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>2</v>
       </c>
@@ -3937,7 +4057,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>2</v>
       </c>
@@ -3945,7 +4065,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>2</v>
       </c>
@@ -3953,7 +4073,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>2</v>
       </c>
@@ -3961,7 +4081,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>2</v>
       </c>
@@ -3969,7 +4089,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>2</v>
       </c>
@@ -3977,7 +4097,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>2</v>
       </c>
@@ -3985,7 +4105,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>2</v>
       </c>
@@ -3993,7 +4113,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>1</v>
       </c>
@@ -4004,7 +4124,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>2</v>
       </c>
@@ -4012,7 +4132,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>2</v>
       </c>
@@ -4020,7 +4140,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>2</v>
       </c>
@@ -4028,7 +4148,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>2</v>
       </c>
@@ -4036,7 +4156,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>2</v>
       </c>
@@ -4044,7 +4164,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>2</v>
       </c>
@@ -4052,7 +4172,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>2</v>
       </c>
@@ -4060,7 +4180,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>2</v>
       </c>
@@ -4068,7 +4188,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>2</v>
       </c>
@@ -4076,7 +4196,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>2</v>
       </c>
@@ -4084,7 +4204,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>1</v>
       </c>
@@ -4095,7 +4215,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>2</v>
       </c>
@@ -4103,7 +4223,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>2</v>
       </c>
@@ -4111,7 +4231,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>2</v>
       </c>
@@ -4119,7 +4239,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>2</v>
       </c>
@@ -4127,7 +4247,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>2</v>
       </c>
@@ -4135,7 +4255,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>2</v>
       </c>
@@ -4143,7 +4263,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>2</v>
       </c>
@@ -4151,7 +4271,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>1</v>
       </c>
@@ -4162,7 +4282,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>2</v>
       </c>
@@ -4170,7 +4290,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>2</v>
       </c>
@@ -4178,7 +4298,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>1</v>
       </c>
@@ -4189,7 +4309,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>2</v>
       </c>
@@ -4197,7 +4317,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>2</v>
       </c>
@@ -4205,7 +4325,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>2</v>
       </c>
@@ -4213,7 +4333,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>2</v>
       </c>
@@ -4221,7 +4341,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>2</v>
       </c>
@@ -4229,7 +4349,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>2</v>
       </c>
@@ -4237,7 +4357,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>2</v>
       </c>
@@ -4245,7 +4365,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>2</v>
       </c>
@@ -4253,7 +4373,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>2</v>
       </c>
@@ -4261,7 +4381,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>2</v>
       </c>
@@ -4269,7 +4389,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>2</v>
       </c>
@@ -4277,7 +4397,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>2</v>
       </c>
@@ -4285,7 +4405,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>2</v>
       </c>
@@ -4293,7 +4413,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>2</v>
       </c>
@@ -4301,7 +4421,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>2</v>
       </c>
@@ -4309,7 +4429,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>2</v>
       </c>
@@ -4317,7 +4437,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>2</v>
       </c>
@@ -4325,7 +4445,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>2</v>
       </c>
@@ -4333,7 +4453,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>2</v>
       </c>
@@ -4341,7 +4461,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>2</v>
       </c>
@@ -4349,7 +4469,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>2</v>
       </c>
@@ -4357,7 +4477,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>1</v>
       </c>
@@ -4368,7 +4488,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>2</v>
       </c>
@@ -4376,7 +4496,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>2</v>
       </c>
@@ -4384,7 +4504,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>2</v>
       </c>
@@ -4392,7 +4512,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>2</v>
       </c>
@@ -4400,7 +4520,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>2</v>
       </c>
@@ -4408,7 +4528,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>2</v>
       </c>
@@ -4416,7 +4536,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>2</v>
       </c>
@@ -4424,7 +4544,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>2</v>
       </c>
@@ -4432,7 +4552,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>2</v>
       </c>
@@ -4440,7 +4560,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>2</v>
       </c>
@@ -4448,7 +4568,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>2</v>
       </c>
@@ -4456,7 +4576,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>2</v>
       </c>
@@ -4464,7 +4584,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>2</v>
       </c>
@@ -4472,7 +4592,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>2</v>
       </c>
@@ -4480,7 +4600,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>2</v>
       </c>
@@ -4488,7 +4608,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>1</v>
       </c>
@@ -4499,7 +4619,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>2</v>
       </c>
@@ -4507,7 +4627,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>2</v>
       </c>
@@ -4515,7 +4635,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>2</v>
       </c>
@@ -4523,7 +4643,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>2</v>
       </c>
@@ -4531,7 +4651,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>2</v>
       </c>
@@ -4539,7 +4659,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>2</v>
       </c>
@@ -4547,7 +4667,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>2</v>
       </c>
@@ -4555,7 +4675,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>2</v>
       </c>
@@ -4563,7 +4683,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>2</v>
       </c>
@@ -4571,7 +4691,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>2</v>
       </c>
@@ -4579,7 +4699,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>2</v>
       </c>
@@ -4587,7 +4707,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>2</v>
       </c>
@@ -4595,7 +4715,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>2</v>
       </c>
@@ -4603,7 +4723,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>2</v>
       </c>
@@ -4611,7 +4731,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>2</v>
       </c>
@@ -4619,7 +4739,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>2</v>
       </c>
@@ -4627,7 +4747,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>2</v>
       </c>
@@ -4635,7 +4755,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>2</v>
       </c>
@@ -4643,7 +4763,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>2</v>
       </c>
@@ -4651,7 +4771,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>2</v>
       </c>
@@ -4659,7 +4779,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>2</v>
       </c>
@@ -4667,7 +4787,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>2</v>
       </c>
@@ -4675,7 +4795,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>2</v>
       </c>
@@ -4683,7 +4803,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>2</v>
       </c>
@@ -4691,7 +4811,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>2</v>
       </c>
@@ -4699,7 +4819,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>2</v>
       </c>
@@ -4707,7 +4827,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>2</v>
       </c>
@@ -4715,7 +4835,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>2</v>
       </c>
@@ -4723,7 +4843,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>2</v>
       </c>
@@ -4731,7 +4851,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>2</v>
       </c>
@@ -4739,7 +4859,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>2</v>
       </c>
@@ -4747,7 +4867,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>2</v>
       </c>
@@ -4755,7 +4875,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>2</v>
       </c>
@@ -4763,7 +4883,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>2</v>
       </c>
@@ -4771,7 +4891,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>2</v>
       </c>
@@ -4779,7 +4899,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>2</v>
       </c>
@@ -4787,7 +4907,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>2</v>
       </c>
@@ -4795,7 +4915,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>2</v>
       </c>
@@ -4803,7 +4923,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>2</v>
       </c>
@@ -4811,7 +4931,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>2</v>
       </c>
@@ -4819,7 +4939,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>1</v>
       </c>
@@ -4830,7 +4950,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>2</v>
       </c>
@@ -4838,7 +4958,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>2</v>
       </c>
@@ -4846,7 +4966,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>2</v>
       </c>
@@ -4854,7 +4974,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>2</v>
       </c>
@@ -4862,7 +4982,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>2</v>
       </c>
@@ -4870,7 +4990,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>2</v>
       </c>
@@ -4878,7 +4998,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>2</v>
       </c>
@@ -4886,7 +5006,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>2</v>
       </c>
@@ -4894,7 +5014,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>2</v>
       </c>
@@ -4902,7 +5022,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>2</v>
       </c>
@@ -4910,7 +5030,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>2</v>
       </c>
@@ -4918,7 +5038,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>2</v>
       </c>
@@ -4926,7 +5046,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>2</v>
       </c>
@@ -4934,7 +5054,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>2</v>
       </c>
@@ -4942,7 +5062,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>2</v>
       </c>
@@ -4950,7 +5070,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>2</v>
       </c>
@@ -4958,7 +5078,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>2</v>
       </c>
@@ -4966,7 +5086,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>2</v>
       </c>
@@ -4974,7 +5094,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>2</v>
       </c>
@@ -4982,7 +5102,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>1</v>
       </c>
@@ -4993,7 +5113,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>2</v>
       </c>
@@ -5001,7 +5121,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>2</v>
       </c>
@@ -5009,7 +5129,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>2</v>
       </c>
@@ -5020,7 +5140,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>2</v>
       </c>
@@ -5028,7 +5148,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>2</v>
       </c>
@@ -5036,7 +5156,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>2</v>
       </c>
@@ -5044,7 +5164,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>2</v>
       </c>
@@ -5052,7 +5172,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>2</v>
       </c>
@@ -5060,7 +5180,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>2</v>
       </c>
@@ -5068,7 +5188,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>2</v>
       </c>
@@ -5076,7 +5196,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>2</v>
       </c>
@@ -5084,7 +5204,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>2</v>
       </c>
@@ -5092,7 +5212,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>2</v>
       </c>
@@ -5100,7 +5220,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>2</v>
       </c>
@@ -5108,7 +5228,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>2</v>
       </c>
@@ -5116,7 +5236,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>2</v>
       </c>
@@ -5124,7 +5244,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>2</v>
       </c>
@@ -5132,7 +5252,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>2</v>
       </c>
@@ -5140,7 +5260,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>2</v>
       </c>
@@ -5148,7 +5268,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>1</v>
       </c>
@@ -5159,7 +5279,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>2</v>
       </c>
@@ -5167,7 +5287,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>2</v>
       </c>
@@ -5175,7 +5295,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>2</v>
       </c>
@@ -5183,7 +5303,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>1</v>
       </c>
@@ -5194,7 +5314,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>2</v>
       </c>
@@ -5202,7 +5322,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>2</v>
       </c>
@@ -5210,7 +5330,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>2</v>
       </c>
@@ -5218,7 +5338,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>2</v>
       </c>
@@ -5226,7 +5346,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>1</v>
       </c>
@@ -5240,7 +5360,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>2</v>
       </c>
@@ -5248,7 +5368,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>2</v>
       </c>
@@ -5256,7 +5376,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>2</v>
       </c>
@@ -5264,7 +5384,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>2</v>
       </c>
@@ -5272,7 +5392,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>2</v>
       </c>
@@ -5280,7 +5400,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>2</v>
       </c>
@@ -5288,7 +5408,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>1</v>
       </c>
@@ -5302,7 +5422,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>2</v>
       </c>
@@ -5310,7 +5430,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>2</v>
       </c>
@@ -5318,7 +5438,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>2</v>
       </c>
@@ -5326,7 +5446,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>2</v>
       </c>
@@ -5334,7 +5454,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>2</v>
       </c>
@@ -5342,7 +5462,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>2</v>
       </c>
@@ -5350,7 +5470,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>2</v>
       </c>
@@ -5358,7 +5478,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>2</v>
       </c>
@@ -5366,7 +5486,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>2</v>
       </c>
@@ -5374,7 +5494,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>2</v>
       </c>
@@ -5382,7 +5502,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>2</v>
       </c>
@@ -5390,7 +5510,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>2</v>
       </c>
@@ -5398,7 +5518,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>1</v>
       </c>
@@ -5409,7 +5529,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>2</v>
       </c>
@@ -5417,7 +5537,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>2</v>
       </c>
@@ -5425,7 +5545,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>2</v>
       </c>
@@ -5433,7 +5553,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>2</v>
       </c>
@@ -5441,7 +5561,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>2</v>
       </c>
@@ -5449,7 +5569,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>2</v>
       </c>
@@ -5457,7 +5577,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>2</v>
       </c>
@@ -5465,7 +5585,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>1</v>
       </c>
@@ -5476,7 +5596,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>2</v>
       </c>
@@ -5484,7 +5604,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>2</v>
       </c>
@@ -5492,7 +5612,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>1</v>
       </c>
@@ -5503,7 +5623,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>2</v>
       </c>
@@ -5511,7 +5631,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>2</v>
       </c>
@@ -5519,7 +5639,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>2</v>
       </c>
@@ -5527,7 +5647,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>1</v>
       </c>
@@ -5538,7 +5658,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>2</v>
       </c>
@@ -5550,8 +5670,241 @@
         <v>462</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
+        <v>2</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
+        <v>2</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
+        <v>2</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
+        <v>2</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
+        <v>2</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
+        <v>2</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
+        <v>2</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
+        <v>2</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
+        <v>2</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
+        <v>2</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
+        <v>2</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
+        <v>2</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
+        <v>2</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
+        <v>2</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
+        <v>2</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
+        <v>2</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
+        <v>2</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
+        <v>2</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
+        <v>2</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
+        <v>2</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
+        <v>2</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
+        <v>2</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
+        <v>2</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
+        <v>2</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
+        <v>2</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
+        <v>2</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
+        <v>2</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
+        <v>1</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
+        <v>2</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>494</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7984EC33-946F-4103-9CF8-CA43353D8862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A1A050-639A-4639-815F-14749880683D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="520">
   <si>
     <t>group</t>
   </si>
@@ -1778,6 +1778,106 @@
   </si>
   <si>
     <t>天边最远的云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路缃笺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸菜鱼不酸嘴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change-qrj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸鱼粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkkm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏矢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceking233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功夫不负有心人，8小时的执念，转世飞升，修仙之路漫漫，望道友们不要放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝愿游戏越做越好！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fish_Bubble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用睡觉的柚子大魔王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8600FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁开心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KYLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孜然酥皮鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wujiongyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物叔叔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽忽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生生长流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨過の天晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄芥末酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奈何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青柠微凉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2118,10 +2218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D457"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="C449" sqref="C449"/>
+    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
+      <selection activeCell="C471" sqref="C471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5906,6 +6006,191 @@
         <v>494</v>
       </c>
     </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
+        <v>2</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
+        <v>2</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
+        <v>2</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
+        <v>2</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1">
+        <v>2</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
+        <v>2</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
+        <v>1</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" s="1">
+        <v>1</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" s="1">
+        <v>2</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" s="1">
+        <v>2</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" s="1">
+        <v>2</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" s="1">
+        <v>2</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
+        <v>2</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
+        <v>2</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
+        <v>2</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
+        <v>2</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
+        <v>2</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
+        <v>2</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
+        <v>2</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
+        <v>2</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
+        <v>2</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
+        <v>2</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A1A050-639A-4639-815F-14749880683D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19C02EA-26AF-4781-ACA7-CBBA376D4BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="540">
   <si>
     <t>group</t>
   </si>
@@ -1878,6 +1878,86 @@
   </si>
   <si>
     <t>青柠微凉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿三盖饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許諾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤和艾莉欧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷酷的内内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kinko668</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大芋头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向日出许愿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低调De张扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不说不懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊公子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璇瑰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amisa_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白讫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yaginya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注嘉然，顿顿解馋❤️</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏可以无数次重来，但人生不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小小小冰冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望文字游戏越做越好 希望策划多多加班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2218,10 +2298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:D497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="C471" sqref="C471"/>
+    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
+      <selection activeCell="C492" sqref="C492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6191,6 +6271,156 @@
         <v>519</v>
       </c>
     </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
+        <v>2</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
+        <v>2</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
+        <v>2</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
+        <v>2</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
+        <v>2</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
+        <v>1</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
+        <v>2</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
+        <v>2</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
+        <v>2</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
+        <v>2</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>2</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
+        <v>2</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
+        <v>2</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
+        <v>2</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
+        <v>2</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
+        <v>2</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
+        <v>2</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
+        <v>1</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19C02EA-26AF-4781-ACA7-CBBA376D4BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA38944B-D2BA-4138-A82A-C57F3CD967DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="547">
   <si>
     <t>group</t>
   </si>
@@ -1958,6 +1958,34 @@
   </si>
   <si>
     <t>希望文字游戏越做越好 希望策划多多加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drown丶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mass Brain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wylszy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我也不知道我是谁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜音雪语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是叫hesy好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻网小薇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2298,10 +2326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D497"/>
+  <dimension ref="A1:D504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="C492" sqref="C492"/>
+    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="C503" sqref="C503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6421,6 +6449,62 @@
         <v>539</v>
       </c>
     </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
+        <v>2</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
+        <v>2</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
+        <v>2</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1">
+        <v>2</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1">
+        <v>2</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
+        <v>2</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1">
+        <v>2</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA38944B-D2BA-4138-A82A-C57F3CD967DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166CE80F-31A9-4532-94A9-3B1FC05B4A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="561">
   <si>
     <t>group</t>
   </si>
@@ -1986,6 +1986,62 @@
   </si>
   <si>
     <t>新闻网小薇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏波poi丶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤姆毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f0rest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwertyuiop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白勺光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我就一傻的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭芭拉冲鸭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦香鸡腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YoKan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花有重开日，人无在少年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orphankun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望游戏越做越好，Fight！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2326,10 +2382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D504"/>
+  <dimension ref="A1:D517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
-      <selection activeCell="C503" sqref="C503"/>
+    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
+      <selection activeCell="C517" sqref="C517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6505,6 +6561,113 @@
         <v>546</v>
       </c>
     </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
+        <v>2</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1">
+        <v>2</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1">
+        <v>2</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1">
+        <v>2</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1">
+        <v>1</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1">
+        <v>2</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1">
+        <v>2</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1">
+        <v>2</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
+        <v>2</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="1">
+        <v>2</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
+        <v>2</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
+        <v>2</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="1">
+        <v>2</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166CE80F-31A9-4532-94A9-3B1FC05B4A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5638B070-7D82-4C94-8EB7-253B2FBF76C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="568">
   <si>
     <t>group</t>
   </si>
@@ -2042,6 +2042,34 @@
   </si>
   <si>
     <t>希望游戏越做越好，Fight！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfyx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷鱼雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的信仰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的那么多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜桐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗山</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2382,10 +2410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D517"/>
+  <dimension ref="A1:D524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="C517" sqref="C517"/>
+    <sheetView tabSelected="1" topLeftCell="A500" workbookViewId="0">
+      <selection activeCell="C515" sqref="C515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6668,6 +6696,62 @@
         <v>559</v>
       </c>
     </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="1">
+        <v>2</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="1">
+        <v>2</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="1">
+        <v>2</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="1">
+        <v>2</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="1">
+        <v>2</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="1">
+        <v>2</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="1">
+        <v>2</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5638B070-7D82-4C94-8EB7-253B2FBF76C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0EA6B0-BAE2-4582-9919-BDD887B987E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="580">
   <si>
     <t>group</t>
   </si>
@@ -2070,6 +2070,54 @@
   </si>
   <si>
     <t>遗山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月金小遥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qinyilinp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQWQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航海家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸢鸣鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>determination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑稽树下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨姆饿了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸丸子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩维</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2410,10 +2458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D524"/>
+  <dimension ref="A1:D536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A500" workbookViewId="0">
-      <selection activeCell="C515" sqref="C515"/>
+    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
+      <selection activeCell="C534" sqref="C534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6752,6 +6800,102 @@
         <v>567</v>
       </c>
     </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="1">
+        <v>2</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="1">
+        <v>2</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="1">
+        <v>2</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="1">
+        <v>2</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" s="1">
+        <v>2</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" s="1">
+        <v>2</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="1">
+        <v>2</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="1">
+        <v>2</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="1">
+        <v>2</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="1">
+        <v>2</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="1">
+        <v>2</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="1">
+        <v>2</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0EA6B0-BAE2-4582-9919-BDD887B987E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269F04D8-F596-496A-BF00-B8BE09FA7437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="590">
   <si>
     <t>group</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>shiki</t>
-  </si>
-  <si>
-    <t>小羊</t>
   </si>
   <si>
     <t>狂啸</t>
@@ -2118,6 +2115,50 @@
   </si>
   <si>
     <t>恩维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渊静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛合金蚊子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱电用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是潇潇吖❀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千织信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注嘉然，顿顿解馋😋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亖天荫亖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ffccff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2458,10 +2499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D536"/>
+  <dimension ref="A1:D545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
-      <selection activeCell="C534" sqref="C534"/>
+    <sheetView tabSelected="1" topLeftCell="A526" workbookViewId="0">
+      <selection activeCell="F545" sqref="F545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2483,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2582,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2590,10 +2631,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2601,7 +2642,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2609,7 +2650,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2617,7 +2658,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2625,7 +2666,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2633,10 +2674,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2644,7 +2685,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2652,7 +2693,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2660,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2668,7 +2709,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2676,7 +2717,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2684,7 +2725,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2692,7 +2733,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2700,7 +2741,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2708,7 +2749,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2716,10 +2757,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2727,7 +2768,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2735,7 +2776,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2743,7 +2784,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2751,7 +2792,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2759,7 +2800,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2767,7 +2808,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2775,7 +2816,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2783,7 +2824,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2791,7 +2832,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2799,7 +2840,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2807,7 +2848,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2815,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2823,7 +2864,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2831,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2847,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2855,7 +2896,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2863,7 +2904,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2871,7 +2912,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2879,7 +2920,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2887,7 +2928,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2895,7 +2936,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2903,7 +2944,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2919,7 +2960,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2927,7 +2968,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2935,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2943,7 +2984,7 @@
         <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2951,7 +2992,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2959,7 +3000,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2967,7 +3008,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2975,7 +3016,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +3024,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2991,7 +3032,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2999,7 +3040,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3007,7 +3048,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3015,7 +3056,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3023,7 +3064,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3031,7 +3072,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3039,7 +3080,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -3047,7 +3088,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -3055,7 +3096,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3063,7 +3104,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3071,7 +3112,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3079,7 +3120,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3087,7 +3128,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3095,10 +3136,10 @@
         <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3106,7 +3147,7 @@
         <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3114,7 +3155,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -3122,7 +3163,7 @@
         <v>2</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3130,7 +3171,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3138,7 +3179,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3146,10 +3187,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3157,7 +3198,7 @@
         <v>2</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3165,7 +3206,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3173,7 +3214,7 @@
         <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3181,7 +3222,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3189,7 +3230,7 @@
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3197,7 +3238,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3205,7 +3246,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3213,7 +3254,7 @@
         <v>2</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3221,7 +3262,7 @@
         <v>2</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3229,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3237,7 +3278,7 @@
         <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3245,7 +3286,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -3253,7 +3294,7 @@
         <v>2</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -3261,7 +3302,7 @@
         <v>2</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -3269,7 +3310,7 @@
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -3277,7 +3318,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3285,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -3293,7 +3334,7 @@
         <v>2</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3301,7 +3342,7 @@
         <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3309,7 +3350,7 @@
         <v>2</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3317,7 +3358,7 @@
         <v>2</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3325,7 +3366,7 @@
         <v>2</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3333,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -3341,7 +3382,7 @@
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -3349,7 +3390,7 @@
         <v>2</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -3357,7 +3398,7 @@
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -3365,7 +3406,7 @@
         <v>2</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3373,10 +3414,10 @@
         <v>1</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3384,10 +3425,10 @@
         <v>1</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3395,7 +3436,7 @@
         <v>2</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3403,7 +3444,7 @@
         <v>2</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -3411,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -3419,7 +3460,7 @@
         <v>2</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3427,7 +3468,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -3435,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3443,7 +3484,7 @@
         <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -3451,7 +3492,7 @@
         <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -3459,7 +3500,7 @@
         <v>2</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -3467,10 +3508,10 @@
         <v>1</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -3478,7 +3519,7 @@
         <v>2</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -3486,7 +3527,7 @@
         <v>2</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -3494,7 +3535,7 @@
         <v>2</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -3502,7 +3543,7 @@
         <v>2</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -3510,7 +3551,7 @@
         <v>2</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -3518,7 +3559,7 @@
         <v>2</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -3526,7 +3567,7 @@
         <v>2</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -3534,7 +3575,7 @@
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -3542,7 +3583,7 @@
         <v>2</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -3550,7 +3591,7 @@
         <v>2</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -3558,7 +3599,7 @@
         <v>2</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -3566,7 +3607,7 @@
         <v>2</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -3574,7 +3615,7 @@
         <v>2</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -3582,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -3590,7 +3631,7 @@
         <v>2</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -3598,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -3606,7 +3647,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -3614,7 +3655,7 @@
         <v>2</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -3622,7 +3663,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -3630,7 +3671,7 @@
         <v>2</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -3638,10 +3679,10 @@
         <v>1</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -3649,7 +3690,7 @@
         <v>2</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3657,7 +3698,7 @@
         <v>2</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3665,7 +3706,7 @@
         <v>2</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3673,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3681,7 +3722,7 @@
         <v>2</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3689,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3697,7 +3738,7 @@
         <v>2</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3705,7 +3746,7 @@
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3713,7 +3754,7 @@
         <v>2</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3721,7 +3762,7 @@
         <v>2</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3729,7 +3770,7 @@
         <v>2</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3737,7 +3778,7 @@
         <v>2</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3745,7 +3786,7 @@
         <v>2</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3753,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3761,7 +3802,7 @@
         <v>2</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3769,7 +3810,7 @@
         <v>2</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3777,7 +3818,7 @@
         <v>2</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -3785,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -3793,7 +3834,7 @@
         <v>2</v>
       </c>
       <c r="B162" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -3801,7 +3842,7 @@
         <v>2</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -3809,10 +3850,10 @@
         <v>1</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -3820,7 +3861,7 @@
         <v>2</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -3828,7 +3869,7 @@
         <v>2</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -3836,7 +3877,7 @@
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -3844,10 +3885,10 @@
         <v>1</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3855,10 +3896,10 @@
         <v>1</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3866,10 +3907,10 @@
         <v>1</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3877,7 +3918,7 @@
         <v>2</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3885,7 +3926,7 @@
         <v>2</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3893,7 +3934,7 @@
         <v>2</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -3901,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -3909,7 +3950,7 @@
         <v>2</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3917,7 +3958,7 @@
         <v>2</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -3925,7 +3966,7 @@
         <v>2</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3933,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -3941,7 +3982,7 @@
         <v>2</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -3949,7 +3990,7 @@
         <v>2</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -3957,7 +3998,7 @@
         <v>2</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -3965,7 +4006,7 @@
         <v>2</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -3973,7 +4014,7 @@
         <v>2</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -3981,7 +4022,7 @@
         <v>2</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -3989,7 +4030,7 @@
         <v>2</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -3997,7 +4038,7 @@
         <v>2</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -4005,7 +4046,7 @@
         <v>2</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -4013,7 +4054,7 @@
         <v>2</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -4021,7 +4062,7 @@
         <v>2</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -4029,7 +4070,7 @@
         <v>2</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -4037,10 +4078,10 @@
         <v>1</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -4048,7 +4089,7 @@
         <v>2</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -4056,7 +4097,7 @@
         <v>2</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -4064,7 +4105,7 @@
         <v>2</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -4072,7 +4113,7 @@
         <v>2</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -4080,7 +4121,7 @@
         <v>2</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -4088,7 +4129,7 @@
         <v>2</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -4096,7 +4137,7 @@
         <v>2</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -4104,7 +4145,7 @@
         <v>2</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -4112,7 +4153,7 @@
         <v>2</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -4120,7 +4161,7 @@
         <v>2</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -4128,7 +4169,7 @@
         <v>2</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -4136,7 +4177,7 @@
         <v>2</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -4144,7 +4185,7 @@
         <v>2</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -4152,7 +4193,7 @@
         <v>2</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -4160,7 +4201,7 @@
         <v>2</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -4168,7 +4209,7 @@
         <v>2</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -4176,7 +4217,7 @@
         <v>2</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -4184,7 +4225,7 @@
         <v>2</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -4192,7 +4233,7 @@
         <v>2</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -4200,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -4208,7 +4249,7 @@
         <v>2</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -4216,7 +4257,7 @@
         <v>2</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -4224,10 +4265,10 @@
         <v>1</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -4235,7 +4276,7 @@
         <v>2</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -4243,10 +4284,10 @@
         <v>1</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -4254,7 +4295,7 @@
         <v>2</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C217" s="2"/>
     </row>
@@ -4263,7 +4304,7 @@
         <v>2</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -4271,7 +4312,7 @@
         <v>2</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -4279,7 +4320,7 @@
         <v>2</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -4287,7 +4328,7 @@
         <v>2</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -4295,7 +4336,7 @@
         <v>2</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -4303,7 +4344,7 @@
         <v>2</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -4311,7 +4352,7 @@
         <v>2</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -4319,7 +4360,7 @@
         <v>2</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -4327,7 +4368,7 @@
         <v>2</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -4335,10 +4376,10 @@
         <v>1</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -4346,7 +4387,7 @@
         <v>2</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -4354,7 +4395,7 @@
         <v>2</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -4362,7 +4403,7 @@
         <v>2</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -4370,7 +4411,7 @@
         <v>2</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -4378,7 +4419,7 @@
         <v>2</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -4386,7 +4427,7 @@
         <v>2</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -4394,7 +4435,7 @@
         <v>2</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -4402,7 +4443,7 @@
         <v>2</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -4410,7 +4451,7 @@
         <v>2</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -4418,7 +4459,7 @@
         <v>2</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -4426,7 +4467,7 @@
         <v>2</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -4434,7 +4475,7 @@
         <v>2</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -4442,7 +4483,7 @@
         <v>2</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -4450,7 +4491,7 @@
         <v>2</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -4458,10 +4499,10 @@
         <v>1</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -4469,7 +4510,7 @@
         <v>2</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -4477,7 +4518,7 @@
         <v>2</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -4485,7 +4526,7 @@
         <v>2</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -4493,7 +4534,7 @@
         <v>2</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -4501,7 +4542,7 @@
         <v>2</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -4509,7 +4550,7 @@
         <v>2</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -4517,7 +4558,7 @@
         <v>2</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -4525,7 +4566,7 @@
         <v>2</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -4533,7 +4574,7 @@
         <v>2</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -4541,7 +4582,7 @@
         <v>2</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -4549,10 +4590,10 @@
         <v>1</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -4560,7 +4601,7 @@
         <v>2</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -4568,7 +4609,7 @@
         <v>2</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -4576,7 +4617,7 @@
         <v>2</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -4584,7 +4625,7 @@
         <v>2</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -4592,7 +4633,7 @@
         <v>2</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -4600,7 +4641,7 @@
         <v>2</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -4608,7 +4649,7 @@
         <v>2</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -4616,10 +4657,10 @@
         <v>1</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -4627,7 +4668,7 @@
         <v>2</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -4635,7 +4676,7 @@
         <v>2</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -4643,10 +4684,10 @@
         <v>1</v>
       </c>
       <c r="B264" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C264" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -4654,7 +4695,7 @@
         <v>2</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -4662,7 +4703,7 @@
         <v>2</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -4670,7 +4711,7 @@
         <v>2</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -4678,7 +4719,7 @@
         <v>2</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -4686,7 +4727,7 @@
         <v>2</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -4694,7 +4735,7 @@
         <v>2</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -4702,7 +4743,7 @@
         <v>2</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -4710,7 +4751,7 @@
         <v>2</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -4718,7 +4759,7 @@
         <v>2</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -4726,7 +4767,7 @@
         <v>2</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -4734,7 +4775,7 @@
         <v>2</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -4742,7 +4783,7 @@
         <v>2</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -4750,7 +4791,7 @@
         <v>2</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -4758,7 +4799,7 @@
         <v>2</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -4766,7 +4807,7 @@
         <v>2</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -4774,7 +4815,7 @@
         <v>2</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -4782,7 +4823,7 @@
         <v>2</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -4790,7 +4831,7 @@
         <v>2</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -4798,7 +4839,7 @@
         <v>2</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -4806,7 +4847,7 @@
         <v>2</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -4814,7 +4855,7 @@
         <v>2</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -4822,10 +4863,10 @@
         <v>1</v>
       </c>
       <c r="B286" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C286" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -4833,7 +4874,7 @@
         <v>2</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -4841,7 +4882,7 @@
         <v>2</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -4849,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -4857,7 +4898,7 @@
         <v>2</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -4865,7 +4906,7 @@
         <v>2</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -4873,7 +4914,7 @@
         <v>2</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -4881,7 +4922,7 @@
         <v>2</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -4889,7 +4930,7 @@
         <v>2</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -4897,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -4905,7 +4946,7 @@
         <v>2</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -4913,7 +4954,7 @@
         <v>2</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -4921,7 +4962,7 @@
         <v>2</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -4929,7 +4970,7 @@
         <v>2</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -4937,7 +4978,7 @@
         <v>2</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -4945,7 +4986,7 @@
         <v>2</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -4953,10 +4994,10 @@
         <v>1</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -4964,7 +5005,7 @@
         <v>2</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -4972,7 +5013,7 @@
         <v>2</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -4980,7 +5021,7 @@
         <v>2</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -4988,7 +5029,7 @@
         <v>2</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -4996,7 +5037,7 @@
         <v>2</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -5004,7 +5045,7 @@
         <v>2</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -5012,7 +5053,7 @@
         <v>2</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -5020,7 +5061,7 @@
         <v>2</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -5028,7 +5069,7 @@
         <v>2</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -5036,7 +5077,7 @@
         <v>2</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -5044,7 +5085,7 @@
         <v>2</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -5052,7 +5093,7 @@
         <v>2</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -5060,7 +5101,7 @@
         <v>2</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -5068,7 +5109,7 @@
         <v>2</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -5076,7 +5117,7 @@
         <v>2</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -5084,7 +5125,7 @@
         <v>2</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -5092,7 +5133,7 @@
         <v>2</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -5100,7 +5141,7 @@
         <v>2</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -5108,7 +5149,7 @@
         <v>2</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -5116,7 +5157,7 @@
         <v>2</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -5124,7 +5165,7 @@
         <v>2</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -5132,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -5140,7 +5181,7 @@
         <v>2</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -5148,7 +5189,7 @@
         <v>2</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -5156,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -5164,7 +5205,7 @@
         <v>2</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -5172,7 +5213,7 @@
         <v>2</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -5180,7 +5221,7 @@
         <v>2</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -5188,7 +5229,7 @@
         <v>2</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -5196,7 +5237,7 @@
         <v>2</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -5204,7 +5245,7 @@
         <v>2</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -5212,7 +5253,7 @@
         <v>2</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -5220,7 +5261,7 @@
         <v>2</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -5228,7 +5269,7 @@
         <v>2</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -5236,7 +5277,7 @@
         <v>2</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -5244,7 +5285,7 @@
         <v>2</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -5252,7 +5293,7 @@
         <v>2</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -5260,7 +5301,7 @@
         <v>2</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -5268,7 +5309,7 @@
         <v>2</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -5276,7 +5317,7 @@
         <v>2</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -5284,10 +5325,10 @@
         <v>1</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -5295,7 +5336,7 @@
         <v>2</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -5303,7 +5344,7 @@
         <v>2</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -5311,7 +5352,7 @@
         <v>2</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -5319,7 +5360,7 @@
         <v>2</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -5327,7 +5368,7 @@
         <v>2</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -5335,7 +5376,7 @@
         <v>2</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -5343,7 +5384,7 @@
         <v>2</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -5351,7 +5392,7 @@
         <v>2</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -5359,7 +5400,7 @@
         <v>2</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -5367,7 +5408,7 @@
         <v>2</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -5375,7 +5416,7 @@
         <v>2</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -5383,7 +5424,7 @@
         <v>2</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -5391,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -5399,7 +5440,7 @@
         <v>2</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -5407,7 +5448,7 @@
         <v>2</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -5415,7 +5456,7 @@
         <v>2</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -5423,7 +5464,7 @@
         <v>2</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -5431,7 +5472,7 @@
         <v>2</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -5439,7 +5480,7 @@
         <v>2</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -5447,10 +5488,10 @@
         <v>1</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -5458,7 +5499,7 @@
         <v>2</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -5466,7 +5507,7 @@
         <v>2</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -5474,10 +5515,10 @@
         <v>2</v>
       </c>
       <c r="B366" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D366" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="D366" s="3" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -5485,7 +5526,7 @@
         <v>2</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -5493,7 +5534,7 @@
         <v>2</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -5501,7 +5542,7 @@
         <v>2</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -5509,7 +5550,7 @@
         <v>2</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -5517,7 +5558,7 @@
         <v>2</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -5525,7 +5566,7 @@
         <v>2</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -5533,7 +5574,7 @@
         <v>2</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -5541,7 +5582,7 @@
         <v>2</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -5549,7 +5590,7 @@
         <v>2</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -5557,7 +5598,7 @@
         <v>2</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -5565,7 +5606,7 @@
         <v>2</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -5573,7 +5614,7 @@
         <v>2</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -5581,7 +5622,7 @@
         <v>2</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -5589,7 +5630,7 @@
         <v>2</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -5597,7 +5638,7 @@
         <v>2</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -5605,7 +5646,7 @@
         <v>2</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -5613,10 +5654,10 @@
         <v>1</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -5624,7 +5665,7 @@
         <v>2</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -5632,7 +5673,7 @@
         <v>2</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -5640,7 +5681,7 @@
         <v>2</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -5648,10 +5689,10 @@
         <v>1</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -5659,7 +5700,7 @@
         <v>2</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -5667,7 +5708,7 @@
         <v>2</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -5675,7 +5716,7 @@
         <v>2</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -5683,7 +5724,7 @@
         <v>2</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -5691,13 +5732,13 @@
         <v>1</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C392" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D392" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="D392" s="3" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -5705,7 +5746,7 @@
         <v>2</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -5713,7 +5754,7 @@
         <v>2</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -5721,7 +5762,7 @@
         <v>2</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -5729,7 +5770,7 @@
         <v>2</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -5737,7 +5778,7 @@
         <v>2</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -5745,7 +5786,7 @@
         <v>2</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -5753,13 +5794,13 @@
         <v>1</v>
       </c>
       <c r="B399" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D399" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="C399" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D399" s="3" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -5767,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -5775,7 +5816,7 @@
         <v>2</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -5783,7 +5824,7 @@
         <v>2</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -5791,7 +5832,7 @@
         <v>2</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -5799,7 +5840,7 @@
         <v>2</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -5807,7 +5848,7 @@
         <v>2</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -5815,7 +5856,7 @@
         <v>2</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -5823,7 +5864,7 @@
         <v>2</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -5831,7 +5872,7 @@
         <v>2</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -5839,7 +5880,7 @@
         <v>2</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -5847,7 +5888,7 @@
         <v>2</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -5855,7 +5896,7 @@
         <v>2</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -5863,10 +5904,10 @@
         <v>1</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -5874,7 +5915,7 @@
         <v>2</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -5882,7 +5923,7 @@
         <v>2</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -5890,7 +5931,7 @@
         <v>2</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -5898,7 +5939,7 @@
         <v>2</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -5906,7 +5947,7 @@
         <v>2</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -5914,7 +5955,7 @@
         <v>2</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -5922,7 +5963,7 @@
         <v>2</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -5930,10 +5971,10 @@
         <v>1</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -5941,7 +5982,7 @@
         <v>2</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -5949,7 +5990,7 @@
         <v>2</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -5957,10 +5998,10 @@
         <v>1</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -5968,7 +6009,7 @@
         <v>2</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -5976,7 +6017,7 @@
         <v>2</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -5984,7 +6025,7 @@
         <v>2</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -5992,10 +6033,10 @@
         <v>1</v>
       </c>
       <c r="B427" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C427" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="C427" s="3" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -6003,11 +6044,11 @@
         <v>2</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C428" s="3"/>
       <c r="D428" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -6015,7 +6056,7 @@
         <v>2</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C429" s="3"/>
     </row>
@@ -6024,7 +6065,7 @@
         <v>2</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -6032,7 +6073,7 @@
         <v>2</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -6040,7 +6081,7 @@
         <v>2</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -6048,7 +6089,7 @@
         <v>2</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -6056,7 +6097,7 @@
         <v>2</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -6064,7 +6105,7 @@
         <v>2</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -6072,7 +6113,7 @@
         <v>2</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -6080,7 +6121,7 @@
         <v>2</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -6088,7 +6129,7 @@
         <v>2</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -6096,7 +6137,7 @@
         <v>2</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -6104,7 +6145,7 @@
         <v>2</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -6112,7 +6153,7 @@
         <v>2</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -6120,7 +6161,7 @@
         <v>2</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -6128,7 +6169,7 @@
         <v>2</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -6136,7 +6177,7 @@
         <v>2</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -6144,7 +6185,7 @@
         <v>2</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -6152,7 +6193,7 @@
         <v>2</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -6160,7 +6201,7 @@
         <v>2</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -6168,7 +6209,7 @@
         <v>2</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -6176,7 +6217,7 @@
         <v>2</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -6184,7 +6225,7 @@
         <v>2</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -6192,7 +6233,7 @@
         <v>2</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -6200,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -6208,7 +6249,7 @@
         <v>2</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -6216,7 +6257,7 @@
         <v>2</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -6224,7 +6265,7 @@
         <v>2</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -6232,10 +6273,10 @@
         <v>1</v>
       </c>
       <c r="B456" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C456" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="C456" s="3" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -6243,7 +6284,7 @@
         <v>2</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -6251,7 +6292,7 @@
         <v>2</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -6259,7 +6300,7 @@
         <v>2</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -6267,7 +6308,7 @@
         <v>2</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -6275,7 +6316,7 @@
         <v>2</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -6283,7 +6324,7 @@
         <v>2</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -6291,7 +6332,7 @@
         <v>2</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -6299,10 +6340,10 @@
         <v>1</v>
       </c>
       <c r="B464" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C464" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="C464" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -6310,10 +6351,10 @@
         <v>1</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -6321,7 +6362,7 @@
         <v>2</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -6329,7 +6370,7 @@
         <v>2</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -6337,10 +6378,10 @@
         <v>2</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -6348,7 +6389,7 @@
         <v>2</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -6356,7 +6397,7 @@
         <v>2</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -6364,7 +6405,7 @@
         <v>2</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -6372,7 +6413,7 @@
         <v>2</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -6380,7 +6421,7 @@
         <v>2</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -6388,7 +6429,7 @@
         <v>2</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -6396,7 +6437,7 @@
         <v>2</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -6404,7 +6445,7 @@
         <v>2</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -6412,7 +6453,7 @@
         <v>2</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -6420,7 +6461,7 @@
         <v>2</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -6428,7 +6469,7 @@
         <v>2</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -6436,7 +6477,7 @@
         <v>2</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -6444,7 +6485,7 @@
         <v>2</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -6452,7 +6493,7 @@
         <v>2</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -6460,7 +6501,7 @@
         <v>2</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -6468,7 +6509,7 @@
         <v>2</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -6476,10 +6517,10 @@
         <v>1</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -6487,7 +6528,7 @@
         <v>2</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -6495,7 +6536,7 @@
         <v>2</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -6503,7 +6544,7 @@
         <v>2</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -6511,7 +6552,7 @@
         <v>2</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -6519,7 +6560,7 @@
         <v>2</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -6527,7 +6568,7 @@
         <v>2</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -6535,7 +6576,7 @@
         <v>2</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -6543,7 +6584,7 @@
         <v>2</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -6551,7 +6592,7 @@
         <v>2</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -6559,7 +6600,7 @@
         <v>2</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -6567,7 +6608,7 @@
         <v>2</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -6575,10 +6616,10 @@
         <v>1</v>
       </c>
       <c r="B497" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C497" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="C497" s="3" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -6586,7 +6627,7 @@
         <v>2</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -6594,7 +6635,7 @@
         <v>2</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -6602,7 +6643,7 @@
         <v>2</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -6610,7 +6651,7 @@
         <v>2</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -6618,7 +6659,7 @@
         <v>2</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -6626,7 +6667,7 @@
         <v>2</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -6634,7 +6675,7 @@
         <v>2</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -6642,7 +6683,7 @@
         <v>2</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -6650,7 +6691,7 @@
         <v>2</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -6658,7 +6699,7 @@
         <v>2</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -6666,7 +6707,7 @@
         <v>2</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -6674,10 +6715,10 @@
         <v>1</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -6685,7 +6726,7 @@
         <v>2</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -6693,7 +6734,7 @@
         <v>2</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -6701,7 +6742,7 @@
         <v>2</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -6709,7 +6750,7 @@
         <v>2</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -6717,7 +6758,7 @@
         <v>2</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
@@ -6725,7 +6766,7 @@
         <v>2</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -6733,7 +6774,7 @@
         <v>2</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -6741,7 +6782,7 @@
         <v>2</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -6749,7 +6790,7 @@
         <v>2</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -6757,7 +6798,7 @@
         <v>2</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -6765,7 +6806,7 @@
         <v>2</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
@@ -6773,7 +6814,7 @@
         <v>2</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -6781,7 +6822,7 @@
         <v>2</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -6789,7 +6830,7 @@
         <v>2</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -6797,7 +6838,7 @@
         <v>2</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -6805,7 +6846,7 @@
         <v>2</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -6813,7 +6854,7 @@
         <v>2</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -6821,7 +6862,7 @@
         <v>2</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -6829,71 +6870,146 @@
         <v>2</v>
       </c>
       <c r="B528" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" s="1">
+        <v>2</v>
+      </c>
+      <c r="B529" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529" s="1">
-        <v>2</v>
-      </c>
-      <c r="B529" s="1" t="s">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" s="1">
+        <v>2</v>
+      </c>
+      <c r="B530" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530" s="1">
-        <v>2</v>
-      </c>
-      <c r="B530" s="1" t="s">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" s="1">
+        <v>2</v>
+      </c>
+      <c r="B531" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531" s="1">
-        <v>2</v>
-      </c>
-      <c r="B531" s="1" t="s">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532" s="1">
+        <v>2</v>
+      </c>
+      <c r="B532" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A532" s="1">
-        <v>2</v>
-      </c>
-      <c r="B532" s="1" t="s">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" s="1">
+        <v>2</v>
+      </c>
+      <c r="B533" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533" s="1">
-        <v>2</v>
-      </c>
-      <c r="B533" s="1" t="s">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" s="1">
+        <v>2</v>
+      </c>
+      <c r="B534" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534" s="1">
-        <v>2</v>
-      </c>
-      <c r="B534" s="1" t="s">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" s="1">
+        <v>2</v>
+      </c>
+      <c r="B535" s="1" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535" s="1">
-        <v>2</v>
-      </c>
-      <c r="B535" s="1" t="s">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" s="1">
+        <v>2</v>
+      </c>
+      <c r="B536" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536" s="1">
-        <v>2</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>579</v>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" s="1">
+        <v>2</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" s="1">
+        <v>2</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" s="1">
+        <v>2</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" s="1">
+        <v>2</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" s="1">
+        <v>2</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" s="1">
+        <v>2</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" s="1">
+        <v>2</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" s="1">
+        <v>2</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" s="1">
+        <v>2</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269F04D8-F596-496A-BF00-B8BE09FA7437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A44F98-AA8E-4582-8376-5E6D1CD6B645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="594">
   <si>
     <t>group</t>
   </si>
@@ -2159,6 +2159,21 @@
   </si>
   <si>
     <t>#ffccff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪拜小泥人</t>
+  </si>
+  <si>
+    <t>各自安好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多多支持国产游戏加油</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2499,10 +2514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D545"/>
+  <dimension ref="A1:D548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A526" workbookViewId="0">
-      <selection activeCell="F545" sqref="F545"/>
+    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
+      <selection activeCell="B546" sqref="B546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7004,12 +7019,39 @@
         <v>587</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>2</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>588</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1">
+        <v>2</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1">
+        <v>2</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1">
+        <v>1</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A44F98-AA8E-4582-8376-5E6D1CD6B645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDD7213-1A72-4134-8200-3C59097A0BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="597">
   <si>
     <t>group</t>
   </si>
@@ -2174,6 +2174,18 @@
   </si>
   <si>
     <t>多多支持国产游戏加油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DialEctic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请让小翼在学会儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼饼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2514,10 +2526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D548"/>
+  <dimension ref="A1:D551"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="B546" sqref="B546"/>
+      <selection activeCell="D554" sqref="D554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7054,6 +7066,30 @@
         <v>593</v>
       </c>
     </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1">
+        <v>2</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1">
+        <v>2</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1">
+        <v>2</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDD7213-1A72-4134-8200-3C59097A0BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28E9597-7898-46D9-B4CA-C34F0A24E7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="600">
   <si>
     <t>group</t>
   </si>
@@ -2186,6 +2186,18 @@
   </si>
   <si>
     <t>鱼饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不吃香菜不订断更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kxu3nive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2526,10 +2538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D551"/>
+  <dimension ref="A1:D554"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="D554" sqref="D554"/>
+      <selection activeCell="C553" sqref="C553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7090,6 +7102,30 @@
         <v>596</v>
       </c>
     </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
+        <v>2</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1">
+        <v>2</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
+        <v>2</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28E9597-7898-46D9-B4CA-C34F0A24E7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432123CF-23A5-4A7E-BD8A-CE4E8D292F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="606">
   <si>
     <t>group</t>
   </si>
@@ -2198,6 +2198,30 @@
   </si>
   <si>
     <t>Kxu3nive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罡风甚是喧嚣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liangbi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪莉丨星凌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>披坚执锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2538,10 +2562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D554"/>
+  <dimension ref="A1:D560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="C553" sqref="C553"/>
+    <sheetView tabSelected="1" topLeftCell="A535" workbookViewId="0">
+      <selection activeCell="A552" sqref="A552:A560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7126,6 +7150,54 @@
         <v>599</v>
       </c>
     </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1">
+        <v>2</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
+        <v>2</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
+        <v>2</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
+        <v>2</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1">
+        <v>2</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
+        <v>2</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432123CF-23A5-4A7E-BD8A-CE4E8D292F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B64A13-12E3-493E-94B9-07F771AB08AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="609">
   <si>
     <t>group</t>
   </si>
@@ -2222,6 +2222,18 @@
   </si>
   <si>
     <t>披坚执锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻麓-Cervoserĉo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是scp-114514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xzny</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2562,10 +2574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D560"/>
+  <dimension ref="A1:D563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A535" workbookViewId="0">
-      <selection activeCell="A552" sqref="A552:A560"/>
+    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="C561" sqref="C561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7198,6 +7210,30 @@
         <v>605</v>
       </c>
     </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="1">
+        <v>2</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
+        <v>2</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="1">
+        <v>2</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B64A13-12E3-493E-94B9-07F771AB08AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAEA413-46E9-4F4F-B179-333B71271E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="611">
   <si>
     <t>group</t>
   </si>
@@ -2234,6 +2234,14 @@
   </si>
   <si>
     <t>xzny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼鳃q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星幻Larry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2574,7 +2582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D563"/>
+  <dimension ref="A1:D565"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
       <selection activeCell="C561" sqref="C561"/>
@@ -7234,6 +7242,22 @@
         <v>608</v>
       </c>
     </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="1">
+        <v>2</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="1">
+        <v>2</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAEA413-46E9-4F4F-B179-333B71271E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805E3EB8-72B7-4FC2-8436-380961389F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="615">
   <si>
     <t>group</t>
   </si>
@@ -2242,6 +2242,22 @@
   </si>
   <si>
     <t>星幻Larry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小狐狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天门仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oscar you</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2582,10 +2598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D565"/>
+  <dimension ref="A1:D569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="C561" sqref="C561"/>
+    <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
+      <selection activeCell="C566" sqref="C566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7258,6 +7274,38 @@
         <v>610</v>
       </c>
     </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="1">
+        <v>2</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" s="1">
+        <v>2</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" s="1">
+        <v>2</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" s="1">
+        <v>2</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805E3EB8-72B7-4FC2-8436-380961389F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73F3AB4-4D83-4491-8D42-7B099DC86925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="619">
   <si>
     <t>group</t>
   </si>
@@ -2258,6 +2258,22 @@
   </si>
   <si>
     <t>Oscar you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤丸嘉人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦絮Sigrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>px5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eynaitty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2598,10 +2614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D569"/>
+  <dimension ref="A1:D573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
-      <selection activeCell="C566" sqref="C566"/>
+    <sheetView tabSelected="1" topLeftCell="A550" workbookViewId="0">
+      <selection activeCell="C568" sqref="C568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7306,6 +7322,38 @@
         <v>614</v>
       </c>
     </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" s="1">
+        <v>2</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" s="1">
+        <v>2</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" s="1">
+        <v>2</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" s="1">
+        <v>2</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73F3AB4-4D83-4491-8D42-7B099DC86925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CC591E-79D4-4CF3-9F13-807473B1F7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="622">
   <si>
     <t>group</t>
   </si>
@@ -2274,6 +2274,18 @@
   </si>
   <si>
     <t>Eynaitty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我试着感受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硫酸铜水合物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力的水哥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2614,10 +2626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D573"/>
+  <dimension ref="A1:D576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A550" workbookViewId="0">
-      <selection activeCell="C568" sqref="C568"/>
+    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
+      <selection activeCell="C579" sqref="C579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7354,6 +7366,30 @@
         <v>618</v>
       </c>
     </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" s="1">
+        <v>2</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="1">
+        <v>2</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="1">
+        <v>2</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CC591E-79D4-4CF3-9F13-807473B1F7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6793814F-8618-41CF-93EA-37E15CFF1506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="623">
   <si>
     <t>group</t>
   </si>
@@ -2286,6 +2286,10 @@
   </si>
   <si>
     <t>努力的水哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看我真挚的笑容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2626,10 +2630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D576"/>
+  <dimension ref="A1:D577"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
-      <selection activeCell="C579" sqref="C579"/>
+      <selection activeCell="C578" sqref="C578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7390,6 +7394,14 @@
         <v>621</v>
       </c>
     </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="1">
+        <v>2</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6793814F-8618-41CF-93EA-37E15CFF1506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B091A6-5178-4B9F-8DA4-4F32E1EBDD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="626">
   <si>
     <t>group</t>
   </si>
@@ -2290,6 +2290,18 @@
   </si>
   <si>
     <t>看我真挚的笑容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seka_L6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kotoha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达可达可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2630,10 +2642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D577"/>
+  <dimension ref="A1:D580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
-      <selection activeCell="C578" sqref="C578"/>
+    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
+      <selection activeCell="C583" sqref="C583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7402,6 +7414,30 @@
         <v>622</v>
       </c>
     </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" s="1">
+        <v>2</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" s="1">
+        <v>2</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" s="1">
+        <v>2</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B091A6-5178-4B9F-8DA4-4F32E1EBDD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B1C69D-D2D7-45EB-988B-C3E1F34DC287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="628">
   <si>
     <t>group</t>
   </si>
@@ -2302,6 +2302,14 @@
   </si>
   <si>
     <t>达可达可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚沫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jjxxa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2642,10 +2650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D580"/>
+  <dimension ref="A1:D582"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
-      <selection activeCell="C583" sqref="C583"/>
+      <selection activeCell="C582" sqref="C582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7438,6 +7446,22 @@
         <v>625</v>
       </c>
     </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" s="1">
+        <v>2</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" s="1">
+        <v>2</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B1C69D-D2D7-45EB-988B-C3E1F34DC287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D11C515-B6CA-4513-82CF-8C2B09114B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="634">
   <si>
     <t>group</t>
   </si>
@@ -2310,6 +2310,30 @@
   </si>
   <si>
     <t>Jjxxa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妄人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pythagodzilla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太白山野猪之光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劝飞光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛定谔的猫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2650,10 +2674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D582"/>
+  <dimension ref="A1:D588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
-      <selection activeCell="C582" sqref="C582"/>
+    <sheetView tabSelected="1" topLeftCell="A565" workbookViewId="0">
+      <selection activeCell="C585" sqref="C585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7462,6 +7486,54 @@
         <v>627</v>
       </c>
     </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" s="1">
+        <v>2</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" s="1">
+        <v>2</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" s="1">
+        <v>2</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" s="1">
+        <v>2</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" s="1">
+        <v>2</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" s="1">
+        <v>2</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D11C515-B6CA-4513-82CF-8C2B09114B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B2D9AA-49C2-411D-A125-31DB3E604D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="638">
   <si>
     <t>group</t>
   </si>
@@ -2334,6 +2334,22 @@
   </si>
   <si>
     <t>薛定谔的猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我愚蠢的欧豆豆哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙二柱子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皓月长歌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2674,10 +2690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D588"/>
+  <dimension ref="A1:D592"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A565" workbookViewId="0">
-      <selection activeCell="C585" sqref="C585"/>
+      <selection activeCell="C587" sqref="C587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7534,6 +7550,38 @@
         <v>633</v>
       </c>
     </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" s="1">
+        <v>2</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" s="1">
+        <v>2</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" s="1">
+        <v>2</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" s="1">
+        <v>2</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B2D9AA-49C2-411D-A125-31DB3E604D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB477C53-1677-45D5-ABDD-DEBE5E9EB4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="639">
   <si>
     <t>group</t>
   </si>
@@ -2350,6 +2350,10 @@
   </si>
   <si>
     <t>皓月长歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逸云</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2690,10 +2694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D592"/>
+  <dimension ref="A1:D593"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A565" workbookViewId="0">
-      <selection activeCell="C587" sqref="C587"/>
+      <selection activeCell="E570" sqref="E570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7582,6 +7586,14 @@
         <v>637</v>
       </c>
     </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" s="1">
+        <v>2</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB477C53-1677-45D5-ABDD-DEBE5E9EB4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA248E73-5FD2-4F82-9E7A-851ABEF592C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="643">
   <si>
     <t>group</t>
   </si>
@@ -2354,6 +2354,22 @@
   </si>
   <si>
     <t>逸云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那么可爱当然是__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ADFF2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉然我真的好喜欢你啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楪之舞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2694,10 +2710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D593"/>
+  <dimension ref="A1:D596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A565" workbookViewId="0">
-      <selection activeCell="E570" sqref="E570"/>
+    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
+      <selection activeCell="C600" sqref="C600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7586,12 +7602,39 @@
         <v>637</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>2</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>638</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" s="1">
+        <v>2</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D594" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" s="1">
+        <v>2</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" s="1">
+        <v>2</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>642</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA248E73-5FD2-4F82-9E7A-851ABEF592C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDC98E5-7C5A-473A-93AF-B009ADA49792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="647">
   <si>
     <t>group</t>
   </si>
@@ -2370,6 +2370,22 @@
   </si>
   <si>
     <t>楪之舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山中迷路的小勘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月幵大fw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱saber与魔人archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路痴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2710,10 +2726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D596"/>
+  <dimension ref="A1:D600"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="C600" sqref="C600"/>
+      <selection activeCell="C595" sqref="C595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7637,6 +7653,38 @@
         <v>642</v>
       </c>
     </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597" s="1">
+        <v>2</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598" s="1">
+        <v>2</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" s="1">
+        <v>2</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600" s="1">
+        <v>2</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDC98E5-7C5A-473A-93AF-B009ADA49792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C435FE91-5ADE-49EC-AEF5-BCA505F1FEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="650">
   <si>
     <t>group</t>
   </si>
@@ -2386,6 +2386,18 @@
   </si>
   <si>
     <t>路痴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又找不到了qwq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢你们为世界带来一些欢乐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2726,10 +2738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D600"/>
+  <dimension ref="A1:D602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="C595" sqref="C595"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3542,10 +3554,13 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>102</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -7683,6 +7698,22 @@
       </c>
       <c r="B600" s="1" t="s">
         <v>646</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601" s="1">
+        <v>2</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602" s="1">
+        <v>2</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C435FE91-5ADE-49EC-AEF5-BCA505F1FEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AB5102-D93B-465A-B1B4-B83A045F9E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="653">
   <si>
     <t>group</t>
   </si>
@@ -2398,6 +2398,18 @@
   </si>
   <si>
     <t>感谢你们为世界带来一些欢乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearMoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳烤的咕咕蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞠培雯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2738,10 +2750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D602"/>
+  <dimension ref="A1:D605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A585" workbookViewId="0">
+      <selection activeCell="C608" sqref="C608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7716,6 +7728,30 @@
         <v>648</v>
       </c>
     </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603" s="1">
+        <v>2</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604" s="1">
+        <v>2</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605" s="1">
+        <v>2</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AB5102-D93B-465A-B1B4-B83A045F9E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBF7B80-CA15-4BE4-92B0-2F5AFBC1A615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="655">
   <si>
     <t>group</t>
   </si>
@@ -2410,6 +2410,14 @@
   </si>
   <si>
     <t>鞠培雯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要内卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对不是楠桐的仓妖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2750,10 +2758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D605"/>
+  <dimension ref="A1:D607"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A585" workbookViewId="0">
-      <selection activeCell="C608" sqref="C608"/>
+      <selection activeCell="C606" sqref="C606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7752,6 +7760,22 @@
         <v>652</v>
       </c>
     </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606" s="1">
+        <v>2</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607" s="1">
+        <v>2</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBF7B80-CA15-4BE4-92B0-2F5AFBC1A615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777C8019-D103-466E-B16E-573F84AEC710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="665">
   <si>
     <t>group</t>
   </si>
@@ -2418,6 +2418,46 @@
   </si>
   <si>
     <t>绝对不是楠桐的仓妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无川手页的说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>￼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靈間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑牙牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨曦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_fds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.71 8281 8284 5904</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2758,21 +2798,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D607"/>
+  <dimension ref="A1:D615"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A585" workbookViewId="0">
-      <selection activeCell="C606" sqref="C606"/>
+      <selection activeCell="J602" sqref="J602"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.21875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.25" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2786,7 +2826,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2797,7 +2837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2805,7 +2845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2813,7 +2853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2821,7 +2861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -2829,7 +2869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -2837,7 +2877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -2845,7 +2885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -2853,7 +2893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -2861,7 +2901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -2869,7 +2909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -2877,7 +2917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -2885,7 +2925,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -2896,7 +2936,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -2904,7 +2944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -2912,7 +2952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -2920,7 +2960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -2928,7 +2968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -2939,7 +2979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -2947,7 +2987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -2955,7 +2995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -2963,7 +3003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -2971,7 +3011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -2979,7 +3019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -2987,7 +3027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -2995,7 +3035,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -3003,7 +3043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -3011,7 +3051,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -3022,7 +3062,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -3030,7 +3070,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -3038,7 +3078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -3046,7 +3086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -3054,7 +3094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -3062,7 +3102,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -3070,7 +3110,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -3078,7 +3118,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -3086,7 +3126,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -3094,7 +3134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -3102,7 +3142,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -3110,7 +3150,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -3118,7 +3158,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -3126,7 +3166,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -3134,7 +3174,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -3142,7 +3182,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -3150,7 +3190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -3158,7 +3198,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -3166,7 +3206,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -3174,7 +3214,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -3182,7 +3222,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -3190,7 +3230,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -3198,7 +3238,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -3206,7 +3246,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -3214,7 +3254,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -3222,7 +3262,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -3230,7 +3270,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -3238,7 +3278,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -3246,7 +3286,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -3254,7 +3294,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -3262,7 +3302,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -3270,7 +3310,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -3278,7 +3318,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -3286,7 +3326,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -3294,7 +3334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -3302,7 +3342,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -3310,7 +3350,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>2</v>
       </c>
@@ -3318,7 +3358,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -3326,7 +3366,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -3334,7 +3374,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -3342,7 +3382,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -3350,7 +3390,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -3358,7 +3398,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -3366,7 +3406,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>2</v>
       </c>
@@ -3374,7 +3414,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -3382,7 +3422,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>2</v>
       </c>
@@ -3390,7 +3430,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -3401,7 +3441,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>2</v>
       </c>
@@ -3409,7 +3449,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>2</v>
       </c>
@@ -3417,7 +3457,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>2</v>
       </c>
@@ -3425,7 +3465,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>2</v>
       </c>
@@ -3433,7 +3473,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>2</v>
       </c>
@@ -3441,7 +3481,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -3452,7 +3492,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>2</v>
       </c>
@@ -3460,7 +3500,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>2</v>
       </c>
@@ -3468,7 +3508,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>2</v>
       </c>
@@ -3476,7 +3516,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>2</v>
       </c>
@@ -3484,7 +3524,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>2</v>
       </c>
@@ -3492,7 +3532,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>2</v>
       </c>
@@ -3500,7 +3540,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>2</v>
       </c>
@@ -3508,7 +3548,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>2</v>
       </c>
@@ -3516,7 +3556,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>2</v>
       </c>
@@ -3524,7 +3564,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>2</v>
       </c>
@@ -3532,7 +3572,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>2</v>
       </c>
@@ -3540,7 +3580,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>2</v>
       </c>
@@ -3548,7 +3588,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>2</v>
       </c>
@@ -3556,7 +3596,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>2</v>
       </c>
@@ -3564,7 +3604,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>2</v>
       </c>
@@ -3572,7 +3612,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>1</v>
       </c>
@@ -3583,7 +3623,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>2</v>
       </c>
@@ -3591,7 +3631,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -3599,7 +3639,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>2</v>
       </c>
@@ -3607,7 +3647,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>2</v>
       </c>
@@ -3615,7 +3655,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>2</v>
       </c>
@@ -3623,7 +3663,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>2</v>
       </c>
@@ -3631,7 +3671,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>2</v>
       </c>
@@ -3639,7 +3679,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>2</v>
       </c>
@@ -3647,7 +3687,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>2</v>
       </c>
@@ -3655,7 +3695,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>2</v>
       </c>
@@ -3663,7 +3703,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>2</v>
       </c>
@@ -3671,7 +3711,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>1</v>
       </c>
@@ -3682,7 +3722,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>1</v>
       </c>
@@ -3693,7 +3733,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>2</v>
       </c>
@@ -3701,7 +3741,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>2</v>
       </c>
@@ -3709,7 +3749,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>2</v>
       </c>
@@ -3717,7 +3757,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>2</v>
       </c>
@@ -3725,7 +3765,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>2</v>
       </c>
@@ -3733,7 +3773,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>2</v>
       </c>
@@ -3741,7 +3781,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>2</v>
       </c>
@@ -3749,7 +3789,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>2</v>
       </c>
@@ -3757,7 +3797,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>2</v>
       </c>
@@ -3765,7 +3805,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>1</v>
       </c>
@@ -3776,7 +3816,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>2</v>
       </c>
@@ -3784,7 +3824,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -3792,7 +3832,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -3800,7 +3840,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>2</v>
       </c>
@@ -3808,7 +3848,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>2</v>
       </c>
@@ -3816,7 +3856,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -3824,7 +3864,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>2</v>
       </c>
@@ -3832,7 +3872,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>2</v>
       </c>
@@ -3840,7 +3880,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>2</v>
       </c>
@@ -3848,7 +3888,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>2</v>
       </c>
@@ -3856,7 +3896,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>2</v>
       </c>
@@ -3864,7 +3904,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>2</v>
       </c>
@@ -3872,7 +3912,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>2</v>
       </c>
@@ -3880,7 +3920,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>2</v>
       </c>
@@ -3888,7 +3928,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>2</v>
       </c>
@@ -3896,7 +3936,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>2</v>
       </c>
@@ -3904,7 +3944,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>2</v>
       </c>
@@ -3912,7 +3952,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>2</v>
       </c>
@@ -3920,7 +3960,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>2</v>
       </c>
@@ -3928,7 +3968,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>2</v>
       </c>
@@ -3936,7 +3976,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>1</v>
       </c>
@@ -3947,7 +3987,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>2</v>
       </c>
@@ -3955,7 +3995,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>2</v>
       </c>
@@ -3963,7 +4003,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>2</v>
       </c>
@@ -3971,7 +4011,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>2</v>
       </c>
@@ -3979,7 +4019,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>2</v>
       </c>
@@ -3987,7 +4027,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>2</v>
       </c>
@@ -3995,7 +4035,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>2</v>
       </c>
@@ -4003,7 +4043,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>2</v>
       </c>
@@ -4011,7 +4051,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>2</v>
       </c>
@@ -4019,7 +4059,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>2</v>
       </c>
@@ -4027,7 +4067,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>2</v>
       </c>
@@ -4035,7 +4075,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>2</v>
       </c>
@@ -4043,7 +4083,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>2</v>
       </c>
@@ -4051,7 +4091,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>2</v>
       </c>
@@ -4059,7 +4099,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>2</v>
       </c>
@@ -4067,7 +4107,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>2</v>
       </c>
@@ -4075,7 +4115,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>2</v>
       </c>
@@ -4083,7 +4123,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>2</v>
       </c>
@@ -4091,7 +4131,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>2</v>
       </c>
@@ -4099,7 +4139,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>2</v>
       </c>
@@ -4107,7 +4147,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>1</v>
       </c>
@@ -4118,7 +4158,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>2</v>
       </c>
@@ -4126,7 +4166,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>2</v>
       </c>
@@ -4134,7 +4174,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>2</v>
       </c>
@@ -4142,7 +4182,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>1</v>
       </c>
@@ -4153,7 +4193,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>1</v>
       </c>
@@ -4164,7 +4204,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>1</v>
       </c>
@@ -4175,7 +4215,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>2</v>
       </c>
@@ -4183,7 +4223,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>2</v>
       </c>
@@ -4191,7 +4231,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>2</v>
       </c>
@@ -4199,7 +4239,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>2</v>
       </c>
@@ -4207,7 +4247,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>2</v>
       </c>
@@ -4215,7 +4255,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>2</v>
       </c>
@@ -4223,7 +4263,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>2</v>
       </c>
@@ -4231,7 +4271,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>2</v>
       </c>
@@ -4239,7 +4279,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>2</v>
       </c>
@@ -4247,7 +4287,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>2</v>
       </c>
@@ -4255,7 +4295,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>2</v>
       </c>
@@ -4263,7 +4303,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>2</v>
       </c>
@@ -4271,7 +4311,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>2</v>
       </c>
@@ -4279,7 +4319,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>2</v>
       </c>
@@ -4287,7 +4327,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>2</v>
       </c>
@@ -4295,7 +4335,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>2</v>
       </c>
@@ -4303,7 +4343,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>2</v>
       </c>
@@ -4311,7 +4351,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>2</v>
       </c>
@@ -4319,7 +4359,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>2</v>
       </c>
@@ -4327,7 +4367,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>2</v>
       </c>
@@ -4335,7 +4375,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>1</v>
       </c>
@@ -4346,7 +4386,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>2</v>
       </c>
@@ -4354,7 +4394,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>2</v>
       </c>
@@ -4362,7 +4402,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>2</v>
       </c>
@@ -4370,7 +4410,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>2</v>
       </c>
@@ -4378,7 +4418,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>2</v>
       </c>
@@ -4386,7 +4426,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>2</v>
       </c>
@@ -4394,7 +4434,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>2</v>
       </c>
@@ -4402,7 +4442,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>2</v>
       </c>
@@ -4410,7 +4450,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>2</v>
       </c>
@@ -4418,7 +4458,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>2</v>
       </c>
@@ -4426,7 +4466,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>2</v>
       </c>
@@ -4434,7 +4474,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>2</v>
       </c>
@@ -4442,7 +4482,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>2</v>
       </c>
@@ -4450,7 +4490,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>2</v>
       </c>
@@ -4458,7 +4498,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>2</v>
       </c>
@@ -4466,7 +4506,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>2</v>
       </c>
@@ -4474,7 +4514,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>2</v>
       </c>
@@ -4482,7 +4522,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>2</v>
       </c>
@@ -4490,7 +4530,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>2</v>
       </c>
@@ -4498,7 +4538,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>2</v>
       </c>
@@ -4506,7 +4546,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>2</v>
       </c>
@@ -4514,7 +4554,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>2</v>
       </c>
@@ -4522,7 +4562,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>1</v>
       </c>
@@ -4533,7 +4573,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>2</v>
       </c>
@@ -4541,7 +4581,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>1</v>
       </c>
@@ -4552,7 +4592,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>2</v>
       </c>
@@ -4561,7 +4601,7 @@
       </c>
       <c r="C217" s="2"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>2</v>
       </c>
@@ -4569,7 +4609,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>2</v>
       </c>
@@ -4577,7 +4617,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>2</v>
       </c>
@@ -4585,7 +4625,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>2</v>
       </c>
@@ -4593,7 +4633,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>2</v>
       </c>
@@ -4601,7 +4641,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>2</v>
       </c>
@@ -4609,7 +4649,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>2</v>
       </c>
@@ -4617,7 +4657,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>2</v>
       </c>
@@ -4625,7 +4665,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>2</v>
       </c>
@@ -4633,7 +4673,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>1</v>
       </c>
@@ -4644,7 +4684,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>2</v>
       </c>
@@ -4652,7 +4692,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>2</v>
       </c>
@@ -4660,7 +4700,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>2</v>
       </c>
@@ -4668,7 +4708,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>2</v>
       </c>
@@ -4676,7 +4716,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>2</v>
       </c>
@@ -4684,7 +4724,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>2</v>
       </c>
@@ -4692,7 +4732,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>2</v>
       </c>
@@ -4700,7 +4740,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>2</v>
       </c>
@@ -4708,7 +4748,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>2</v>
       </c>
@@ -4716,7 +4756,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>2</v>
       </c>
@@ -4724,7 +4764,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>2</v>
       </c>
@@ -4732,7 +4772,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>2</v>
       </c>
@@ -4740,7 +4780,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>2</v>
       </c>
@@ -4748,7 +4788,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>2</v>
       </c>
@@ -4756,7 +4796,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>1</v>
       </c>
@@ -4767,7 +4807,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>2</v>
       </c>
@@ -4775,7 +4815,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>2</v>
       </c>
@@ -4783,7 +4823,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>2</v>
       </c>
@@ -4791,7 +4831,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>2</v>
       </c>
@@ -4799,7 +4839,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>2</v>
       </c>
@@ -4807,7 +4847,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>2</v>
       </c>
@@ -4815,7 +4855,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>2</v>
       </c>
@@ -4823,7 +4863,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>2</v>
       </c>
@@ -4831,7 +4871,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>2</v>
       </c>
@@ -4839,7 +4879,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>2</v>
       </c>
@@ -4847,7 +4887,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>1</v>
       </c>
@@ -4858,7 +4898,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>2</v>
       </c>
@@ -4866,7 +4906,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>2</v>
       </c>
@@ -4874,7 +4914,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>2</v>
       </c>
@@ -4882,7 +4922,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>2</v>
       </c>
@@ -4890,7 +4930,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>2</v>
       </c>
@@ -4898,7 +4938,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>2</v>
       </c>
@@ -4906,7 +4946,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>2</v>
       </c>
@@ -4914,7 +4954,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>1</v>
       </c>
@@ -4925,7 +4965,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>2</v>
       </c>
@@ -4933,7 +4973,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>2</v>
       </c>
@@ -4941,7 +4981,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>1</v>
       </c>
@@ -4952,7 +4992,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>2</v>
       </c>
@@ -4960,7 +5000,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>2</v>
       </c>
@@ -4968,7 +5008,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>2</v>
       </c>
@@ -4976,7 +5016,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>2</v>
       </c>
@@ -4984,7 +5024,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>2</v>
       </c>
@@ -4992,7 +5032,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>2</v>
       </c>
@@ -5000,7 +5040,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>2</v>
       </c>
@@ -5008,7 +5048,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>2</v>
       </c>
@@ -5016,7 +5056,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>2</v>
       </c>
@@ -5024,7 +5064,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>2</v>
       </c>
@@ -5032,7 +5072,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>2</v>
       </c>
@@ -5040,7 +5080,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>2</v>
       </c>
@@ -5048,7 +5088,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>2</v>
       </c>
@@ -5056,7 +5096,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>2</v>
       </c>
@@ -5064,7 +5104,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>2</v>
       </c>
@@ -5072,7 +5112,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>2</v>
       </c>
@@ -5080,7 +5120,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>2</v>
       </c>
@@ -5088,7 +5128,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>2</v>
       </c>
@@ -5096,7 +5136,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>2</v>
       </c>
@@ -5104,7 +5144,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>2</v>
       </c>
@@ -5112,7 +5152,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>2</v>
       </c>
@@ -5120,7 +5160,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>1</v>
       </c>
@@ -5131,7 +5171,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>2</v>
       </c>
@@ -5139,7 +5179,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>2</v>
       </c>
@@ -5147,7 +5187,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>2</v>
       </c>
@@ -5155,7 +5195,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>2</v>
       </c>
@@ -5163,7 +5203,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>2</v>
       </c>
@@ -5171,7 +5211,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>2</v>
       </c>
@@ -5179,7 +5219,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>2</v>
       </c>
@@ -5187,7 +5227,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>2</v>
       </c>
@@ -5195,7 +5235,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>2</v>
       </c>
@@ -5203,7 +5243,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>2</v>
       </c>
@@ -5211,7 +5251,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>2</v>
       </c>
@@ -5219,7 +5259,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>2</v>
       </c>
@@ -5227,7 +5267,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>2</v>
       </c>
@@ -5235,7 +5275,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>2</v>
       </c>
@@ -5243,7 +5283,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>2</v>
       </c>
@@ -5251,7 +5291,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>1</v>
       </c>
@@ -5262,7 +5302,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>2</v>
       </c>
@@ -5270,7 +5310,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>2</v>
       </c>
@@ -5278,7 +5318,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>2</v>
       </c>
@@ -5286,7 +5326,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>2</v>
       </c>
@@ -5294,7 +5334,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>2</v>
       </c>
@@ -5302,7 +5342,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>2</v>
       </c>
@@ -5310,7 +5350,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>2</v>
       </c>
@@ -5318,7 +5358,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>2</v>
       </c>
@@ -5326,7 +5366,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>2</v>
       </c>
@@ -5334,7 +5374,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>2</v>
       </c>
@@ -5342,7 +5382,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>2</v>
       </c>
@@ -5350,7 +5390,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>2</v>
       </c>
@@ -5358,7 +5398,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>2</v>
       </c>
@@ -5366,7 +5406,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>2</v>
       </c>
@@ -5374,7 +5414,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>2</v>
       </c>
@@ -5382,7 +5422,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>2</v>
       </c>
@@ -5390,7 +5430,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>2</v>
       </c>
@@ -5398,7 +5438,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>2</v>
       </c>
@@ -5406,7 +5446,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>2</v>
       </c>
@@ -5414,7 +5454,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>2</v>
       </c>
@@ -5422,7 +5462,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>2</v>
       </c>
@@ -5430,7 +5470,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>2</v>
       </c>
@@ -5438,7 +5478,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>2</v>
       </c>
@@ -5446,7 +5486,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>2</v>
       </c>
@@ -5454,7 +5494,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>2</v>
       </c>
@@ -5462,7 +5502,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>2</v>
       </c>
@@ -5470,7 +5510,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>2</v>
       </c>
@@ -5478,7 +5518,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>2</v>
       </c>
@@ -5486,7 +5526,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>2</v>
       </c>
@@ -5494,7 +5534,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>2</v>
       </c>
@@ -5502,7 +5542,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>2</v>
       </c>
@@ -5510,7 +5550,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>2</v>
       </c>
@@ -5518,7 +5558,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>2</v>
       </c>
@@ -5526,7 +5566,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>2</v>
       </c>
@@ -5534,7 +5574,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>2</v>
       </c>
@@ -5542,7 +5582,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>2</v>
       </c>
@@ -5550,7 +5590,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>2</v>
       </c>
@@ -5558,7 +5598,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>2</v>
       </c>
@@ -5566,7 +5606,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>2</v>
       </c>
@@ -5574,7 +5614,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>2</v>
       </c>
@@ -5582,7 +5622,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>1</v>
       </c>
@@ -5593,7 +5633,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>2</v>
       </c>
@@ -5601,7 +5641,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>2</v>
       </c>
@@ -5609,7 +5649,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>2</v>
       </c>
@@ -5617,7 +5657,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>2</v>
       </c>
@@ -5625,7 +5665,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>2</v>
       </c>
@@ -5633,7 +5673,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>2</v>
       </c>
@@ -5641,7 +5681,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>2</v>
       </c>
@@ -5649,7 +5689,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>2</v>
       </c>
@@ -5657,7 +5697,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>2</v>
       </c>
@@ -5665,7 +5705,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>2</v>
       </c>
@@ -5673,7 +5713,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>2</v>
       </c>
@@ -5681,7 +5721,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>2</v>
       </c>
@@ -5689,7 +5729,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>2</v>
       </c>
@@ -5697,7 +5737,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>2</v>
       </c>
@@ -5705,7 +5745,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>2</v>
       </c>
@@ -5713,7 +5753,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>2</v>
       </c>
@@ -5721,7 +5761,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>2</v>
       </c>
@@ -5729,7 +5769,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>2</v>
       </c>
@@ -5737,7 +5777,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>2</v>
       </c>
@@ -5745,7 +5785,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>1</v>
       </c>
@@ -5756,7 +5796,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>2</v>
       </c>
@@ -5764,7 +5804,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>2</v>
       </c>
@@ -5772,7 +5812,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>2</v>
       </c>
@@ -5783,7 +5823,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>2</v>
       </c>
@@ -5791,7 +5831,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>2</v>
       </c>
@@ -5799,7 +5839,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>2</v>
       </c>
@@ -5807,7 +5847,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>2</v>
       </c>
@@ -5815,7 +5855,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>2</v>
       </c>
@@ -5823,7 +5863,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>2</v>
       </c>
@@ -5831,7 +5871,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>2</v>
       </c>
@@ -5839,7 +5879,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>2</v>
       </c>
@@ -5847,7 +5887,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>2</v>
       </c>
@@ -5855,7 +5895,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>2</v>
       </c>
@@ -5863,7 +5903,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>2</v>
       </c>
@@ -5871,7 +5911,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>2</v>
       </c>
@@ -5879,7 +5919,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>2</v>
       </c>
@@ -5887,7 +5927,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>2</v>
       </c>
@@ -5895,7 +5935,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>2</v>
       </c>
@@ -5903,7 +5943,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>2</v>
       </c>
@@ -5911,7 +5951,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>1</v>
       </c>
@@ -5922,7 +5962,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>2</v>
       </c>
@@ -5930,7 +5970,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>2</v>
       </c>
@@ -5938,7 +5978,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>2</v>
       </c>
@@ -5946,7 +5986,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>1</v>
       </c>
@@ -5957,7 +5997,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>2</v>
       </c>
@@ -5965,7 +6005,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>2</v>
       </c>
@@ -5973,7 +6013,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>2</v>
       </c>
@@ -5981,7 +6021,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>2</v>
       </c>
@@ -5989,7 +6029,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>1</v>
       </c>
@@ -6003,7 +6043,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>2</v>
       </c>
@@ -6011,7 +6051,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>2</v>
       </c>
@@ -6019,7 +6059,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>2</v>
       </c>
@@ -6027,7 +6067,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>2</v>
       </c>
@@ -6035,7 +6075,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>2</v>
       </c>
@@ -6043,7 +6083,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>2</v>
       </c>
@@ -6051,7 +6091,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>1</v>
       </c>
@@ -6065,7 +6105,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>2</v>
       </c>
@@ -6073,7 +6113,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>2</v>
       </c>
@@ -6081,7 +6121,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>2</v>
       </c>
@@ -6089,7 +6129,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>2</v>
       </c>
@@ -6097,7 +6137,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>2</v>
       </c>
@@ -6105,7 +6145,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>2</v>
       </c>
@@ -6113,7 +6153,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>2</v>
       </c>
@@ -6121,7 +6161,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>2</v>
       </c>
@@ -6129,7 +6169,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>2</v>
       </c>
@@ -6137,7 +6177,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>2</v>
       </c>
@@ -6145,7 +6185,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>2</v>
       </c>
@@ -6153,7 +6193,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>2</v>
       </c>
@@ -6161,7 +6201,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>1</v>
       </c>
@@ -6172,7 +6212,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>2</v>
       </c>
@@ -6180,7 +6220,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>2</v>
       </c>
@@ -6188,7 +6228,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>2</v>
       </c>
@@ -6196,7 +6236,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>2</v>
       </c>
@@ -6204,7 +6244,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>2</v>
       </c>
@@ -6212,7 +6252,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>2</v>
       </c>
@@ -6220,7 +6260,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>2</v>
       </c>
@@ -6228,7 +6268,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>1</v>
       </c>
@@ -6239,7 +6279,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>2</v>
       </c>
@@ -6247,7 +6287,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>2</v>
       </c>
@@ -6255,7 +6295,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>1</v>
       </c>
@@ -6266,7 +6306,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>2</v>
       </c>
@@ -6274,7 +6314,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>2</v>
       </c>
@@ -6282,7 +6322,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>2</v>
       </c>
@@ -6290,7 +6330,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>1</v>
       </c>
@@ -6301,7 +6341,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>2</v>
       </c>
@@ -6313,7 +6353,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>2</v>
       </c>
@@ -6322,7 +6362,7 @@
       </c>
       <c r="C429" s="3"/>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>2</v>
       </c>
@@ -6330,7 +6370,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>2</v>
       </c>
@@ -6338,7 +6378,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>2</v>
       </c>
@@ -6346,7 +6386,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>2</v>
       </c>
@@ -6354,7 +6394,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>2</v>
       </c>
@@ -6362,7 +6402,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>2</v>
       </c>
@@ -6370,7 +6410,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>2</v>
       </c>
@@ -6378,7 +6418,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>2</v>
       </c>
@@ -6386,7 +6426,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>2</v>
       </c>
@@ -6394,7 +6434,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>2</v>
       </c>
@@ -6402,7 +6442,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>2</v>
       </c>
@@ -6410,7 +6450,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>2</v>
       </c>
@@ -6418,7 +6458,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>2</v>
       </c>
@@ -6426,7 +6466,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>2</v>
       </c>
@@ -6434,7 +6474,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>2</v>
       </c>
@@ -6442,7 +6482,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>2</v>
       </c>
@@ -6450,7 +6490,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>2</v>
       </c>
@@ -6458,7 +6498,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>2</v>
       </c>
@@ -6466,7 +6506,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>2</v>
       </c>
@@ -6474,7 +6514,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>2</v>
       </c>
@@ -6482,7 +6522,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>2</v>
       </c>
@@ -6490,7 +6530,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>2</v>
       </c>
@@ -6498,7 +6538,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>2</v>
       </c>
@@ -6506,7 +6546,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>2</v>
       </c>
@@ -6514,7 +6554,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>2</v>
       </c>
@@ -6522,7 +6562,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>2</v>
       </c>
@@ -6530,7 +6570,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>1</v>
       </c>
@@ -6541,7 +6581,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>2</v>
       </c>
@@ -6549,7 +6589,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>2</v>
       </c>
@@ -6557,7 +6597,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>2</v>
       </c>
@@ -6565,7 +6605,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>2</v>
       </c>
@@ -6573,7 +6613,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>2</v>
       </c>
@@ -6581,7 +6621,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>2</v>
       </c>
@@ -6589,7 +6629,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>2</v>
       </c>
@@ -6597,7 +6637,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>1</v>
       </c>
@@ -6608,7 +6648,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>1</v>
       </c>
@@ -6619,7 +6659,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>2</v>
       </c>
@@ -6627,7 +6667,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>2</v>
       </c>
@@ -6635,7 +6675,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>2</v>
       </c>
@@ -6646,7 +6686,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>2</v>
       </c>
@@ -6654,7 +6694,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>2</v>
       </c>
@@ -6662,7 +6702,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>2</v>
       </c>
@@ -6670,7 +6710,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>2</v>
       </c>
@@ -6678,7 +6718,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>2</v>
       </c>
@@ -6686,7 +6726,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>2</v>
       </c>
@@ -6694,7 +6734,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>2</v>
       </c>
@@ -6702,7 +6742,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>2</v>
       </c>
@@ -6710,7 +6750,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>2</v>
       </c>
@@ -6718,7 +6758,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>2</v>
       </c>
@@ -6726,7 +6766,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>2</v>
       </c>
@@ -6734,7 +6774,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>2</v>
       </c>
@@ -6742,7 +6782,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>2</v>
       </c>
@@ -6750,7 +6790,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>2</v>
       </c>
@@ -6758,7 +6798,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>2</v>
       </c>
@@ -6766,7 +6806,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>2</v>
       </c>
@@ -6774,7 +6814,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>1</v>
       </c>
@@ -6785,7 +6825,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>2</v>
       </c>
@@ -6793,7 +6833,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>2</v>
       </c>
@@ -6801,7 +6841,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>2</v>
       </c>
@@ -6809,7 +6849,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>2</v>
       </c>
@@ -6817,7 +6857,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>2</v>
       </c>
@@ -6825,7 +6865,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>2</v>
       </c>
@@ -6833,7 +6873,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>2</v>
       </c>
@@ -6841,7 +6881,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>2</v>
       </c>
@@ -6849,7 +6889,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>2</v>
       </c>
@@ -6857,7 +6897,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>2</v>
       </c>
@@ -6865,7 +6905,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>2</v>
       </c>
@@ -6873,7 +6913,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>1</v>
       </c>
@@ -6884,7 +6924,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>2</v>
       </c>
@@ -6892,7 +6932,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>2</v>
       </c>
@@ -6900,7 +6940,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>2</v>
       </c>
@@ -6908,7 +6948,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>2</v>
       </c>
@@ -6916,7 +6956,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>2</v>
       </c>
@@ -6924,7 +6964,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>2</v>
       </c>
@@ -6932,7 +6972,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>2</v>
       </c>
@@ -6940,7 +6980,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>2</v>
       </c>
@@ -6948,7 +6988,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>2</v>
       </c>
@@ -6956,7 +6996,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>2</v>
       </c>
@@ -6964,7 +7004,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>2</v>
       </c>
@@ -6972,7 +7012,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>1</v>
       </c>
@@ -6983,7 +7023,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>2</v>
       </c>
@@ -6991,7 +7031,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>2</v>
       </c>
@@ -6999,7 +7039,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>2</v>
       </c>
@@ -7007,7 +7047,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>2</v>
       </c>
@@ -7015,7 +7055,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>2</v>
       </c>
@@ -7023,7 +7063,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>2</v>
       </c>
@@ -7031,7 +7071,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>2</v>
       </c>
@@ -7039,7 +7079,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>2</v>
       </c>
@@ -7047,7 +7087,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>2</v>
       </c>
@@ -7055,7 +7095,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>2</v>
       </c>
@@ -7063,7 +7103,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>2</v>
       </c>
@@ -7071,7 +7111,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>2</v>
       </c>
@@ -7079,7 +7119,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>2</v>
       </c>
@@ -7087,7 +7127,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>2</v>
       </c>
@@ -7095,7 +7135,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>2</v>
       </c>
@@ -7103,7 +7143,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>2</v>
       </c>
@@ -7111,7 +7151,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>2</v>
       </c>
@@ -7119,7 +7159,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>2</v>
       </c>
@@ -7127,7 +7167,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>2</v>
       </c>
@@ -7135,7 +7175,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>2</v>
       </c>
@@ -7143,7 +7183,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>2</v>
       </c>
@@ -7151,7 +7191,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>2</v>
       </c>
@@ -7159,7 +7199,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>2</v>
       </c>
@@ -7167,7 +7207,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>2</v>
       </c>
@@ -7175,7 +7215,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>2</v>
       </c>
@@ -7183,7 +7223,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>2</v>
       </c>
@@ -7191,7 +7231,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>2</v>
       </c>
@@ -7199,7 +7239,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>2</v>
       </c>
@@ -7207,7 +7247,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>2</v>
       </c>
@@ -7215,7 +7255,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>2</v>
       </c>
@@ -7223,7 +7263,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>2</v>
       </c>
@@ -7234,7 +7274,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>2</v>
       </c>
@@ -7242,7 +7282,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>2</v>
       </c>
@@ -7250,7 +7290,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>2</v>
       </c>
@@ -7258,7 +7298,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>2</v>
       </c>
@@ -7266,7 +7306,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>2</v>
       </c>
@@ -7274,7 +7314,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>2</v>
       </c>
@@ -7282,7 +7322,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>2</v>
       </c>
@@ -7290,7 +7330,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>1</v>
       </c>
@@ -7301,7 +7341,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>2</v>
       </c>
@@ -7309,7 +7349,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>2</v>
       </c>
@@ -7317,7 +7357,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>2</v>
       </c>
@@ -7325,7 +7365,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>2</v>
       </c>
@@ -7333,7 +7373,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>2</v>
       </c>
@@ -7341,7 +7381,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>2</v>
       </c>
@@ -7349,7 +7389,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>2</v>
       </c>
@@ -7357,7 +7397,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>2</v>
       </c>
@@ -7365,7 +7405,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>2</v>
       </c>
@@ -7373,7 +7413,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>2</v>
       </c>
@@ -7381,7 +7421,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>2</v>
       </c>
@@ -7389,7 +7429,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>2</v>
       </c>
@@ -7397,7 +7437,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>2</v>
       </c>
@@ -7405,7 +7445,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>2</v>
       </c>
@@ -7413,7 +7453,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>2</v>
       </c>
@@ -7421,7 +7461,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>2</v>
       </c>
@@ -7429,7 +7469,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>2</v>
       </c>
@@ -7437,7 +7477,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>2</v>
       </c>
@@ -7445,7 +7485,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>2</v>
       </c>
@@ -7453,7 +7493,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>2</v>
       </c>
@@ -7461,7 +7501,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>2</v>
       </c>
@@ -7469,7 +7509,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>2</v>
       </c>
@@ -7477,7 +7517,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>2</v>
       </c>
@@ -7485,7 +7525,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>2</v>
       </c>
@@ -7493,7 +7533,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>2</v>
       </c>
@@ -7501,7 +7541,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>2</v>
       </c>
@@ -7509,7 +7549,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>2</v>
       </c>
@@ -7517,7 +7557,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>2</v>
       </c>
@@ -7525,7 +7565,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>2</v>
       </c>
@@ -7533,7 +7573,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>2</v>
       </c>
@@ -7541,7 +7581,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>2</v>
       </c>
@@ -7549,7 +7589,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>2</v>
       </c>
@@ -7557,7 +7597,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>2</v>
       </c>
@@ -7565,7 +7605,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>2</v>
       </c>
@@ -7573,7 +7613,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>2</v>
       </c>
@@ -7581,7 +7621,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>2</v>
       </c>
@@ -7589,7 +7629,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>2</v>
       </c>
@@ -7597,7 +7637,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>2</v>
       </c>
@@ -7605,7 +7645,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>2</v>
       </c>
@@ -7613,7 +7653,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>2</v>
       </c>
@@ -7621,7 +7661,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>2</v>
       </c>
@@ -7629,7 +7669,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>2</v>
       </c>
@@ -7637,7 +7677,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>2</v>
       </c>
@@ -7645,7 +7685,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>2</v>
       </c>
@@ -7653,7 +7693,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>2</v>
       </c>
@@ -7661,7 +7701,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>2</v>
       </c>
@@ -7672,7 +7712,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>2</v>
       </c>
@@ -7680,7 +7720,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>2</v>
       </c>
@@ -7688,7 +7728,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>2</v>
       </c>
@@ -7696,7 +7736,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>2</v>
       </c>
@@ -7704,7 +7744,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>2</v>
       </c>
@@ -7712,7 +7752,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>2</v>
       </c>
@@ -7720,7 +7760,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>2</v>
       </c>
@@ -7728,7 +7768,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>2</v>
       </c>
@@ -7736,7 +7776,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>2</v>
       </c>
@@ -7744,7 +7784,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>2</v>
       </c>
@@ -7752,7 +7792,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>2</v>
       </c>
@@ -7760,7 +7800,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>2</v>
       </c>
@@ -7768,12 +7808,82 @@
         <v>653</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>2</v>
       </c>
       <c r="B607" s="1" t="s">
         <v>654</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A608" s="1">
+        <v>2</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A609" s="1">
+        <v>2</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A610" s="1">
+        <v>2</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A611" s="1">
+        <v>2</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A612" s="1">
+        <v>2</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A613" s="1">
+        <v>2</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A614" s="1">
+        <v>2</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A615" s="1">
+        <v>1</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="D615" s="3" t="s">
+        <v>663</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777C8019-D103-466E-B16E-573F84AEC710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E099D5B8-27C0-4BDF-A5A9-C966C5B8E77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="671">
   <si>
     <t>group</t>
   </si>
@@ -2458,6 +2458,30 @@
   </si>
   <si>
     <t>2.71 8281 8284 5904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MXS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迈阿密牛逼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JerryJiao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙无芒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳伯壹仠肆佰伍拾叁世</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2798,10 +2822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D615"/>
+  <dimension ref="A1:D621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A585" workbookViewId="0">
-      <selection activeCell="J602" sqref="J602"/>
+    <sheetView tabSelected="1" topLeftCell="A597" workbookViewId="0">
+      <selection activeCell="C619" sqref="C619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7886,6 +7910,54 @@
         <v>663</v>
       </c>
     </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A616" s="1">
+        <v>2</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A617" s="1">
+        <v>2</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A618" s="1">
+        <v>2</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A619" s="1">
+        <v>2</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A620" s="1">
+        <v>2</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A621" s="1">
+        <v>2</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E099D5B8-27C0-4BDF-A5A9-C966C5B8E77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D0E1BD-36FB-457E-9B16-47F70D0E072F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="675">
   <si>
     <t>group</t>
   </si>
@@ -2482,6 +2482,22 @@
   </si>
   <si>
     <t>陳伯壹仠肆佰伍拾叁世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶龙苏生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mescaline茗零</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2822,10 +2838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D621"/>
+  <dimension ref="A1:D625"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A597" workbookViewId="0">
-      <selection activeCell="C619" sqref="C619"/>
+      <selection activeCell="C624" sqref="C624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7958,6 +7974,38 @@
         <v>670</v>
       </c>
     </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A622" s="1">
+        <v>2</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A623" s="1">
+        <v>2</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A624" s="1">
+        <v>2</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" s="1">
+        <v>2</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D0E1BD-36FB-457E-9B16-47F70D0E072F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2D1E22-F323-4D02-986C-D4FCBB5C2BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13365" yWindow="1440" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="678">
   <si>
     <t>group</t>
   </si>
@@ -2498,6 +2498,18 @@
   </si>
   <si>
     <t>Mescaline茗零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希希希土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食光者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稻谷之骨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2838,10 +2850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D625"/>
+  <dimension ref="A1:D628"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A597" workbookViewId="0">
-      <selection activeCell="C624" sqref="C624"/>
+    <sheetView tabSelected="1" topLeftCell="A600" workbookViewId="0">
+      <selection activeCell="C630" sqref="C630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8006,6 +8018,30 @@
         <v>674</v>
       </c>
     </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" s="1">
+        <v>2</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" s="1">
+        <v>2</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" s="1">
+        <v>2</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2D1E22-F323-4D02-986C-D4FCBB5C2BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC18B61-E844-4E8B-952C-C0850BACC964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13365" yWindow="1440" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="688">
   <si>
     <t>group</t>
   </si>
@@ -2510,6 +2510,46 @@
   </si>
   <si>
     <t>稻谷之骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七茗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harmony_Matrix.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两仪喵喵喵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油呀小德，期待你的游戏大放异彩的那一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i∈△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可乐味的鸽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子夜微雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The_WhiteDragon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2850,10 +2890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D628"/>
+  <dimension ref="A1:D637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A600" workbookViewId="0">
-      <selection activeCell="C630" sqref="C630"/>
+    <sheetView tabSelected="1" topLeftCell="A597" workbookViewId="0">
+      <selection activeCell="C637" sqref="C637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8010,7 +8050,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>2</v>
       </c>
@@ -8018,7 +8058,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>2</v>
       </c>
@@ -8026,7 +8066,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>2</v>
       </c>
@@ -8034,12 +8074,87 @@
         <v>676</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>2</v>
       </c>
       <c r="B628" s="3" t="s">
         <v>677</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629" s="1">
+        <v>2</v>
+      </c>
+      <c r="B629" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630" s="1">
+        <v>2</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A631" s="1">
+        <v>2</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A632" s="1">
+        <v>1</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="C632" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A633" s="1">
+        <v>2</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A634" s="1">
+        <v>2</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A635" s="1">
+        <v>2</v>
+      </c>
+      <c r="B635" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A636" s="1">
+        <v>2</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A637" s="1">
+        <v>2</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>687</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC18B61-E844-4E8B-952C-C0850BACC964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A44741-9703-4BA7-B354-5F13F4A350BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="693">
   <si>
     <t>group</t>
   </si>
@@ -2550,6 +2550,26 @@
   </si>
   <si>
     <t>The_WhiteDragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗紫Dark Violet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9400D3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2890,10 +2910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D637"/>
+  <dimension ref="A1:D641"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A597" workbookViewId="0">
-      <selection activeCell="C637" sqref="C637"/>
+      <selection activeCell="C641" sqref="C641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8157,6 +8177,41 @@
         <v>687</v>
       </c>
     </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A638" s="1">
+        <v>2</v>
+      </c>
+      <c r="B638" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A639" s="1">
+        <v>2</v>
+      </c>
+      <c r="B639" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A640" s="1">
+        <v>2</v>
+      </c>
+      <c r="B640" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A641" s="1">
+        <v>2</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="D641" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A44741-9703-4BA7-B354-5F13F4A350BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C42F198-E44D-4CD9-B568-51AA30D1CE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="699">
   <si>
     <t>group</t>
   </si>
@@ -2570,6 +2570,30 @@
   </si>
   <si>
     <t>#9400D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小砂糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丿墨竹凉夜影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞虎2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带带弟弟传播学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2910,10 +2934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D641"/>
+  <dimension ref="A1:D646"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A597" workbookViewId="0">
-      <selection activeCell="C641" sqref="C641"/>
+      <selection activeCell="C643" sqref="C643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8212,6 +8236,49 @@
         <v>692</v>
       </c>
     </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A642" s="1">
+        <v>2</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A643" s="1">
+        <v>2</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A644" s="1">
+        <v>2</v>
+      </c>
+      <c r="B644" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A645" s="1">
+        <v>1</v>
+      </c>
+      <c r="B645" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="C645" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A646" s="1">
+        <v>2</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C42F198-E44D-4CD9-B568-51AA30D1CE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603223AF-3F92-42F9-AAD4-C6694EE65ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="711">
   <si>
     <t>group</t>
   </si>
@@ -2594,6 +2594,54 @@
   </si>
   <si>
     <t>带带弟弟传播学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庸常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银河修理员小特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栖梧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canophia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoplarBai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛定谔的小猫，QQ名人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨不觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我太帅了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北极渡渡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷异枫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>san_liang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2934,10 +2982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D646"/>
+  <dimension ref="A1:D658"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A597" workbookViewId="0">
-      <selection activeCell="C643" sqref="C643"/>
+    <sheetView tabSelected="1" topLeftCell="A603" workbookViewId="0">
+      <selection activeCell="D653" sqref="D653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8279,6 +8327,102 @@
         <v>697</v>
       </c>
     </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A647" s="1">
+        <v>2</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A648" s="1">
+        <v>2</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A649" s="1">
+        <v>2</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A650" s="1">
+        <v>2</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A651" s="1">
+        <v>2</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A652" s="1">
+        <v>2</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A653" s="1">
+        <v>2</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A654" s="1">
+        <v>2</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A655" s="1">
+        <v>2</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A656" s="1">
+        <v>2</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" s="1">
+        <v>2</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" s="1">
+        <v>2</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603223AF-3F92-42F9-AAD4-C6694EE65ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594C501B-12BC-4F8A-AF7B-972033952E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="715">
   <si>
     <t>group</t>
   </si>
@@ -2642,6 +2642,22 @@
   </si>
   <si>
     <t>san_liang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qqwzczhrll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D.A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chestunt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2982,10 +2998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D658"/>
+  <dimension ref="A1:D662"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A603" workbookViewId="0">
-      <selection activeCell="D653" sqref="D653"/>
+    <sheetView tabSelected="1" topLeftCell="A627" workbookViewId="0">
+      <selection activeCell="C662" sqref="C662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8423,6 +8439,38 @@
         <v>710</v>
       </c>
     </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" s="1">
+        <v>2</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" s="1">
+        <v>2</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" s="1">
+        <v>2</v>
+      </c>
+      <c r="B661" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" s="1">
+        <v>2</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594C501B-12BC-4F8A-AF7B-972033952E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22D8206-60A8-4FE5-A067-1E275136B299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="720">
   <si>
     <t>group</t>
   </si>
@@ -2658,6 +2658,26 @@
   </si>
   <si>
     <t>Chestunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沐澪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春暖鱼跃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷路啊啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯子骞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2998,7 +3018,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D662"/>
+  <dimension ref="A1:D667"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A627" workbookViewId="0">
       <selection activeCell="C662" sqref="C662"/>
@@ -8471,6 +8491,46 @@
         <v>714</v>
       </c>
     </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" s="1">
+        <v>2</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" s="1">
+        <v>2</v>
+      </c>
+      <c r="B664" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" s="1">
+        <v>2</v>
+      </c>
+      <c r="B665" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" s="1">
+        <v>2</v>
+      </c>
+      <c r="B666" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" s="1">
+        <v>2</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\人生重开模拟器等\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22D8206-60A8-4FE5-A067-1E275136B299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8102EAC3-BA9D-4760-93F2-A351D0F22A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="726">
   <si>
     <t>group</t>
   </si>
@@ -2678,6 +2678,30 @@
   </si>
   <si>
     <t>冯子骞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高浩渊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄牛腩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方正在输入…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWMJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentum·VG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3018,21 +3042,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D667"/>
+  <dimension ref="A1:D673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A627" workbookViewId="0">
-      <selection activeCell="C662" sqref="C662"/>
+    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
+      <selection activeCell="B677" sqref="B677"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.08203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.25" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3046,7 +3070,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3057,7 +3081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3065,7 +3089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3073,7 +3097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -3081,7 +3105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -3089,7 +3113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -3097,7 +3121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -3105,7 +3129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -3113,7 +3137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -3121,7 +3145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -3129,7 +3153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -3137,7 +3161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -3145,7 +3169,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -3156,7 +3180,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -3164,7 +3188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -3172,7 +3196,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -3180,7 +3204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -3188,7 +3212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -3199,7 +3223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -3207,7 +3231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -3215,7 +3239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -3223,7 +3247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -3231,7 +3255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -3239,7 +3263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -3247,7 +3271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -3255,7 +3279,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -3263,7 +3287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -3271,7 +3295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -3282,7 +3306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -3290,7 +3314,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -3298,7 +3322,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -3306,7 +3330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -3314,7 +3338,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -3322,7 +3346,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -3330,7 +3354,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -3338,7 +3362,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -3346,7 +3370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -3354,7 +3378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -3362,7 +3386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -3370,7 +3394,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -3378,7 +3402,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -3386,7 +3410,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -3394,7 +3418,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -3402,7 +3426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -3410,7 +3434,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -3418,7 +3442,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -3426,7 +3450,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -3434,7 +3458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -3442,7 +3466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -3450,7 +3474,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -3458,7 +3482,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -3466,7 +3490,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -3474,7 +3498,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -3482,7 +3506,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -3490,7 +3514,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -3498,7 +3522,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -3506,7 +3530,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -3514,7 +3538,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -3522,7 +3546,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -3530,7 +3554,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -3538,7 +3562,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -3546,7 +3570,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -3554,7 +3578,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -3562,7 +3586,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -3570,7 +3594,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>2</v>
       </c>
@@ -3578,7 +3602,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -3586,7 +3610,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -3594,7 +3618,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -3602,7 +3626,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -3610,7 +3634,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -3618,7 +3642,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -3626,7 +3650,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>2</v>
       </c>
@@ -3634,7 +3658,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -3642,7 +3666,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>2</v>
       </c>
@@ -3650,7 +3674,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -3661,7 +3685,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>2</v>
       </c>
@@ -3669,7 +3693,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>2</v>
       </c>
@@ -3677,7 +3701,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>2</v>
       </c>
@@ -3685,7 +3709,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>2</v>
       </c>
@@ -3693,7 +3717,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>2</v>
       </c>
@@ -3701,7 +3725,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -3712,7 +3736,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>2</v>
       </c>
@@ -3720,7 +3744,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>2</v>
       </c>
@@ -3728,7 +3752,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>2</v>
       </c>
@@ -3736,7 +3760,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>2</v>
       </c>
@@ -3744,7 +3768,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>2</v>
       </c>
@@ -3752,7 +3776,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>2</v>
       </c>
@@ -3760,7 +3784,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>2</v>
       </c>
@@ -3768,7 +3792,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>2</v>
       </c>
@@ -3776,7 +3800,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>2</v>
       </c>
@@ -3784,7 +3808,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>2</v>
       </c>
@@ -3792,7 +3816,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>2</v>
       </c>
@@ -3800,7 +3824,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>2</v>
       </c>
@@ -3808,7 +3832,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>2</v>
       </c>
@@ -3816,7 +3840,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>2</v>
       </c>
@@ -3824,7 +3848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>2</v>
       </c>
@@ -3832,7 +3856,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>1</v>
       </c>
@@ -3843,7 +3867,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>2</v>
       </c>
@@ -3851,7 +3875,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -3859,7 +3883,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>2</v>
       </c>
@@ -3867,7 +3891,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>2</v>
       </c>
@@ -3875,7 +3899,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>2</v>
       </c>
@@ -3883,7 +3907,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>2</v>
       </c>
@@ -3891,7 +3915,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>2</v>
       </c>
@@ -3899,7 +3923,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>2</v>
       </c>
@@ -3907,7 +3931,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>2</v>
       </c>
@@ -3915,7 +3939,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>2</v>
       </c>
@@ -3923,7 +3947,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>2</v>
       </c>
@@ -3931,7 +3955,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>1</v>
       </c>
@@ -3942,7 +3966,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>1</v>
       </c>
@@ -3953,7 +3977,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>2</v>
       </c>
@@ -3961,7 +3985,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>2</v>
       </c>
@@ -3969,7 +3993,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>2</v>
       </c>
@@ -3977,7 +4001,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>2</v>
       </c>
@@ -3985,7 +4009,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>2</v>
       </c>
@@ -3993,7 +4017,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>2</v>
       </c>
@@ -4001,7 +4025,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>2</v>
       </c>
@@ -4009,7 +4033,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>2</v>
       </c>
@@ -4017,7 +4041,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>2</v>
       </c>
@@ -4025,7 +4049,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>1</v>
       </c>
@@ -4036,7 +4060,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>2</v>
       </c>
@@ -4044,7 +4068,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -4052,7 +4076,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -4060,7 +4084,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>2</v>
       </c>
@@ -4068,7 +4092,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>2</v>
       </c>
@@ -4076,7 +4100,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -4084,7 +4108,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>2</v>
       </c>
@@ -4092,7 +4116,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>2</v>
       </c>
@@ -4100,7 +4124,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>2</v>
       </c>
@@ -4108,7 +4132,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>2</v>
       </c>
@@ -4116,7 +4140,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>2</v>
       </c>
@@ -4124,7 +4148,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>2</v>
       </c>
@@ -4132,7 +4156,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>2</v>
       </c>
@@ -4140,7 +4164,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>2</v>
       </c>
@@ -4148,7 +4172,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>2</v>
       </c>
@@ -4156,7 +4180,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>2</v>
       </c>
@@ -4164,7 +4188,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>2</v>
       </c>
@@ -4172,7 +4196,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>2</v>
       </c>
@@ -4180,7 +4204,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>2</v>
       </c>
@@ -4188,7 +4212,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>2</v>
       </c>
@@ -4196,7 +4220,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>1</v>
       </c>
@@ -4207,7 +4231,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>2</v>
       </c>
@@ -4215,7 +4239,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>2</v>
       </c>
@@ -4223,7 +4247,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>2</v>
       </c>
@@ -4231,7 +4255,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>2</v>
       </c>
@@ -4239,7 +4263,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>2</v>
       </c>
@@ -4247,7 +4271,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>2</v>
       </c>
@@ -4255,7 +4279,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>2</v>
       </c>
@@ -4263,7 +4287,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>2</v>
       </c>
@@ -4271,7 +4295,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>2</v>
       </c>
@@ -4279,7 +4303,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>2</v>
       </c>
@@ -4287,7 +4311,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>2</v>
       </c>
@@ -4295,7 +4319,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>2</v>
       </c>
@@ -4303,7 +4327,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>2</v>
       </c>
@@ -4311,7 +4335,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>2</v>
       </c>
@@ -4319,7 +4343,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>2</v>
       </c>
@@ -4327,7 +4351,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>2</v>
       </c>
@@ -4335,7 +4359,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>2</v>
       </c>
@@ -4343,7 +4367,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>2</v>
       </c>
@@ -4351,7 +4375,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>2</v>
       </c>
@@ -4359,7 +4383,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>2</v>
       </c>
@@ -4367,7 +4391,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>1</v>
       </c>
@@ -4378,7 +4402,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>2</v>
       </c>
@@ -4386,7 +4410,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>2</v>
       </c>
@@ -4394,7 +4418,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>2</v>
       </c>
@@ -4402,7 +4426,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>1</v>
       </c>
@@ -4413,7 +4437,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>1</v>
       </c>
@@ -4424,7 +4448,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>1</v>
       </c>
@@ -4435,7 +4459,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>2</v>
       </c>
@@ -4443,7 +4467,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>2</v>
       </c>
@@ -4451,7 +4475,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>2</v>
       </c>
@@ -4459,7 +4483,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>2</v>
       </c>
@@ -4467,7 +4491,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>2</v>
       </c>
@@ -4475,7 +4499,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>2</v>
       </c>
@@ -4483,7 +4507,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>2</v>
       </c>
@@ -4491,7 +4515,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>2</v>
       </c>
@@ -4499,7 +4523,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>2</v>
       </c>
@@ -4507,7 +4531,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>2</v>
       </c>
@@ -4515,7 +4539,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>2</v>
       </c>
@@ -4523,7 +4547,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>2</v>
       </c>
@@ -4531,7 +4555,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>2</v>
       </c>
@@ -4539,7 +4563,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>2</v>
       </c>
@@ -4547,7 +4571,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>2</v>
       </c>
@@ -4555,7 +4579,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>2</v>
       </c>
@@ -4563,7 +4587,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>2</v>
       </c>
@@ -4571,7 +4595,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>2</v>
       </c>
@@ -4579,7 +4603,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>2</v>
       </c>
@@ -4587,7 +4611,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>2</v>
       </c>
@@ -4595,7 +4619,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>1</v>
       </c>
@@ -4606,7 +4630,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>2</v>
       </c>
@@ -4614,7 +4638,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>2</v>
       </c>
@@ -4622,7 +4646,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>2</v>
       </c>
@@ -4630,7 +4654,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>2</v>
       </c>
@@ -4638,7 +4662,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>2</v>
       </c>
@@ -4646,7 +4670,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>2</v>
       </c>
@@ -4654,7 +4678,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>2</v>
       </c>
@@ -4662,7 +4686,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>2</v>
       </c>
@@ -4670,7 +4694,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>2</v>
       </c>
@@ -4678,7 +4702,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>2</v>
       </c>
@@ -4686,7 +4710,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>2</v>
       </c>
@@ -4694,7 +4718,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>2</v>
       </c>
@@ -4702,7 +4726,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>2</v>
       </c>
@@ -4710,7 +4734,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>2</v>
       </c>
@@ -4718,7 +4742,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>2</v>
       </c>
@@ -4726,7 +4750,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>2</v>
       </c>
@@ -4734,7 +4758,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>2</v>
       </c>
@@ -4742,7 +4766,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>2</v>
       </c>
@@ -4750,7 +4774,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>2</v>
       </c>
@@ -4758,7 +4782,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>2</v>
       </c>
@@ -4766,7 +4790,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>2</v>
       </c>
@@ -4774,7 +4798,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>2</v>
       </c>
@@ -4782,7 +4806,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>1</v>
       </c>
@@ -4793,7 +4817,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>2</v>
       </c>
@@ -4801,7 +4825,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>1</v>
       </c>
@@ -4812,7 +4836,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>2</v>
       </c>
@@ -4821,7 +4845,7 @@
       </c>
       <c r="C217" s="2"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>2</v>
       </c>
@@ -4829,7 +4853,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>2</v>
       </c>
@@ -4837,7 +4861,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>2</v>
       </c>
@@ -4845,7 +4869,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>2</v>
       </c>
@@ -4853,7 +4877,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>2</v>
       </c>
@@ -4861,7 +4885,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>2</v>
       </c>
@@ -4869,7 +4893,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>2</v>
       </c>
@@ -4877,7 +4901,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>2</v>
       </c>
@@ -4885,7 +4909,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>2</v>
       </c>
@@ -4893,7 +4917,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>1</v>
       </c>
@@ -4904,7 +4928,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>2</v>
       </c>
@@ -4912,7 +4936,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>2</v>
       </c>
@@ -4920,7 +4944,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>2</v>
       </c>
@@ -4928,7 +4952,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>2</v>
       </c>
@@ -4936,7 +4960,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>2</v>
       </c>
@@ -4944,7 +4968,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>2</v>
       </c>
@@ -4952,7 +4976,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>2</v>
       </c>
@@ -4960,7 +4984,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>2</v>
       </c>
@@ -4968,7 +4992,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>2</v>
       </c>
@@ -4976,7 +5000,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>2</v>
       </c>
@@ -4984,7 +5008,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>2</v>
       </c>
@@ -4992,7 +5016,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>2</v>
       </c>
@@ -5000,7 +5024,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>2</v>
       </c>
@@ -5008,7 +5032,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>2</v>
       </c>
@@ -5016,7 +5040,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>1</v>
       </c>
@@ -5027,7 +5051,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>2</v>
       </c>
@@ -5035,7 +5059,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>2</v>
       </c>
@@ -5043,7 +5067,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>2</v>
       </c>
@@ -5051,7 +5075,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>2</v>
       </c>
@@ -5059,7 +5083,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>2</v>
       </c>
@@ -5067,7 +5091,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>2</v>
       </c>
@@ -5075,7 +5099,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>2</v>
       </c>
@@ -5083,7 +5107,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>2</v>
       </c>
@@ -5091,7 +5115,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>2</v>
       </c>
@@ -5099,7 +5123,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>2</v>
       </c>
@@ -5107,7 +5131,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>1</v>
       </c>
@@ -5118,7 +5142,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>2</v>
       </c>
@@ -5126,7 +5150,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>2</v>
       </c>
@@ -5134,7 +5158,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>2</v>
       </c>
@@ -5142,7 +5166,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>2</v>
       </c>
@@ -5150,7 +5174,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>2</v>
       </c>
@@ -5158,7 +5182,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>2</v>
       </c>
@@ -5166,7 +5190,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>2</v>
       </c>
@@ -5174,7 +5198,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>1</v>
       </c>
@@ -5185,7 +5209,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>2</v>
       </c>
@@ -5193,7 +5217,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>2</v>
       </c>
@@ -5201,7 +5225,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>1</v>
       </c>
@@ -5212,7 +5236,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>2</v>
       </c>
@@ -5220,7 +5244,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>2</v>
       </c>
@@ -5228,7 +5252,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>2</v>
       </c>
@@ -5236,7 +5260,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>2</v>
       </c>
@@ -5244,7 +5268,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>2</v>
       </c>
@@ -5252,7 +5276,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>2</v>
       </c>
@@ -5260,7 +5284,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>2</v>
       </c>
@@ -5268,7 +5292,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>2</v>
       </c>
@@ -5276,7 +5300,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>2</v>
       </c>
@@ -5284,7 +5308,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>2</v>
       </c>
@@ -5292,7 +5316,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>2</v>
       </c>
@@ -5300,7 +5324,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>2</v>
       </c>
@@ -5308,7 +5332,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>2</v>
       </c>
@@ -5316,7 +5340,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>2</v>
       </c>
@@ -5324,7 +5348,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>2</v>
       </c>
@@ -5332,7 +5356,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>2</v>
       </c>
@@ -5340,7 +5364,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>2</v>
       </c>
@@ -5348,7 +5372,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>2</v>
       </c>
@@ -5356,7 +5380,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>2</v>
       </c>
@@ -5364,7 +5388,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>2</v>
       </c>
@@ -5372,7 +5396,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>2</v>
       </c>
@@ -5380,7 +5404,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>1</v>
       </c>
@@ -5391,7 +5415,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>2</v>
       </c>
@@ -5399,7 +5423,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>2</v>
       </c>
@@ -5407,7 +5431,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>2</v>
       </c>
@@ -5415,7 +5439,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>2</v>
       </c>
@@ -5423,7 +5447,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>2</v>
       </c>
@@ -5431,7 +5455,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>2</v>
       </c>
@@ -5439,7 +5463,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>2</v>
       </c>
@@ -5447,7 +5471,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>2</v>
       </c>
@@ -5455,7 +5479,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>2</v>
       </c>
@@ -5463,7 +5487,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>2</v>
       </c>
@@ -5471,7 +5495,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>2</v>
       </c>
@@ -5479,7 +5503,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>2</v>
       </c>
@@ -5487,7 +5511,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>2</v>
       </c>
@@ -5495,7 +5519,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>2</v>
       </c>
@@ -5503,7 +5527,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>2</v>
       </c>
@@ -5511,7 +5535,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>1</v>
       </c>
@@ -5522,7 +5546,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>2</v>
       </c>
@@ -5530,7 +5554,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>2</v>
       </c>
@@ -5538,7 +5562,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>2</v>
       </c>
@@ -5546,7 +5570,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>2</v>
       </c>
@@ -5554,7 +5578,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>2</v>
       </c>
@@ -5562,7 +5586,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>2</v>
       </c>
@@ -5570,7 +5594,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>2</v>
       </c>
@@ -5578,7 +5602,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>2</v>
       </c>
@@ -5586,7 +5610,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>2</v>
       </c>
@@ -5594,7 +5618,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>2</v>
       </c>
@@ -5602,7 +5626,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>2</v>
       </c>
@@ -5610,7 +5634,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>2</v>
       </c>
@@ -5618,7 +5642,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>2</v>
       </c>
@@ -5626,7 +5650,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>2</v>
       </c>
@@ -5634,7 +5658,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>2</v>
       </c>
@@ -5642,7 +5666,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>2</v>
       </c>
@@ -5650,7 +5674,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>2</v>
       </c>
@@ -5658,7 +5682,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>2</v>
       </c>
@@ -5666,7 +5690,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>2</v>
       </c>
@@ -5674,7 +5698,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>2</v>
       </c>
@@ -5682,7 +5706,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>2</v>
       </c>
@@ -5690,7 +5714,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>2</v>
       </c>
@@ -5698,7 +5722,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>2</v>
       </c>
@@ -5706,7 +5730,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>2</v>
       </c>
@@ -5714,7 +5738,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>2</v>
       </c>
@@ -5722,7 +5746,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>2</v>
       </c>
@@ -5730,7 +5754,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>2</v>
       </c>
@@ -5738,7 +5762,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>2</v>
       </c>
@@ -5746,7 +5770,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>2</v>
       </c>
@@ -5754,7 +5778,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>2</v>
       </c>
@@ -5762,7 +5786,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>2</v>
       </c>
@@ -5770,7 +5794,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>2</v>
       </c>
@@ -5778,7 +5802,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>2</v>
       </c>
@@ -5786,7 +5810,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>2</v>
       </c>
@@ -5794,7 +5818,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>2</v>
       </c>
@@ -5802,7 +5826,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>2</v>
       </c>
@@ -5810,7 +5834,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>2</v>
       </c>
@@ -5818,7 +5842,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>2</v>
       </c>
@@ -5826,7 +5850,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>2</v>
       </c>
@@ -5834,7 +5858,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>2</v>
       </c>
@@ -5842,7 +5866,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>1</v>
       </c>
@@ -5853,7 +5877,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>2</v>
       </c>
@@ -5861,7 +5885,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>2</v>
       </c>
@@ -5869,7 +5893,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>2</v>
       </c>
@@ -5877,7 +5901,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>2</v>
       </c>
@@ -5885,7 +5909,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>2</v>
       </c>
@@ -5893,7 +5917,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>2</v>
       </c>
@@ -5901,7 +5925,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>2</v>
       </c>
@@ -5909,7 +5933,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>2</v>
       </c>
@@ -5917,7 +5941,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>2</v>
       </c>
@@ -5925,7 +5949,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>2</v>
       </c>
@@ -5933,7 +5957,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>2</v>
       </c>
@@ -5941,7 +5965,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>2</v>
       </c>
@@ -5949,7 +5973,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>2</v>
       </c>
@@ -5957,7 +5981,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>2</v>
       </c>
@@ -5965,7 +5989,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>2</v>
       </c>
@@ -5973,7 +5997,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>2</v>
       </c>
@@ -5981,7 +6005,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>2</v>
       </c>
@@ -5989,7 +6013,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>2</v>
       </c>
@@ -5997,7 +6021,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>2</v>
       </c>
@@ -6005,7 +6029,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>1</v>
       </c>
@@ -6016,7 +6040,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>2</v>
       </c>
@@ -6024,7 +6048,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>2</v>
       </c>
@@ -6032,7 +6056,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>2</v>
       </c>
@@ -6043,7 +6067,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>2</v>
       </c>
@@ -6051,7 +6075,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>2</v>
       </c>
@@ -6059,7 +6083,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>2</v>
       </c>
@@ -6067,7 +6091,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>2</v>
       </c>
@@ -6075,7 +6099,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>2</v>
       </c>
@@ -6083,7 +6107,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>2</v>
       </c>
@@ -6091,7 +6115,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>2</v>
       </c>
@@ -6099,7 +6123,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>2</v>
       </c>
@@ -6107,7 +6131,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>2</v>
       </c>
@@ -6115,7 +6139,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>2</v>
       </c>
@@ -6123,7 +6147,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>2</v>
       </c>
@@ -6131,7 +6155,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>2</v>
       </c>
@@ -6139,7 +6163,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>2</v>
       </c>
@@ -6147,7 +6171,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>2</v>
       </c>
@@ -6155,7 +6179,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>2</v>
       </c>
@@ -6163,7 +6187,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>2</v>
       </c>
@@ -6171,7 +6195,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>1</v>
       </c>
@@ -6182,7 +6206,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>2</v>
       </c>
@@ -6190,7 +6214,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>2</v>
       </c>
@@ -6198,7 +6222,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>2</v>
       </c>
@@ -6206,7 +6230,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>1</v>
       </c>
@@ -6217,7 +6241,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>2</v>
       </c>
@@ -6225,7 +6249,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>2</v>
       </c>
@@ -6233,7 +6257,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>2</v>
       </c>
@@ -6241,7 +6265,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>2</v>
       </c>
@@ -6249,7 +6273,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>1</v>
       </c>
@@ -6263,7 +6287,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>2</v>
       </c>
@@ -6271,7 +6295,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>2</v>
       </c>
@@ -6279,7 +6303,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>2</v>
       </c>
@@ -6287,7 +6311,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>2</v>
       </c>
@@ -6295,7 +6319,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>2</v>
       </c>
@@ -6303,7 +6327,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>2</v>
       </c>
@@ -6311,7 +6335,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>1</v>
       </c>
@@ -6325,7 +6349,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>2</v>
       </c>
@@ -6333,7 +6357,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>2</v>
       </c>
@@ -6341,7 +6365,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>2</v>
       </c>
@@ -6349,7 +6373,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>2</v>
       </c>
@@ -6357,7 +6381,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>2</v>
       </c>
@@ -6365,7 +6389,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>2</v>
       </c>
@@ -6373,7 +6397,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>2</v>
       </c>
@@ -6381,7 +6405,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>2</v>
       </c>
@@ -6389,7 +6413,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>2</v>
       </c>
@@ -6397,7 +6421,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>2</v>
       </c>
@@ -6405,7 +6429,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>2</v>
       </c>
@@ -6413,7 +6437,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>2</v>
       </c>
@@ -6421,7 +6445,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>1</v>
       </c>
@@ -6432,7 +6456,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>2</v>
       </c>
@@ -6440,7 +6464,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>2</v>
       </c>
@@ -6448,7 +6472,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>2</v>
       </c>
@@ -6456,7 +6480,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>2</v>
       </c>
@@ -6464,7 +6488,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>2</v>
       </c>
@@ -6472,7 +6496,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>2</v>
       </c>
@@ -6480,7 +6504,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>2</v>
       </c>
@@ -6488,7 +6512,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>1</v>
       </c>
@@ -6499,7 +6523,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>2</v>
       </c>
@@ -6507,7 +6531,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>2</v>
       </c>
@@ -6515,7 +6539,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>1</v>
       </c>
@@ -6526,7 +6550,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>2</v>
       </c>
@@ -6534,7 +6558,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>2</v>
       </c>
@@ -6542,7 +6566,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>2</v>
       </c>
@@ -6550,7 +6574,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>1</v>
       </c>
@@ -6561,7 +6585,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>2</v>
       </c>
@@ -6573,7 +6597,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>2</v>
       </c>
@@ -6582,7 +6606,7 @@
       </c>
       <c r="C429" s="3"/>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>2</v>
       </c>
@@ -6590,7 +6614,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>2</v>
       </c>
@@ -6598,7 +6622,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>2</v>
       </c>
@@ -6606,7 +6630,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>2</v>
       </c>
@@ -6614,7 +6638,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>2</v>
       </c>
@@ -6622,7 +6646,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>2</v>
       </c>
@@ -6630,7 +6654,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>2</v>
       </c>
@@ -6638,7 +6662,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>2</v>
       </c>
@@ -6646,7 +6670,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>2</v>
       </c>
@@ -6654,7 +6678,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>2</v>
       </c>
@@ -6662,7 +6686,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>2</v>
       </c>
@@ -6670,7 +6694,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>2</v>
       </c>
@@ -6678,7 +6702,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>2</v>
       </c>
@@ -6686,7 +6710,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>2</v>
       </c>
@@ -6694,7 +6718,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>2</v>
       </c>
@@ -6702,7 +6726,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>2</v>
       </c>
@@ -6710,7 +6734,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>2</v>
       </c>
@@ -6718,7 +6742,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>2</v>
       </c>
@@ -6726,7 +6750,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>2</v>
       </c>
@@ -6734,7 +6758,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>2</v>
       </c>
@@ -6742,7 +6766,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>2</v>
       </c>
@@ -6750,7 +6774,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>2</v>
       </c>
@@ -6758,7 +6782,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>2</v>
       </c>
@@ -6766,7 +6790,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>2</v>
       </c>
@@ -6774,7 +6798,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>2</v>
       </c>
@@ -6782,7 +6806,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>2</v>
       </c>
@@ -6790,7 +6814,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>1</v>
       </c>
@@ -6801,7 +6825,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>2</v>
       </c>
@@ -6809,7 +6833,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>2</v>
       </c>
@@ -6817,7 +6841,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>2</v>
       </c>
@@ -6825,7 +6849,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>2</v>
       </c>
@@ -6833,7 +6857,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>2</v>
       </c>
@@ -6841,7 +6865,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>2</v>
       </c>
@@ -6849,7 +6873,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>2</v>
       </c>
@@ -6857,7 +6881,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>1</v>
       </c>
@@ -6868,7 +6892,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>1</v>
       </c>
@@ -6879,7 +6903,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>2</v>
       </c>
@@ -6887,7 +6911,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>2</v>
       </c>
@@ -6895,7 +6919,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>2</v>
       </c>
@@ -6906,7 +6930,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>2</v>
       </c>
@@ -6914,7 +6938,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>2</v>
       </c>
@@ -6922,7 +6946,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>2</v>
       </c>
@@ -6930,7 +6954,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>2</v>
       </c>
@@ -6938,7 +6962,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>2</v>
       </c>
@@ -6946,7 +6970,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>2</v>
       </c>
@@ -6954,7 +6978,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>2</v>
       </c>
@@ -6962,7 +6986,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>2</v>
       </c>
@@ -6970,7 +6994,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>2</v>
       </c>
@@ -6978,7 +7002,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>2</v>
       </c>
@@ -6986,7 +7010,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>2</v>
       </c>
@@ -6994,7 +7018,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>2</v>
       </c>
@@ -7002,7 +7026,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>2</v>
       </c>
@@ -7010,7 +7034,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>2</v>
       </c>
@@ -7018,7 +7042,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>2</v>
       </c>
@@ -7026,7 +7050,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>2</v>
       </c>
@@ -7034,7 +7058,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>1</v>
       </c>
@@ -7045,7 +7069,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>2</v>
       </c>
@@ -7053,7 +7077,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>2</v>
       </c>
@@ -7061,7 +7085,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>2</v>
       </c>
@@ -7069,7 +7093,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>2</v>
       </c>
@@ -7077,7 +7101,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>2</v>
       </c>
@@ -7085,7 +7109,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>2</v>
       </c>
@@ -7093,7 +7117,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>2</v>
       </c>
@@ -7101,7 +7125,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>2</v>
       </c>
@@ -7109,7 +7133,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>2</v>
       </c>
@@ -7117,7 +7141,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>2</v>
       </c>
@@ -7125,7 +7149,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>2</v>
       </c>
@@ -7133,7 +7157,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>1</v>
       </c>
@@ -7144,7 +7168,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>2</v>
       </c>
@@ -7152,7 +7176,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>2</v>
       </c>
@@ -7160,7 +7184,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>2</v>
       </c>
@@ -7168,7 +7192,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>2</v>
       </c>
@@ -7176,7 +7200,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>2</v>
       </c>
@@ -7184,7 +7208,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>2</v>
       </c>
@@ -7192,7 +7216,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>2</v>
       </c>
@@ -7200,7 +7224,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>2</v>
       </c>
@@ -7208,7 +7232,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>2</v>
       </c>
@@ -7216,7 +7240,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>2</v>
       </c>
@@ -7224,7 +7248,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>2</v>
       </c>
@@ -7232,7 +7256,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>1</v>
       </c>
@@ -7243,7 +7267,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>2</v>
       </c>
@@ -7251,7 +7275,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>2</v>
       </c>
@@ -7259,7 +7283,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>2</v>
       </c>
@@ -7267,7 +7291,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>2</v>
       </c>
@@ -7275,7 +7299,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>2</v>
       </c>
@@ -7283,7 +7307,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>2</v>
       </c>
@@ -7291,7 +7315,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>2</v>
       </c>
@@ -7299,7 +7323,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>2</v>
       </c>
@@ -7307,7 +7331,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>2</v>
       </c>
@@ -7315,7 +7339,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>2</v>
       </c>
@@ -7323,7 +7347,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>2</v>
       </c>
@@ -7331,7 +7355,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>2</v>
       </c>
@@ -7339,7 +7363,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>2</v>
       </c>
@@ -7347,7 +7371,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>2</v>
       </c>
@@ -7355,7 +7379,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>2</v>
       </c>
@@ -7363,7 +7387,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>2</v>
       </c>
@@ -7371,7 +7395,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>2</v>
       </c>
@@ -7379,7 +7403,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>2</v>
       </c>
@@ -7387,7 +7411,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>2</v>
       </c>
@@ -7395,7 +7419,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>2</v>
       </c>
@@ -7403,7 +7427,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>2</v>
       </c>
@@ -7411,7 +7435,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>2</v>
       </c>
@@ -7419,7 +7443,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>2</v>
       </c>
@@ -7427,7 +7451,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>2</v>
       </c>
@@ -7435,7 +7459,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>2</v>
       </c>
@@ -7443,7 +7467,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>2</v>
       </c>
@@ -7451,7 +7475,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>2</v>
       </c>
@@ -7459,7 +7483,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>2</v>
       </c>
@@ -7467,7 +7491,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>2</v>
       </c>
@@ -7475,7 +7499,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>2</v>
       </c>
@@ -7483,7 +7507,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>2</v>
       </c>
@@ -7494,7 +7518,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>2</v>
       </c>
@@ -7502,7 +7526,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>2</v>
       </c>
@@ -7510,7 +7534,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>2</v>
       </c>
@@ -7518,7 +7542,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>2</v>
       </c>
@@ -7526,7 +7550,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>2</v>
       </c>
@@ -7534,7 +7558,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>2</v>
       </c>
@@ -7542,7 +7566,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>2</v>
       </c>
@@ -7550,7 +7574,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>1</v>
       </c>
@@ -7561,7 +7585,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>2</v>
       </c>
@@ -7569,7 +7593,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>2</v>
       </c>
@@ -7577,7 +7601,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>2</v>
       </c>
@@ -7585,7 +7609,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>2</v>
       </c>
@@ -7593,7 +7617,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>2</v>
       </c>
@@ -7601,7 +7625,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>2</v>
       </c>
@@ -7609,7 +7633,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>2</v>
       </c>
@@ -7617,7 +7641,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>2</v>
       </c>
@@ -7625,7 +7649,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>2</v>
       </c>
@@ -7633,7 +7657,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>2</v>
       </c>
@@ -7641,7 +7665,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>2</v>
       </c>
@@ -7649,7 +7673,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>2</v>
       </c>
@@ -7657,7 +7681,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>2</v>
       </c>
@@ -7665,7 +7689,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>2</v>
       </c>
@@ -7673,7 +7697,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>2</v>
       </c>
@@ -7681,7 +7705,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>2</v>
       </c>
@@ -7689,7 +7713,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>2</v>
       </c>
@@ -7697,7 +7721,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>2</v>
       </c>
@@ -7705,7 +7729,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>2</v>
       </c>
@@ -7713,7 +7737,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>2</v>
       </c>
@@ -7721,7 +7745,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>2</v>
       </c>
@@ -7729,7 +7753,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>2</v>
       </c>
@@ -7737,7 +7761,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>2</v>
       </c>
@@ -7745,7 +7769,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>2</v>
       </c>
@@ -7753,7 +7777,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>2</v>
       </c>
@@ -7761,7 +7785,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>2</v>
       </c>
@@ -7769,7 +7793,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>2</v>
       </c>
@@ -7777,7 +7801,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>2</v>
       </c>
@@ -7785,7 +7809,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>2</v>
       </c>
@@ -7793,7 +7817,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>2</v>
       </c>
@@ -7801,7 +7825,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>2</v>
       </c>
@@ -7809,7 +7833,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>2</v>
       </c>
@@ -7817,7 +7841,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>2</v>
       </c>
@@ -7825,7 +7849,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>2</v>
       </c>
@@ -7833,7 +7857,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>2</v>
       </c>
@@ -7841,7 +7865,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>2</v>
       </c>
@@ -7849,7 +7873,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>2</v>
       </c>
@@ -7857,7 +7881,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>2</v>
       </c>
@@ -7865,7 +7889,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>2</v>
       </c>
@@ -7873,7 +7897,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>2</v>
       </c>
@@ -7881,7 +7905,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>2</v>
       </c>
@@ -7889,7 +7913,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>2</v>
       </c>
@@ -7897,7 +7921,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>2</v>
       </c>
@@ -7905,7 +7929,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>2</v>
       </c>
@@ -7913,7 +7937,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>2</v>
       </c>
@@ -7921,7 +7945,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>2</v>
       </c>
@@ -7932,7 +7956,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>2</v>
       </c>
@@ -7940,7 +7964,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>2</v>
       </c>
@@ -7948,7 +7972,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>2</v>
       </c>
@@ -7956,7 +7980,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>2</v>
       </c>
@@ -7964,7 +7988,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>2</v>
       </c>
@@ -7972,7 +7996,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>2</v>
       </c>
@@ -7980,7 +8004,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>2</v>
       </c>
@@ -7988,7 +8012,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>2</v>
       </c>
@@ -7996,7 +8020,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>2</v>
       </c>
@@ -8004,7 +8028,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>2</v>
       </c>
@@ -8012,7 +8036,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>2</v>
       </c>
@@ -8020,7 +8044,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>2</v>
       </c>
@@ -8028,7 +8052,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>2</v>
       </c>
@@ -8036,7 +8060,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>2</v>
       </c>
@@ -8044,7 +8068,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>2</v>
       </c>
@@ -8052,7 +8076,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>2</v>
       </c>
@@ -8060,7 +8084,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>2</v>
       </c>
@@ -8068,7 +8092,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>2</v>
       </c>
@@ -8076,7 +8100,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>2</v>
       </c>
@@ -8084,7 +8108,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>2</v>
       </c>
@@ -8092,7 +8116,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>1</v>
       </c>
@@ -8106,7 +8130,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>2</v>
       </c>
@@ -8114,7 +8138,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>2</v>
       </c>
@@ -8122,7 +8146,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>2</v>
       </c>
@@ -8130,7 +8154,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>2</v>
       </c>
@@ -8138,7 +8162,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>2</v>
       </c>
@@ -8146,7 +8170,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>2</v>
       </c>
@@ -8154,7 +8178,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>2</v>
       </c>
@@ -8162,7 +8186,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>2</v>
       </c>
@@ -8170,7 +8194,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>2</v>
       </c>
@@ -8178,7 +8202,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>2</v>
       </c>
@@ -8186,7 +8210,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>2</v>
       </c>
@@ -8194,7 +8218,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>2</v>
       </c>
@@ -8202,7 +8226,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>2</v>
       </c>
@@ -8210,7 +8234,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>2</v>
       </c>
@@ -8218,7 +8242,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>2</v>
       </c>
@@ -8226,7 +8250,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>2</v>
       </c>
@@ -8234,7 +8258,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>1</v>
       </c>
@@ -8245,7 +8269,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>2</v>
       </c>
@@ -8253,7 +8277,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>2</v>
       </c>
@@ -8261,7 +8285,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>2</v>
       </c>
@@ -8269,7 +8293,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>2</v>
       </c>
@@ -8277,7 +8301,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>2</v>
       </c>
@@ -8285,7 +8309,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>2</v>
       </c>
@@ -8293,7 +8317,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>2</v>
       </c>
@@ -8301,7 +8325,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>2</v>
       </c>
@@ -8309,7 +8333,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>2</v>
       </c>
@@ -8320,7 +8344,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>2</v>
       </c>
@@ -8328,7 +8352,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>2</v>
       </c>
@@ -8336,7 +8360,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>2</v>
       </c>
@@ -8344,7 +8368,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>1</v>
       </c>
@@ -8355,7 +8379,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>2</v>
       </c>
@@ -8363,7 +8387,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>2</v>
       </c>
@@ -8371,7 +8395,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>2</v>
       </c>
@@ -8379,7 +8403,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>2</v>
       </c>
@@ -8387,7 +8411,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>2</v>
       </c>
@@ -8395,7 +8419,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>2</v>
       </c>
@@ -8403,7 +8427,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>2</v>
       </c>
@@ -8411,7 +8435,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>2</v>
       </c>
@@ -8419,7 +8443,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>2</v>
       </c>
@@ -8427,7 +8451,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>2</v>
       </c>
@@ -8435,7 +8459,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>2</v>
       </c>
@@ -8443,7 +8467,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>2</v>
       </c>
@@ -8451,7 +8475,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>2</v>
       </c>
@@ -8459,7 +8483,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>2</v>
       </c>
@@ -8467,7 +8491,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>2</v>
       </c>
@@ -8475,7 +8499,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>2</v>
       </c>
@@ -8483,7 +8507,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>2</v>
       </c>
@@ -8491,7 +8515,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>2</v>
       </c>
@@ -8499,7 +8523,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>2</v>
       </c>
@@ -8507,7 +8531,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>2</v>
       </c>
@@ -8515,7 +8539,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>2</v>
       </c>
@@ -8523,12 +8547,60 @@
         <v>718</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>2</v>
       </c>
       <c r="B667" s="3" t="s">
         <v>719</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A668" s="1">
+        <v>2</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A669" s="1">
+        <v>2</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A670" s="1">
+        <v>2</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671" s="1">
+        <v>2</v>
+      </c>
+      <c r="B671" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A672" s="1">
+        <v>2</v>
+      </c>
+      <c r="B672" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A673" s="1">
+        <v>2</v>
+      </c>
+      <c r="B673" s="3" t="s">
+        <v>725</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\人生重开模拟器等\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8102EAC3-BA9D-4760-93F2-A351D0F22A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7BA602-FEFF-4116-AEF3-3EF58DACDAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="730">
   <si>
     <t>group</t>
   </si>
@@ -2702,6 +2702,22 @@
   </si>
   <si>
     <t>Argentum·VG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理天祭之主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为溪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含砾月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HHYYYY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3042,10 +3058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D673"/>
+  <dimension ref="A1:D677"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
-      <selection activeCell="B677" sqref="B677"/>
+      <selection activeCell="C673" sqref="C673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8603,6 +8619,38 @@
         <v>725</v>
       </c>
     </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674" s="1">
+        <v>2</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A675" s="1">
+        <v>2</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A676" s="1">
+        <v>2</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A677" s="1">
+        <v>2</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
